--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6AEECF-9A85-4523-8683-7B19E0A7FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F88A2-27D6-4918-A856-BFC8FF94F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -70,21 +70,6 @@
   </si>
   <si>
     <t>Tổng hợp công việc của các thành viên để hoàn thiện chương 1 BTL</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem sách theo thể loại, bảo trì sách.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ usecase,mô tả usecase xem sách theo xu hướng,bảo trì xu hướng.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ usecase,mô tả usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
   </si>
   <si>
     <t>Tổng hợp và viết báo cáo chương II</t>
@@ -166,6 +151,15 @@
   </si>
   <si>
     <t>Đỗ Thành Đạt, Nguyễn Văn Cương, Lê Quốc Đạt</t>
+  </si>
+  <si>
+    <t>Xác định database, template user, dashboard và các usecase</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase …</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối quan hệ giữa các use case, mô tả usecase …</t>
   </si>
 </sst>
 </file>
@@ -267,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,9 +289,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -555,30 +546,30 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="18" customWidth="1"/>
     <col min="3" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="26" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -598,17 +589,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>43</v>
+      <c r="A2" s="21" t="s">
+        <v>38</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -628,17 +619,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>40</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -658,17 +649,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>36</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -688,17 +679,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>42</v>
+      <c r="A5" s="21" t="s">
+        <v>37</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -721,7 +712,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -767,26 +758,26 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45560</v>
+        <v>45552</v>
       </c>
       <c r="D7" s="7">
-        <v>45560</v>
+        <v>45552</v>
       </c>
       <c r="E7" s="7">
-        <v>45563</v>
+        <v>45558</v>
       </c>
       <c r="F7" s="7">
-        <v>45563</v>
+        <v>45558</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
@@ -813,26 +804,26 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>45560</v>
+        <v>45552</v>
       </c>
       <c r="D8" s="7">
-        <v>45560</v>
+        <v>45552</v>
       </c>
       <c r="E8" s="7">
-        <v>45563</v>
+        <v>45558</v>
       </c>
       <c r="F8" s="7">
-        <v>45563</v>
+        <v>45558</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -859,26 +850,26 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7">
-        <v>45560</v>
+        <v>45559</v>
       </c>
       <c r="D9" s="7">
-        <v>45560</v>
+        <v>45559</v>
       </c>
       <c r="E9" s="7">
-        <v>45563</v>
+        <v>45565</v>
       </c>
       <c r="F9" s="7">
-        <v>45563</v>
+        <v>45565</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -901,30 +892,34 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>15</v>
+      <c r="B10" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="9">
-        <v>44863</v>
+        <v>45566</v>
       </c>
       <c r="D10" s="9">
-        <v>44863</v>
+        <v>45566</v>
       </c>
       <c r="E10" s="9">
-        <v>44876</v>
+        <v>45572</v>
       </c>
       <c r="F10" s="9">
-        <v>44876</v>
+        <v>45572</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -942,28 +937,26 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>16</v>
+      <c r="B11" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="D11" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="E11" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
       <c r="F11" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -983,28 +976,26 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>17</v>
+      <c r="B12" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="D12" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="E12" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
       <c r="F12" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
@@ -1028,24 +1019,22 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>18</v>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="D13" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="E13" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
       <c r="F13" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -1066,28 +1055,26 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>19</v>
+      <c r="B14" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="D14" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="E14" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
       <c r="F14" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -1108,30 +1095,30 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="D15" s="9">
-        <v>44863</v>
+        <v>45573</v>
       </c>
       <c r="E15" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
       <c r="F15" s="9">
-        <v>44876</v>
+        <v>45579</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1150,32 +1137,28 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>21</v>
+      <c r="B16" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="C16" s="10">
-        <v>44877</v>
+      <c r="C16" s="9">
+        <v>45573</v>
       </c>
-      <c r="D16" s="10">
-        <v>44877</v>
+      <c r="D16" s="9">
+        <v>45573</v>
       </c>
-      <c r="E16" s="10">
-        <v>44891</v>
+      <c r="E16" s="9">
+        <v>45579</v>
       </c>
-      <c r="F16" s="10">
-        <v>44891</v>
+      <c r="F16" s="9">
+        <v>45579</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1198,26 +1181,24 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>23</v>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
       </c>
-      <c r="C17" s="10">
-        <v>44877</v>
+      <c r="C17" s="9">
+        <v>45573</v>
       </c>
-      <c r="D17" s="10">
-        <v>44877</v>
+      <c r="D17" s="9">
+        <v>45573</v>
       </c>
-      <c r="E17" s="10">
-        <v>44891</v>
+      <c r="E17" s="9">
+        <v>45579</v>
       </c>
-      <c r="F17" s="10">
-        <v>44891</v>
+      <c r="F17" s="9">
+        <v>45579</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1240,26 +1221,24 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>24</v>
+      <c r="B18" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="C18" s="10">
-        <v>44877</v>
+      <c r="C18" s="9">
+        <v>45573</v>
       </c>
-      <c r="D18" s="10">
-        <v>44877</v>
+      <c r="D18" s="9">
+        <v>45573</v>
       </c>
-      <c r="E18" s="10">
-        <v>44891</v>
+      <c r="E18" s="9">
+        <v>45579</v>
       </c>
-      <c r="F18" s="10">
-        <v>44891</v>
+      <c r="F18" s="9">
+        <v>45579</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G18" s="8"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1282,26 +1261,24 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
+      <c r="B19" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="C19" s="10">
-        <v>44877</v>
+      <c r="C19" s="9">
+        <v>45573</v>
       </c>
-      <c r="D19" s="10">
-        <v>44877</v>
+      <c r="D19" s="9">
+        <v>45573</v>
       </c>
-      <c r="E19" s="10">
-        <v>44891</v>
+      <c r="E19" s="9">
+        <v>45579</v>
       </c>
-      <c r="F19" s="10">
-        <v>44891</v>
+      <c r="F19" s="9">
+        <v>45579</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1324,25 +1301,23 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>25</v>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
       </c>
-      <c r="C20" s="10">
-        <v>44877</v>
+      <c r="C20" s="9">
+        <v>45573</v>
       </c>
-      <c r="D20" s="10">
-        <v>44877</v>
+      <c r="D20" s="9">
+        <v>45573</v>
       </c>
-      <c r="E20" s="10">
-        <v>44891</v>
+      <c r="E20" s="9">
+        <v>45579</v>
       </c>
-      <c r="F20" s="10">
-        <v>44891</v>
+      <c r="F20" s="9">
+        <v>45579</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1366,24 +1341,22 @@
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
       </c>
-      <c r="C21" s="10">
-        <v>44877</v>
+      <c r="C21" s="9">
+        <v>45573</v>
       </c>
-      <c r="D21" s="10">
-        <v>44877</v>
+      <c r="D21" s="9">
+        <v>45573</v>
       </c>
-      <c r="E21" s="10">
-        <v>44891</v>
+      <c r="E21" s="9">
+        <v>45579</v>
       </c>
-      <c r="F21" s="10">
-        <v>44891</v>
+      <c r="F21" s="9">
+        <v>45579</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -1408,24 +1381,22 @@
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>27</v>
+      <c r="B22" s="14" t="s">
+        <v>22</v>
       </c>
-      <c r="C22" s="7">
-        <v>44891</v>
+      <c r="C22" s="9">
+        <v>45573</v>
       </c>
-      <c r="D22" s="7">
-        <v>44891</v>
+      <c r="D22" s="9">
+        <v>45573</v>
       </c>
-      <c r="E22" s="7">
-        <v>44905</v>
+      <c r="E22" s="9">
+        <v>45579</v>
       </c>
-      <c r="F22" s="7">
-        <v>44905</v>
+      <c r="F22" s="9">
+        <v>45579</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -1450,24 +1421,22 @@
       <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>28</v>
+      <c r="B23" s="14" t="s">
+        <v>23</v>
       </c>
-      <c r="C23" s="7">
-        <v>44891</v>
+      <c r="C23" s="9">
+        <v>45573</v>
       </c>
-      <c r="D23" s="7">
-        <v>44891</v>
+      <c r="D23" s="9">
+        <v>45573</v>
       </c>
-      <c r="E23" s="7">
-        <v>44905</v>
+      <c r="E23" s="9">
+        <v>45579</v>
       </c>
-      <c r="F23" s="7">
-        <v>44905</v>
+      <c r="F23" s="9">
+        <v>45579</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
@@ -1492,24 +1461,22 @@
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>29</v>
+      <c r="B24" s="14" t="s">
+        <v>24</v>
       </c>
-      <c r="C24" s="7">
-        <v>44891</v>
+      <c r="C24" s="9">
+        <v>45573</v>
       </c>
-      <c r="D24" s="7">
-        <v>44891</v>
+      <c r="D24" s="9">
+        <v>45573</v>
       </c>
-      <c r="E24" s="7">
-        <v>44905</v>
+      <c r="E24" s="9">
+        <v>45579</v>
       </c>
-      <c r="F24" s="7">
-        <v>44905</v>
+      <c r="F24" s="9">
+        <v>45579</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G24" s="8"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
@@ -1534,24 +1501,22 @@
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>30</v>
+      <c r="B25" s="14" t="s">
+        <v>25</v>
       </c>
-      <c r="C25" s="7">
-        <v>44891</v>
+      <c r="C25" s="9">
+        <v>45573</v>
       </c>
-      <c r="D25" s="7">
-        <v>44891</v>
+      <c r="D25" s="9">
+        <v>45573</v>
       </c>
-      <c r="E25" s="7">
-        <v>44905</v>
+      <c r="E25" s="9">
+        <v>45579</v>
       </c>
-      <c r="F25" s="7">
-        <v>44905</v>
+      <c r="F25" s="9">
+        <v>45579</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
@@ -1576,24 +1541,22 @@
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>31</v>
+      <c r="B26" s="14" t="s">
+        <v>26</v>
       </c>
-      <c r="C26" s="7">
-        <v>44891</v>
+      <c r="C26" s="9">
+        <v>45573</v>
       </c>
-      <c r="D26" s="7">
-        <v>44891</v>
+      <c r="D26" s="9">
+        <v>45573</v>
       </c>
-      <c r="E26" s="7">
-        <v>44905</v>
+      <c r="E26" s="9">
+        <v>45579</v>
       </c>
-      <c r="F26" s="7">
-        <v>44905</v>
+      <c r="F26" s="9">
+        <v>45579</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -1618,26 +1581,24 @@
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>32</v>
+      <c r="B27" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="C27" s="7">
-        <v>44891</v>
+      <c r="C27" s="9">
+        <v>45573</v>
       </c>
-      <c r="D27" s="7">
-        <v>44891</v>
+      <c r="D27" s="9">
+        <v>45573</v>
       </c>
-      <c r="E27" s="7">
-        <v>44905</v>
+      <c r="E27" s="9">
+        <v>45579</v>
       </c>
-      <c r="F27" s="7">
-        <v>44905</v>
+      <c r="F27" s="9">
+        <v>45579</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1660,24 +1621,22 @@
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>33</v>
+      <c r="B28" s="14" t="s">
+        <v>28</v>
       </c>
-      <c r="C28" s="7">
-        <v>44905</v>
+      <c r="C28" s="9">
+        <v>45573</v>
       </c>
-      <c r="D28" s="7">
-        <v>44905</v>
+      <c r="D28" s="9">
+        <v>45573</v>
       </c>
-      <c r="E28" s="7">
-        <v>44919</v>
+      <c r="E28" s="9">
+        <v>45579</v>
       </c>
-      <c r="F28" s="7">
-        <v>44919</v>
+      <c r="F28" s="9">
+        <v>45579</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
@@ -1702,24 +1661,22 @@
       <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>34</v>
+      <c r="B29" s="14" t="s">
+        <v>29</v>
       </c>
-      <c r="C29" s="7">
-        <v>44905</v>
+      <c r="C29" s="9">
+        <v>45573</v>
       </c>
-      <c r="D29" s="7">
-        <v>44905</v>
+      <c r="D29" s="9">
+        <v>45573</v>
       </c>
-      <c r="E29" s="7">
-        <v>44919</v>
+      <c r="E29" s="9">
+        <v>45579</v>
       </c>
-      <c r="F29" s="7">
-        <v>44919</v>
+      <c r="F29" s="9">
+        <v>45579</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G29" s="8"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="1"/>
@@ -1744,24 +1701,22 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>35</v>
+      <c r="B30" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="C30" s="7">
-        <v>44905</v>
+      <c r="C30" s="9">
+        <v>45573</v>
       </c>
-      <c r="D30" s="7">
-        <v>44905</v>
+      <c r="D30" s="9">
+        <v>45573</v>
       </c>
-      <c r="E30" s="7">
-        <v>44919</v>
+      <c r="E30" s="9">
+        <v>45579</v>
       </c>
-      <c r="F30" s="7">
-        <v>44919</v>
+      <c r="F30" s="9">
+        <v>45579</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G30" s="8"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="1"/>
@@ -1786,24 +1741,22 @@
       <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>36</v>
+      <c r="B31" s="14" t="s">
+        <v>31</v>
       </c>
-      <c r="C31" s="7">
-        <v>44905</v>
+      <c r="C31" s="9">
+        <v>45573</v>
       </c>
-      <c r="D31" s="7">
-        <v>44905</v>
+      <c r="D31" s="9">
+        <v>45573</v>
       </c>
-      <c r="E31" s="7">
-        <v>44919</v>
+      <c r="E31" s="9">
+        <v>45579</v>
       </c>
-      <c r="F31" s="7">
-        <v>44919</v>
+      <c r="F31" s="9">
+        <v>45579</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
@@ -1828,24 +1781,22 @@
       <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>37</v>
+      <c r="B32" s="14" t="s">
+        <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>44905</v>
+      <c r="C32" s="9">
+        <v>45573</v>
       </c>
-      <c r="D32" s="7">
-        <v>44905</v>
+      <c r="D32" s="9">
+        <v>45573</v>
       </c>
-      <c r="E32" s="7">
-        <v>44919</v>
+      <c r="E32" s="9">
+        <v>45579</v>
       </c>
-      <c r="F32" s="7">
-        <v>44919</v>
+      <c r="F32" s="9">
+        <v>45579</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G32" s="8"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="1"/>
@@ -1870,24 +1821,22 @@
       <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>38</v>
+      <c r="B33" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="C33" s="7">
-        <v>44905</v>
+      <c r="C33" s="9">
+        <v>45573</v>
       </c>
-      <c r="D33" s="7">
-        <v>44905</v>
+      <c r="D33" s="9">
+        <v>45573</v>
       </c>
-      <c r="E33" s="7">
-        <v>44919</v>
+      <c r="E33" s="9">
+        <v>45579</v>
       </c>
-      <c r="F33" s="7">
-        <v>44919</v>
+      <c r="F33" s="9">
+        <v>45579</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G33" s="8"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
@@ -1912,24 +1861,22 @@
       <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>39</v>
+      <c r="B34" s="13" t="s">
+        <v>34</v>
       </c>
-      <c r="C34" s="7">
-        <v>44926</v>
+      <c r="C34" s="9">
+        <v>45573</v>
       </c>
-      <c r="D34" s="7">
-        <v>44926</v>
+      <c r="D34" s="9">
+        <v>45573</v>
       </c>
-      <c r="E34" s="7">
-        <v>44930</v>
+      <c r="E34" s="9">
+        <v>45579</v>
       </c>
-      <c r="F34" s="7">
-        <v>44930</v>
+      <c r="F34" s="9">
+        <v>45579</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
@@ -7022,7 +6969,7 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
-      <c r="B216" s="18"/>
+      <c r="B216" s="17"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -7050,7 +6997,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="17"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7078,7 +7025,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="17"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7106,7 +7053,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="17"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7134,7 +7081,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="17"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7162,7 +7109,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="18"/>
+      <c r="B221" s="17"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7190,7 +7137,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="17"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7218,7 +7165,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="17"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7246,7 +7193,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="17"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7274,7 +7221,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="17"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7302,7 +7249,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="17"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7330,7 +7277,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="18"/>
+      <c r="B227" s="17"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7358,7 +7305,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="18"/>
+      <c r="B228" s="17"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7386,7 +7333,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="18"/>
+      <c r="B229" s="17"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7414,7 +7361,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="17"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7442,7 +7389,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="17"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7470,7 +7417,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="17"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7498,7 +7445,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="18"/>
+      <c r="B233" s="17"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7526,7 +7473,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="18"/>
+      <c r="B234" s="17"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7554,7 +7501,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="18"/>
+      <c r="B235" s="17"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7582,7 +7529,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="18"/>
+      <c r="B236" s="17"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7610,7 +7557,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="18"/>
+      <c r="B237" s="17"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7638,7 +7585,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="18"/>
+      <c r="B238" s="17"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7666,7 +7613,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="18"/>
+      <c r="B239" s="17"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7694,7 +7641,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="18"/>
+      <c r="B240" s="17"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7722,7 +7669,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="18"/>
+      <c r="B241" s="17"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7750,7 +7697,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="18"/>
+      <c r="B242" s="17"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7778,7 +7725,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="18"/>
+      <c r="B243" s="17"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7806,7 +7753,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="18"/>
+      <c r="B244" s="17"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7834,7 +7781,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="18"/>
+      <c r="B245" s="17"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7862,7 +7809,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="18"/>
+      <c r="B246" s="17"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7890,7 +7837,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="18"/>
+      <c r="B247" s="17"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7918,7 +7865,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="18"/>
+      <c r="B248" s="17"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7946,7 +7893,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="18"/>
+      <c r="B249" s="17"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7974,7 +7921,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="18"/>
+      <c r="B250" s="17"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -8002,7 +7949,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="18"/>
+      <c r="B251" s="17"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -8030,7 +7977,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="18"/>
+      <c r="B252" s="17"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -8058,7 +8005,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="18"/>
+      <c r="B253" s="17"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -8086,7 +8033,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="18"/>
+      <c r="B254" s="17"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -8114,7 +8061,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="18"/>
+      <c r="B255" s="17"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -8142,7 +8089,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="18"/>
+      <c r="B256" s="17"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8170,7 +8117,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="18"/>
+      <c r="B257" s="17"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8198,7 +8145,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="18"/>
+      <c r="B258" s="17"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8226,7 +8173,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="18"/>
+      <c r="B259" s="17"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8254,7 +8201,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="18"/>
+      <c r="B260" s="17"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8282,7 +8229,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="17"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8310,7 +8257,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="18"/>
+      <c r="B262" s="17"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8338,7 +8285,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="18"/>
+      <c r="B263" s="17"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8366,7 +8313,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="18"/>
+      <c r="B264" s="17"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8394,7 +8341,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="18"/>
+      <c r="B265" s="17"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8422,7 +8369,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="18"/>
+      <c r="B266" s="17"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8450,7 +8397,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="18"/>
+      <c r="B267" s="17"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8478,7 +8425,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="18"/>
+      <c r="B268" s="17"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8506,7 +8453,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="18"/>
+      <c r="B269" s="17"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8534,7 +8481,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="18"/>
+      <c r="B270" s="17"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8562,7 +8509,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="18"/>
+      <c r="B271" s="17"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8590,7 +8537,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="18"/>
+      <c r="B272" s="17"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8618,7 +8565,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="18"/>
+      <c r="B273" s="17"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8646,7 +8593,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="B274" s="18"/>
+      <c r="B274" s="17"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8674,7 +8621,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="B275" s="18"/>
+      <c r="B275" s="17"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8702,7 +8649,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="B276" s="18"/>
+      <c r="B276" s="17"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8730,7 +8677,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="B277" s="18"/>
+      <c r="B277" s="17"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8758,7 +8705,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="B278" s="18"/>
+      <c r="B278" s="17"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8786,7 +8733,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="B279" s="18"/>
+      <c r="B279" s="17"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8814,7 +8761,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="B280" s="18"/>
+      <c r="B280" s="17"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8842,7 +8789,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="B281" s="18"/>
+      <c r="B281" s="17"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8870,7 +8817,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="B282" s="18"/>
+      <c r="B282" s="17"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8898,7 +8845,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="B283" s="18"/>
+      <c r="B283" s="17"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8926,7 +8873,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="18"/>
+      <c r="B284" s="17"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8954,7 +8901,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="18"/>
+      <c r="B285" s="17"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -8982,7 +8929,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="18"/>
+      <c r="B286" s="17"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -9010,7 +8957,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="B287" s="18"/>
+      <c r="B287" s="17"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -9038,7 +8985,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="B288" s="18"/>
+      <c r="B288" s="17"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -9066,7 +9013,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="B289" s="18"/>
+      <c r="B289" s="17"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -9094,7 +9041,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="B290" s="18"/>
+      <c r="B290" s="17"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -9122,7 +9069,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="B291" s="18"/>
+      <c r="B291" s="17"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -9150,7 +9097,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="B292" s="18"/>
+      <c r="B292" s="17"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -9178,7 +9125,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="B293" s="18"/>
+      <c r="B293" s="17"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9206,7 +9153,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="18"/>
+      <c r="B294" s="17"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9234,7 +9181,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="18"/>
+      <c r="B295" s="17"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9262,7 +9209,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="18"/>
+      <c r="B296" s="17"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9290,7 +9237,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="18"/>
+      <c r="B297" s="17"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9318,7 +9265,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="B298" s="18"/>
+      <c r="B298" s="17"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9346,7 +9293,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="B299" s="18"/>
+      <c r="B299" s="17"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9374,7 +9321,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="B300" s="18"/>
+      <c r="B300" s="17"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9402,7 +9349,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="B301" s="18"/>
+      <c r="B301" s="17"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9430,7 +9377,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="B302" s="18"/>
+      <c r="B302" s="17"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9458,7 +9405,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="B303" s="18"/>
+      <c r="B303" s="17"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9486,7 +9433,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="18"/>
+      <c r="B304" s="17"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9514,7 +9461,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="18"/>
+      <c r="B305" s="17"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9542,7 +9489,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="18"/>
+      <c r="B306" s="17"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9570,7 +9517,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="B307" s="18"/>
+      <c r="B307" s="17"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9598,7 +9545,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="B308" s="18"/>
+      <c r="B308" s="17"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9626,7 +9573,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="18"/>
+      <c r="B309" s="17"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9654,7 +9601,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="18"/>
+      <c r="B310" s="17"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9682,7 +9629,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="18"/>
+      <c r="B311" s="17"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9710,7 +9657,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="18"/>
+      <c r="B312" s="17"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9738,7 +9685,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="18"/>
+      <c r="B313" s="17"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9766,7 +9713,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="18"/>
+      <c r="B314" s="17"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9794,7 +9741,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="18"/>
+      <c r="B315" s="17"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9822,7 +9769,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="18"/>
+      <c r="B316" s="17"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9850,7 +9797,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="18"/>
+      <c r="B317" s="17"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9878,7 +9825,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="18"/>
+      <c r="B318" s="17"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9906,7 +9853,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="18"/>
+      <c r="B319" s="17"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9934,7 +9881,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="B320" s="18"/>
+      <c r="B320" s="17"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9962,7 +9909,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="18"/>
+      <c r="B321" s="17"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9990,7 +9937,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="18"/>
+      <c r="B322" s="17"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -10018,7 +9965,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="18"/>
+      <c r="B323" s="17"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -10046,7 +9993,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="B324" s="18"/>
+      <c r="B324" s="17"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -10074,7 +10021,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="B325" s="18"/>
+      <c r="B325" s="17"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -10102,7 +10049,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="B326" s="18"/>
+      <c r="B326" s="17"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -10130,7 +10077,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="B327" s="18"/>
+      <c r="B327" s="17"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -10158,7 +10105,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="B328" s="18"/>
+      <c r="B328" s="17"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -10186,7 +10133,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="B329" s="18"/>
+      <c r="B329" s="17"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10214,7 +10161,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="B330" s="18"/>
+      <c r="B330" s="17"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10242,7 +10189,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="B331" s="18"/>
+      <c r="B331" s="17"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10270,7 +10217,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="B332" s="18"/>
+      <c r="B332" s="17"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10298,7 +10245,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="B333" s="18"/>
+      <c r="B333" s="17"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10326,7 +10273,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="B334" s="18"/>
+      <c r="B334" s="17"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10354,7 +10301,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="B335" s="18"/>
+      <c r="B335" s="17"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10382,7 +10329,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="B336" s="18"/>
+      <c r="B336" s="17"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10410,7 +10357,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="B337" s="18"/>
+      <c r="B337" s="17"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10438,7 +10385,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="B338" s="18"/>
+      <c r="B338" s="17"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10466,7 +10413,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="18"/>
+      <c r="B339" s="17"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10494,7 +10441,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="18"/>
+      <c r="B340" s="17"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10522,7 +10469,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="18"/>
+      <c r="B341" s="17"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10550,7 +10497,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="B342" s="18"/>
+      <c r="B342" s="17"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10578,7 +10525,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="18"/>
+      <c r="B343" s="17"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10606,7 +10553,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="18"/>
+      <c r="B344" s="17"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10634,7 +10581,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="18"/>
+      <c r="B345" s="17"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10662,7 +10609,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="18"/>
+      <c r="B346" s="17"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10690,7 +10637,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="18"/>
+      <c r="B347" s="17"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10718,7 +10665,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="18"/>
+      <c r="B348" s="17"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10746,7 +10693,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="18"/>
+      <c r="B349" s="17"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10774,7 +10721,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="18"/>
+      <c r="B350" s="17"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10802,7 +10749,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="18"/>
+      <c r="B351" s="17"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10830,7 +10777,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="18"/>
+      <c r="B352" s="17"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10858,7 +10805,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="18"/>
+      <c r="B353" s="17"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10886,7 +10833,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="18"/>
+      <c r="B354" s="17"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10914,7 +10861,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="18"/>
+      <c r="B355" s="17"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10942,7 +10889,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="18"/>
+      <c r="B356" s="17"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10970,7 +10917,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="18"/>
+      <c r="B357" s="17"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -10998,7 +10945,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="18"/>
+      <c r="B358" s="17"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11026,7 +10973,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="18"/>
+      <c r="B359" s="17"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -11054,7 +11001,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="18"/>
+      <c r="B360" s="17"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -11082,7 +11029,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="18"/>
+      <c r="B361" s="17"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -11110,7 +11057,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="18"/>
+      <c r="B362" s="17"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -11138,7 +11085,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="18"/>
+      <c r="B363" s="17"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11166,7 +11113,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="18"/>
+      <c r="B364" s="17"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11194,7 +11141,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="18"/>
+      <c r="B365" s="17"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11222,7 +11169,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="18"/>
+      <c r="B366" s="17"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11250,7 +11197,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="B367" s="18"/>
+      <c r="B367" s="17"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11278,7 +11225,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="B368" s="18"/>
+      <c r="B368" s="17"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11306,7 +11253,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="B369" s="18"/>
+      <c r="B369" s="17"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11334,7 +11281,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="B370" s="18"/>
+      <c r="B370" s="17"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11362,7 +11309,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="B371" s="18"/>
+      <c r="B371" s="17"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11390,7 +11337,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="B372" s="18"/>
+      <c r="B372" s="17"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11418,7 +11365,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="B373" s="18"/>
+      <c r="B373" s="17"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11446,7 +11393,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="B374" s="18"/>
+      <c r="B374" s="17"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11474,7 +11421,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="18"/>
+      <c r="B375" s="17"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11502,7 +11449,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="18"/>
+      <c r="B376" s="17"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11530,7 +11477,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="18"/>
+      <c r="B377" s="17"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11558,7 +11505,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="18"/>
+      <c r="B378" s="17"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11586,7 +11533,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="18"/>
+      <c r="B379" s="17"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11614,7 +11561,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="18"/>
+      <c r="B380" s="17"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11642,7 +11589,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="18"/>
+      <c r="B381" s="17"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11670,7 +11617,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="18"/>
+      <c r="B382" s="17"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11698,7 +11645,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="18"/>
+      <c r="B383" s="17"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11726,7 +11673,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="18"/>
+      <c r="B384" s="17"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11754,7 +11701,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="18"/>
+      <c r="B385" s="17"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11782,7 +11729,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="18"/>
+      <c r="B386" s="17"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11810,7 +11757,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="18"/>
+      <c r="B387" s="17"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11838,7 +11785,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="18"/>
+      <c r="B388" s="17"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11866,7 +11813,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="18"/>
+      <c r="B389" s="17"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11894,7 +11841,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="18"/>
+      <c r="B390" s="17"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -11922,7 +11869,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="18"/>
+      <c r="B391" s="17"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -11950,7 +11897,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="18"/>
+      <c r="B392" s="17"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -11978,7 +11925,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="18"/>
+      <c r="B393" s="17"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -12006,7 +11953,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="18"/>
+      <c r="B394" s="17"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -12034,7 +11981,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="18"/>
+      <c r="B395" s="17"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -12062,7 +12009,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="18"/>
+      <c r="B396" s="17"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -12090,7 +12037,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="18"/>
+      <c r="B397" s="17"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -12118,7 +12065,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="18"/>
+      <c r="B398" s="17"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -12146,7 +12093,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="18"/>
+      <c r="B399" s="17"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12174,7 +12121,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="18"/>
+      <c r="B400" s="17"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12202,7 +12149,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="18"/>
+      <c r="B401" s="17"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12230,7 +12177,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="18"/>
+      <c r="B402" s="17"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12258,7 +12205,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="18"/>
+      <c r="B403" s="17"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12286,7 +12233,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="18"/>
+      <c r="B404" s="17"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12314,7 +12261,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="18"/>
+      <c r="B405" s="17"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12342,7 +12289,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="18"/>
+      <c r="B406" s="17"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12370,7 +12317,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="18"/>
+      <c r="B407" s="17"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12398,7 +12345,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="18"/>
+      <c r="B408" s="17"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12426,7 +12373,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="18"/>
+      <c r="B409" s="17"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12454,7 +12401,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="18"/>
+      <c r="B410" s="17"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12482,7 +12429,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="18"/>
+      <c r="B411" s="17"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12510,7 +12457,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="B412" s="18"/>
+      <c r="B412" s="17"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12538,7 +12485,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="18"/>
+      <c r="B413" s="17"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12566,7 +12513,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="B414" s="18"/>
+      <c r="B414" s="17"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12594,7 +12541,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="18"/>
+      <c r="B415" s="17"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12622,7 +12569,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="B416" s="18"/>
+      <c r="B416" s="17"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12650,7 +12597,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="B417" s="18"/>
+      <c r="B417" s="17"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12678,7 +12625,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="18"/>
+      <c r="B418" s="17"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12706,7 +12653,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="18"/>
+      <c r="B419" s="17"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12734,7 +12681,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="18"/>
+      <c r="B420" s="17"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12762,7 +12709,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="18"/>
+      <c r="B421" s="17"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12790,7 +12737,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="18"/>
+      <c r="B422" s="17"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12818,7 +12765,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="18"/>
+      <c r="B423" s="17"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12846,7 +12793,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="18"/>
+      <c r="B424" s="17"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12874,7 +12821,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="18"/>
+      <c r="B425" s="17"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -12902,7 +12849,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="18"/>
+      <c r="B426" s="17"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -12930,7 +12877,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="18"/>
+      <c r="B427" s="17"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -12958,7 +12905,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="18"/>
+      <c r="B428" s="17"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -12986,7 +12933,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="18"/>
+      <c r="B429" s="17"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -13014,7 +12961,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="18"/>
+      <c r="B430" s="17"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -13042,7 +12989,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="18"/>
+      <c r="B431" s="17"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -13070,7 +13017,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="18"/>
+      <c r="B432" s="17"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -13098,7 +13045,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="18"/>
+      <c r="B433" s="17"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -13126,7 +13073,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="18"/>
+      <c r="B434" s="17"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -13154,7 +13101,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="18"/>
+      <c r="B435" s="17"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13182,7 +13129,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="18"/>
+      <c r="B436" s="17"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13210,7 +13157,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="18"/>
+      <c r="B437" s="17"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13238,7 +13185,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="18"/>
+      <c r="B438" s="17"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13266,7 +13213,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="18"/>
+      <c r="B439" s="17"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13294,7 +13241,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="18"/>
+      <c r="B440" s="17"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13322,7 +13269,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="18"/>
+      <c r="B441" s="17"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13350,7 +13297,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="18"/>
+      <c r="B442" s="17"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13378,7 +13325,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="18"/>
+      <c r="B443" s="17"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13406,7 +13353,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="18"/>
+      <c r="B444" s="17"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13434,7 +13381,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="18"/>
+      <c r="B445" s="17"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13462,7 +13409,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="18"/>
+      <c r="B446" s="17"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13490,7 +13437,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="18"/>
+      <c r="B447" s="17"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13518,7 +13465,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="18"/>
+      <c r="B448" s="17"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13546,7 +13493,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="18"/>
+      <c r="B449" s="17"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13574,7 +13521,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="18"/>
+      <c r="B450" s="17"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13602,7 +13549,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="18"/>
+      <c r="B451" s="17"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13630,7 +13577,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="18"/>
+      <c r="B452" s="17"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13658,7 +13605,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="18"/>
+      <c r="B453" s="17"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13686,7 +13633,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="18"/>
+      <c r="B454" s="17"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13714,7 +13661,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="18"/>
+      <c r="B455" s="17"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13742,7 +13689,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="18"/>
+      <c r="B456" s="17"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13770,7 +13717,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="18"/>
+      <c r="B457" s="17"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13798,7 +13745,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="18"/>
+      <c r="B458" s="17"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13826,7 +13773,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="18"/>
+      <c r="B459" s="17"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13854,7 +13801,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="18"/>
+      <c r="B460" s="17"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13882,7 +13829,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="18"/>
+      <c r="B461" s="17"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -13910,7 +13857,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="18"/>
+      <c r="B462" s="17"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -13938,7 +13885,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="18"/>
+      <c r="B463" s="17"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -13966,7 +13913,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="18"/>
+      <c r="B464" s="17"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -13994,7 +13941,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="18"/>
+      <c r="B465" s="17"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -14022,7 +13969,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="18"/>
+      <c r="B466" s="17"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -14050,7 +13997,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="18"/>
+      <c r="B467" s="17"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -14078,7 +14025,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="18"/>
+      <c r="B468" s="17"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -14106,7 +14053,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="18"/>
+      <c r="B469" s="17"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -14134,7 +14081,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="18"/>
+      <c r="B470" s="17"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14162,7 +14109,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="18"/>
+      <c r="B471" s="17"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14190,7 +14137,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="18"/>
+      <c r="B472" s="17"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14218,7 +14165,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="18"/>
+      <c r="B473" s="17"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14246,7 +14193,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="18"/>
+      <c r="B474" s="17"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14274,7 +14221,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="18"/>
+      <c r="B475" s="17"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14302,7 +14249,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="18"/>
+      <c r="B476" s="17"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14330,7 +14277,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="18"/>
+      <c r="B477" s="17"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14358,7 +14305,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="18"/>
+      <c r="B478" s="17"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14386,7 +14333,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="18"/>
+      <c r="B479" s="17"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14414,7 +14361,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="18"/>
+      <c r="B480" s="17"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14442,7 +14389,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="18"/>
+      <c r="B481" s="17"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14470,7 +14417,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="18"/>
+      <c r="B482" s="17"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14498,7 +14445,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="18"/>
+      <c r="B483" s="17"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14526,7 +14473,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="B484" s="18"/>
+      <c r="B484" s="17"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14554,7 +14501,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="B485" s="18"/>
+      <c r="B485" s="17"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14582,7 +14529,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="B486" s="18"/>
+      <c r="B486" s="17"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14610,7 +14557,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="B487" s="18"/>
+      <c r="B487" s="17"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14638,7 +14585,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="B488" s="18"/>
+      <c r="B488" s="17"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14666,7 +14613,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="B489" s="18"/>
+      <c r="B489" s="17"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14694,7 +14641,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="B490" s="18"/>
+      <c r="B490" s="17"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14722,7 +14669,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="B491" s="18"/>
+      <c r="B491" s="17"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14750,7 +14697,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="B492" s="18"/>
+      <c r="B492" s="17"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14778,7 +14725,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="B493" s="18"/>
+      <c r="B493" s="17"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14806,7 +14753,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="B494" s="18"/>
+      <c r="B494" s="17"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14834,7 +14781,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="B495" s="18"/>
+      <c r="B495" s="17"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14862,7 +14809,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="B496" s="18"/>
+      <c r="B496" s="17"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14890,7 +14837,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="B497" s="18"/>
+      <c r="B497" s="17"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14918,7 +14865,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="B498" s="18"/>
+      <c r="B498" s="17"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14946,7 +14893,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="B499" s="18"/>
+      <c r="B499" s="17"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14974,7 +14921,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="B500" s="18"/>
+      <c r="B500" s="17"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -15002,7 +14949,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="B501" s="18"/>
+      <c r="B501" s="17"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -15030,7 +14977,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="B502" s="18"/>
+      <c r="B502" s="17"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -15058,7 +15005,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="B503" s="18"/>
+      <c r="B503" s="17"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -15086,7 +15033,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="B504" s="18"/>
+      <c r="B504" s="17"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -15114,7 +15061,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="B505" s="18"/>
+      <c r="B505" s="17"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -15142,7 +15089,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="B506" s="18"/>
+      <c r="B506" s="17"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15170,7 +15117,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="B507" s="18"/>
+      <c r="B507" s="17"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15198,7 +15145,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="B508" s="18"/>
+      <c r="B508" s="17"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15226,7 +15173,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="B509" s="18"/>
+      <c r="B509" s="17"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15254,7 +15201,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="B510" s="18"/>
+      <c r="B510" s="17"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15282,7 +15229,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="B511" s="18"/>
+      <c r="B511" s="17"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15310,7 +15257,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="B512" s="18"/>
+      <c r="B512" s="17"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15338,7 +15285,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="B513" s="18"/>
+      <c r="B513" s="17"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15366,7 +15313,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="B514" s="18"/>
+      <c r="B514" s="17"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15394,7 +15341,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="B515" s="18"/>
+      <c r="B515" s="17"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15422,7 +15369,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="B516" s="18"/>
+      <c r="B516" s="17"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15450,7 +15397,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="B517" s="18"/>
+      <c r="B517" s="17"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15478,7 +15425,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="B518" s="18"/>
+      <c r="B518" s="17"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15506,7 +15453,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="B519" s="18"/>
+      <c r="B519" s="17"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15534,7 +15481,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="B520" s="18"/>
+      <c r="B520" s="17"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15562,7 +15509,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="B521" s="18"/>
+      <c r="B521" s="17"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15590,7 +15537,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="B522" s="18"/>
+      <c r="B522" s="17"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15618,7 +15565,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="B523" s="18"/>
+      <c r="B523" s="17"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15646,7 +15593,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="B524" s="18"/>
+      <c r="B524" s="17"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15674,7 +15621,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="B525" s="18"/>
+      <c r="B525" s="17"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15702,7 +15649,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="B526" s="18"/>
+      <c r="B526" s="17"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15730,7 +15677,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="B527" s="18"/>
+      <c r="B527" s="17"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15758,7 +15705,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="B528" s="18"/>
+      <c r="B528" s="17"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15786,7 +15733,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
-      <c r="B529" s="18"/>
+      <c r="B529" s="17"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15814,7 +15761,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
-      <c r="B530" s="18"/>
+      <c r="B530" s="17"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15842,7 +15789,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
-      <c r="B531" s="18"/>
+      <c r="B531" s="17"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15870,7 +15817,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
-      <c r="B532" s="18"/>
+      <c r="B532" s="17"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15898,7 +15845,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
-      <c r="B533" s="18"/>
+      <c r="B533" s="17"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15926,7 +15873,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
-      <c r="B534" s="18"/>
+      <c r="B534" s="17"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15954,7 +15901,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
-      <c r="B535" s="18"/>
+      <c r="B535" s="17"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -15982,7 +15929,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
-      <c r="B536" s="18"/>
+      <c r="B536" s="17"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -16010,7 +15957,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
-      <c r="B537" s="18"/>
+      <c r="B537" s="17"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -16038,7 +15985,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
-      <c r="B538" s="18"/>
+      <c r="B538" s="17"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -16066,7 +16013,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
-      <c r="B539" s="18"/>
+      <c r="B539" s="17"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -16094,7 +16041,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
-      <c r="B540" s="18"/>
+      <c r="B540" s="17"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -16122,7 +16069,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
-      <c r="B541" s="18"/>
+      <c r="B541" s="17"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -16150,7 +16097,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
-      <c r="B542" s="18"/>
+      <c r="B542" s="17"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -16178,7 +16125,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
-      <c r="B543" s="18"/>
+      <c r="B543" s="17"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16206,7 +16153,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
-      <c r="B544" s="18"/>
+      <c r="B544" s="17"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16234,7 +16181,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
-      <c r="B545" s="18"/>
+      <c r="B545" s="17"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16262,7 +16209,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
-      <c r="B546" s="18"/>
+      <c r="B546" s="17"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16290,7 +16237,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
-      <c r="B547" s="18"/>
+      <c r="B547" s="17"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16318,7 +16265,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
-      <c r="B548" s="18"/>
+      <c r="B548" s="17"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16346,7 +16293,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
-      <c r="B549" s="18"/>
+      <c r="B549" s="17"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16374,7 +16321,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
-      <c r="B550" s="18"/>
+      <c r="B550" s="17"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16402,7 +16349,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
-      <c r="B551" s="18"/>
+      <c r="B551" s="17"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16430,7 +16377,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
-      <c r="B552" s="18"/>
+      <c r="B552" s="17"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16458,7 +16405,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
-      <c r="B553" s="18"/>
+      <c r="B553" s="17"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16486,7 +16433,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
-      <c r="B554" s="18"/>
+      <c r="B554" s="17"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16514,7 +16461,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
-      <c r="B555" s="18"/>
+      <c r="B555" s="17"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16542,7 +16489,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
-      <c r="B556" s="18"/>
+      <c r="B556" s="17"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16570,7 +16517,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
-      <c r="B557" s="18"/>
+      <c r="B557" s="17"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16598,7 +16545,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
-      <c r="B558" s="18"/>
+      <c r="B558" s="17"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16626,7 +16573,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
-      <c r="B559" s="18"/>
+      <c r="B559" s="17"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16654,7 +16601,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
-      <c r="B560" s="18"/>
+      <c r="B560" s="17"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16682,7 +16629,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
-      <c r="B561" s="18"/>
+      <c r="B561" s="17"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16710,7 +16657,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
-      <c r="B562" s="18"/>
+      <c r="B562" s="17"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16738,7 +16685,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
-      <c r="B563" s="18"/>
+      <c r="B563" s="17"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16766,7 +16713,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
-      <c r="B564" s="18"/>
+      <c r="B564" s="17"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16794,7 +16741,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
-      <c r="B565" s="18"/>
+      <c r="B565" s="17"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16822,7 +16769,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
-      <c r="B566" s="18"/>
+      <c r="B566" s="17"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16850,7 +16797,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
-      <c r="B567" s="18"/>
+      <c r="B567" s="17"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16878,7 +16825,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
-      <c r="B568" s="18"/>
+      <c r="B568" s="17"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -16906,7 +16853,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
-      <c r="B569" s="18"/>
+      <c r="B569" s="17"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -16934,7 +16881,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
-      <c r="B570" s="18"/>
+      <c r="B570" s="17"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -16962,7 +16909,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
-      <c r="B571" s="18"/>
+      <c r="B571" s="17"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -16990,7 +16937,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
-      <c r="B572" s="18"/>
+      <c r="B572" s="17"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -17018,7 +16965,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
-      <c r="B573" s="18"/>
+      <c r="B573" s="17"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -17046,7 +16993,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
-      <c r="B574" s="18"/>
+      <c r="B574" s="17"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -17074,7 +17021,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
-      <c r="B575" s="18"/>
+      <c r="B575" s="17"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -17102,7 +17049,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
-      <c r="B576" s="18"/>
+      <c r="B576" s="17"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -17130,7 +17077,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
-      <c r="B577" s="18"/>
+      <c r="B577" s="17"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -17158,7 +17105,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
-      <c r="B578" s="18"/>
+      <c r="B578" s="17"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -17186,7 +17133,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
-      <c r="B579" s="18"/>
+      <c r="B579" s="17"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17214,7 +17161,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
-      <c r="B580" s="18"/>
+      <c r="B580" s="17"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17242,7 +17189,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
-      <c r="B581" s="18"/>
+      <c r="B581" s="17"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17270,7 +17217,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
-      <c r="B582" s="18"/>
+      <c r="B582" s="17"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17298,7 +17245,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
-      <c r="B583" s="18"/>
+      <c r="B583" s="17"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17326,7 +17273,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
-      <c r="B584" s="18"/>
+      <c r="B584" s="17"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17354,7 +17301,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
-      <c r="B585" s="18"/>
+      <c r="B585" s="17"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17382,7 +17329,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
-      <c r="B586" s="18"/>
+      <c r="B586" s="17"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17410,7 +17357,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
-      <c r="B587" s="18"/>
+      <c r="B587" s="17"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17438,7 +17385,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
-      <c r="B588" s="18"/>
+      <c r="B588" s="17"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17466,7 +17413,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
-      <c r="B589" s="18"/>
+      <c r="B589" s="17"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17494,7 +17441,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
-      <c r="B590" s="18"/>
+      <c r="B590" s="17"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17522,7 +17469,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
-      <c r="B591" s="18"/>
+      <c r="B591" s="17"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17550,7 +17497,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
-      <c r="B592" s="18"/>
+      <c r="B592" s="17"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17578,7 +17525,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
-      <c r="B593" s="18"/>
+      <c r="B593" s="17"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17606,7 +17553,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
-      <c r="B594" s="18"/>
+      <c r="B594" s="17"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17634,7 +17581,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
-      <c r="B595" s="18"/>
+      <c r="B595" s="17"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17662,7 +17609,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
-      <c r="B596" s="18"/>
+      <c r="B596" s="17"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17690,7 +17637,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
-      <c r="B597" s="18"/>
+      <c r="B597" s="17"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17718,7 +17665,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
-      <c r="B598" s="18"/>
+      <c r="B598" s="17"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17746,7 +17693,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
-      <c r="B599" s="18"/>
+      <c r="B599" s="17"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17774,7 +17721,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
-      <c r="B600" s="18"/>
+      <c r="B600" s="17"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17802,7 +17749,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
-      <c r="B601" s="18"/>
+      <c r="B601" s="17"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17830,7 +17777,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
-      <c r="B602" s="18"/>
+      <c r="B602" s="17"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17858,7 +17805,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
-      <c r="B603" s="18"/>
+      <c r="B603" s="17"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17886,7 +17833,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
-      <c r="B604" s="18"/>
+      <c r="B604" s="17"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -17914,7 +17861,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
-      <c r="B605" s="18"/>
+      <c r="B605" s="17"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -17942,7 +17889,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
-      <c r="B606" s="18"/>
+      <c r="B606" s="17"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -17970,7 +17917,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
-      <c r="B607" s="18"/>
+      <c r="B607" s="17"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -17998,7 +17945,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
-      <c r="B608" s="18"/>
+      <c r="B608" s="17"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -18026,7 +17973,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
-      <c r="B609" s="18"/>
+      <c r="B609" s="17"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -18054,7 +18001,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
-      <c r="B610" s="18"/>
+      <c r="B610" s="17"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -18082,7 +18029,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
-      <c r="B611" s="18"/>
+      <c r="B611" s="17"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -18110,7 +18057,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
-      <c r="B612" s="18"/>
+      <c r="B612" s="17"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -18138,7 +18085,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
-      <c r="B613" s="18"/>
+      <c r="B613" s="17"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -18166,7 +18113,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
-      <c r="B614" s="18"/>
+      <c r="B614" s="17"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -18194,7 +18141,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
-      <c r="B615" s="18"/>
+      <c r="B615" s="17"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18222,7 +18169,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
-      <c r="B616" s="18"/>
+      <c r="B616" s="17"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18250,7 +18197,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
-      <c r="B617" s="18"/>
+      <c r="B617" s="17"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18278,7 +18225,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
-      <c r="B618" s="18"/>
+      <c r="B618" s="17"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18306,7 +18253,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
-      <c r="B619" s="18"/>
+      <c r="B619" s="17"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18334,7 +18281,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
-      <c r="B620" s="18"/>
+      <c r="B620" s="17"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18362,7 +18309,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
-      <c r="B621" s="18"/>
+      <c r="B621" s="17"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18390,7 +18337,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
-      <c r="B622" s="18"/>
+      <c r="B622" s="17"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18418,7 +18365,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
-      <c r="B623" s="18"/>
+      <c r="B623" s="17"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18446,7 +18393,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
-      <c r="B624" s="18"/>
+      <c r="B624" s="17"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18474,7 +18421,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
-      <c r="B625" s="18"/>
+      <c r="B625" s="17"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18502,7 +18449,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
-      <c r="B626" s="18"/>
+      <c r="B626" s="17"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18530,7 +18477,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
-      <c r="B627" s="18"/>
+      <c r="B627" s="17"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18558,7 +18505,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
-      <c r="B628" s="18"/>
+      <c r="B628" s="17"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18586,7 +18533,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
-      <c r="B629" s="18"/>
+      <c r="B629" s="17"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18614,7 +18561,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
-      <c r="B630" s="18"/>
+      <c r="B630" s="17"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18642,7 +18589,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
-      <c r="B631" s="18"/>
+      <c r="B631" s="17"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18670,7 +18617,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
-      <c r="B632" s="18"/>
+      <c r="B632" s="17"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18698,7 +18645,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
-      <c r="B633" s="18"/>
+      <c r="B633" s="17"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18726,7 +18673,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
-      <c r="B634" s="18"/>
+      <c r="B634" s="17"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18754,7 +18701,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="B635" s="18"/>
+      <c r="B635" s="17"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18782,7 +18729,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
-      <c r="B636" s="18"/>
+      <c r="B636" s="17"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18810,7 +18757,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
-      <c r="B637" s="18"/>
+      <c r="B637" s="17"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18838,7 +18785,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
-      <c r="B638" s="18"/>
+      <c r="B638" s="17"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18866,7 +18813,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
-      <c r="B639" s="18"/>
+      <c r="B639" s="17"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18894,7 +18841,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
-      <c r="B640" s="18"/>
+      <c r="B640" s="17"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -18922,7 +18869,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
-      <c r="B641" s="18"/>
+      <c r="B641" s="17"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -18950,7 +18897,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
-      <c r="B642" s="18"/>
+      <c r="B642" s="17"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -18978,7 +18925,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
-      <c r="B643" s="18"/>
+      <c r="B643" s="17"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -19006,7 +18953,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
-      <c r="B644" s="18"/>
+      <c r="B644" s="17"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -19034,7 +18981,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
-      <c r="B645" s="18"/>
+      <c r="B645" s="17"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -19062,7 +19009,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-      <c r="B646" s="18"/>
+      <c r="B646" s="17"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -19090,7 +19037,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
-      <c r="B647" s="18"/>
+      <c r="B647" s="17"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -19118,7 +19065,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="B648" s="18"/>
+      <c r="B648" s="17"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -19146,7 +19093,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="B649" s="18"/>
+      <c r="B649" s="17"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -19174,7 +19121,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="B650" s="18"/>
+      <c r="B650" s="17"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19202,7 +19149,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
-      <c r="B651" s="18"/>
+      <c r="B651" s="17"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19230,7 +19177,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
-      <c r="B652" s="18"/>
+      <c r="B652" s="17"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19258,7 +19205,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
-      <c r="B653" s="18"/>
+      <c r="B653" s="17"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19286,7 +19233,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
-      <c r="B654" s="18"/>
+      <c r="B654" s="17"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19314,7 +19261,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
-      <c r="B655" s="18"/>
+      <c r="B655" s="17"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19342,7 +19289,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
-      <c r="B656" s="18"/>
+      <c r="B656" s="17"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19370,7 +19317,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
-      <c r="B657" s="18"/>
+      <c r="B657" s="17"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19398,7 +19345,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="B658" s="18"/>
+      <c r="B658" s="17"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19426,7 +19373,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
-      <c r="B659" s="18"/>
+      <c r="B659" s="17"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19454,7 +19401,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
-      <c r="B660" s="18"/>
+      <c r="B660" s="17"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19482,7 +19429,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
-      <c r="B661" s="18"/>
+      <c r="B661" s="17"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19510,7 +19457,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="B662" s="18"/>
+      <c r="B662" s="17"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19538,7 +19485,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
-      <c r="B663" s="18"/>
+      <c r="B663" s="17"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19566,7 +19513,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
-      <c r="B664" s="18"/>
+      <c r="B664" s="17"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19594,7 +19541,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="B665" s="18"/>
+      <c r="B665" s="17"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19622,7 +19569,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="B666" s="18"/>
+      <c r="B666" s="17"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19650,7 +19597,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="B667" s="18"/>
+      <c r="B667" s="17"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19678,7 +19625,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
-      <c r="B668" s="18"/>
+      <c r="B668" s="17"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19706,7 +19653,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
-      <c r="B669" s="18"/>
+      <c r="B669" s="17"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19734,7 +19681,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
-      <c r="B670" s="18"/>
+      <c r="B670" s="17"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19762,7 +19709,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
-      <c r="B671" s="18"/>
+      <c r="B671" s="17"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19790,7 +19737,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
-      <c r="B672" s="18"/>
+      <c r="B672" s="17"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19818,7 +19765,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
-      <c r="B673" s="18"/>
+      <c r="B673" s="17"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19846,7 +19793,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
-      <c r="B674" s="18"/>
+      <c r="B674" s="17"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19874,7 +19821,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
-      <c r="B675" s="18"/>
+      <c r="B675" s="17"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -19902,7 +19849,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
-      <c r="B676" s="18"/>
+      <c r="B676" s="17"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -19930,7 +19877,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="B677" s="18"/>
+      <c r="B677" s="17"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -19958,7 +19905,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="B678" s="18"/>
+      <c r="B678" s="17"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -19986,7 +19933,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="B679" s="18"/>
+      <c r="B679" s="17"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -20014,7 +19961,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
-      <c r="B680" s="18"/>
+      <c r="B680" s="17"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -20042,7 +19989,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-      <c r="B681" s="18"/>
+      <c r="B681" s="17"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -20070,7 +20017,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-      <c r="B682" s="18"/>
+      <c r="B682" s="17"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -20098,7 +20045,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="B683" s="18"/>
+      <c r="B683" s="17"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -20126,7 +20073,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="B684" s="18"/>
+      <c r="B684" s="17"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -20154,7 +20101,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
-      <c r="B685" s="18"/>
+      <c r="B685" s="17"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -20182,7 +20129,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
-      <c r="B686" s="18"/>
+      <c r="B686" s="17"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20210,7 +20157,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
-      <c r="B687" s="18"/>
+      <c r="B687" s="17"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20238,7 +20185,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
-      <c r="B688" s="18"/>
+      <c r="B688" s="17"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20266,7 +20213,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
-      <c r="B689" s="18"/>
+      <c r="B689" s="17"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20294,7 +20241,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
-      <c r="B690" s="18"/>
+      <c r="B690" s="17"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20322,7 +20269,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
-      <c r="B691" s="18"/>
+      <c r="B691" s="17"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20350,7 +20297,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
-      <c r="B692" s="18"/>
+      <c r="B692" s="17"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20378,7 +20325,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
-      <c r="B693" s="18"/>
+      <c r="B693" s="17"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20406,7 +20353,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
-      <c r="B694" s="18"/>
+      <c r="B694" s="17"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20434,7 +20381,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="B695" s="18"/>
+      <c r="B695" s="17"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20462,7 +20409,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="B696" s="18"/>
+      <c r="B696" s="17"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20490,7 +20437,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="B697" s="18"/>
+      <c r="B697" s="17"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20518,7 +20465,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="B698" s="18"/>
+      <c r="B698" s="17"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20546,7 +20493,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
-      <c r="B699" s="18"/>
+      <c r="B699" s="17"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20574,7 +20521,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
-      <c r="B700" s="18"/>
+      <c r="B700" s="17"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20602,7 +20549,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
-      <c r="B701" s="18"/>
+      <c r="B701" s="17"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20630,7 +20577,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
-      <c r="B702" s="18"/>
+      <c r="B702" s="17"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20658,7 +20605,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
-      <c r="B703" s="18"/>
+      <c r="B703" s="17"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20686,7 +20633,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
-      <c r="B704" s="18"/>
+      <c r="B704" s="17"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20714,7 +20661,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
-      <c r="B705" s="18"/>
+      <c r="B705" s="17"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20742,7 +20689,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
-      <c r="B706" s="18"/>
+      <c r="B706" s="17"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20770,7 +20717,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
-      <c r="B707" s="18"/>
+      <c r="B707" s="17"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20798,7 +20745,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
-      <c r="B708" s="18"/>
+      <c r="B708" s="17"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20826,7 +20773,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
-      <c r="B709" s="18"/>
+      <c r="B709" s="17"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20854,7 +20801,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
-      <c r="B710" s="18"/>
+      <c r="B710" s="17"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20882,7 +20829,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
-      <c r="B711" s="18"/>
+      <c r="B711" s="17"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -20910,7 +20857,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
-      <c r="B712" s="18"/>
+      <c r="B712" s="17"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -20938,7 +20885,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
-      <c r="B713" s="18"/>
+      <c r="B713" s="17"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -20966,7 +20913,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
-      <c r="B714" s="18"/>
+      <c r="B714" s="17"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -20994,7 +20941,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
-      <c r="B715" s="18"/>
+      <c r="B715" s="17"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -21022,7 +20969,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
-      <c r="B716" s="18"/>
+      <c r="B716" s="17"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -21050,7 +20997,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
-      <c r="B717" s="18"/>
+      <c r="B717" s="17"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -21078,7 +21025,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
-      <c r="B718" s="18"/>
+      <c r="B718" s="17"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -21106,7 +21053,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
-      <c r="B719" s="18"/>
+      <c r="B719" s="17"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -21134,7 +21081,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
-      <c r="B720" s="18"/>
+      <c r="B720" s="17"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -21162,7 +21109,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
-      <c r="B721" s="18"/>
+      <c r="B721" s="17"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -21190,7 +21137,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
-      <c r="B722" s="18"/>
+      <c r="B722" s="17"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21218,7 +21165,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
-      <c r="B723" s="18"/>
+      <c r="B723" s="17"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21246,7 +21193,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
-      <c r="B724" s="18"/>
+      <c r="B724" s="17"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21274,7 +21221,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
-      <c r="B725" s="18"/>
+      <c r="B725" s="17"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21302,7 +21249,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
-      <c r="B726" s="18"/>
+      <c r="B726" s="17"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21330,7 +21277,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
-      <c r="B727" s="18"/>
+      <c r="B727" s="17"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21358,7 +21305,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
-      <c r="B728" s="18"/>
+      <c r="B728" s="17"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21386,7 +21333,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
-      <c r="B729" s="18"/>
+      <c r="B729" s="17"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21414,7 +21361,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
-      <c r="B730" s="18"/>
+      <c r="B730" s="17"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21442,7 +21389,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
-      <c r="B731" s="18"/>
+      <c r="B731" s="17"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21470,7 +21417,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
-      <c r="B732" s="18"/>
+      <c r="B732" s="17"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21498,7 +21445,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
-      <c r="B733" s="18"/>
+      <c r="B733" s="17"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21526,7 +21473,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
-      <c r="B734" s="18"/>
+      <c r="B734" s="17"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21554,7 +21501,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
-      <c r="B735" s="18"/>
+      <c r="B735" s="17"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21582,7 +21529,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
-      <c r="B736" s="18"/>
+      <c r="B736" s="17"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21610,7 +21557,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
-      <c r="B737" s="18"/>
+      <c r="B737" s="17"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21638,7 +21585,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
-      <c r="B738" s="18"/>
+      <c r="B738" s="17"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21666,7 +21613,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
-      <c r="B739" s="18"/>
+      <c r="B739" s="17"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21694,7 +21641,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
-      <c r="B740" s="18"/>
+      <c r="B740" s="17"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21722,7 +21669,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
-      <c r="B741" s="18"/>
+      <c r="B741" s="17"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21750,7 +21697,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
-      <c r="B742" s="18"/>
+      <c r="B742" s="17"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21778,7 +21725,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
-      <c r="B743" s="18"/>
+      <c r="B743" s="17"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21806,7 +21753,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
-      <c r="B744" s="18"/>
+      <c r="B744" s="17"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21834,7 +21781,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
-      <c r="B745" s="18"/>
+      <c r="B745" s="17"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21862,7 +21809,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
-      <c r="B746" s="18"/>
+      <c r="B746" s="17"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21890,7 +21837,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
-      <c r="B747" s="18"/>
+      <c r="B747" s="17"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -21918,7 +21865,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
-      <c r="B748" s="18"/>
+      <c r="B748" s="17"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -21946,7 +21893,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
-      <c r="B749" s="18"/>
+      <c r="B749" s="17"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -21974,7 +21921,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
-      <c r="B750" s="18"/>
+      <c r="B750" s="17"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -22002,7 +21949,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
-      <c r="B751" s="18"/>
+      <c r="B751" s="17"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -22030,7 +21977,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
-      <c r="B752" s="18"/>
+      <c r="B752" s="17"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -22058,7 +22005,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
-      <c r="B753" s="18"/>
+      <c r="B753" s="17"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -22086,7 +22033,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
-      <c r="B754" s="18"/>
+      <c r="B754" s="17"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -22114,7 +22061,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
-      <c r="B755" s="18"/>
+      <c r="B755" s="17"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -22142,7 +22089,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
-      <c r="B756" s="18"/>
+      <c r="B756" s="17"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -22170,7 +22117,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
-      <c r="B757" s="18"/>
+      <c r="B757" s="17"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22198,7 +22145,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
-      <c r="B758" s="18"/>
+      <c r="B758" s="17"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22226,7 +22173,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
-      <c r="B759" s="18"/>
+      <c r="B759" s="17"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22254,7 +22201,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
-      <c r="B760" s="18"/>
+      <c r="B760" s="17"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22282,7 +22229,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
-      <c r="B761" s="18"/>
+      <c r="B761" s="17"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22310,7 +22257,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
-      <c r="B762" s="18"/>
+      <c r="B762" s="17"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22338,7 +22285,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
-      <c r="B763" s="18"/>
+      <c r="B763" s="17"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22366,7 +22313,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="B764" s="18"/>
+      <c r="B764" s="17"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22394,7 +22341,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="B765" s="18"/>
+      <c r="B765" s="17"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22422,7 +22369,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="B766" s="18"/>
+      <c r="B766" s="17"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22450,7 +22397,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="B767" s="18"/>
+      <c r="B767" s="17"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22478,7 +22425,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
-      <c r="B768" s="18"/>
+      <c r="B768" s="17"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22506,7 +22453,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
-      <c r="B769" s="18"/>
+      <c r="B769" s="17"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22534,7 +22481,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
-      <c r="B770" s="18"/>
+      <c r="B770" s="17"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22562,7 +22509,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
-      <c r="B771" s="18"/>
+      <c r="B771" s="17"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22590,7 +22537,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
-      <c r="B772" s="18"/>
+      <c r="B772" s="17"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22618,7 +22565,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
-      <c r="B773" s="18"/>
+      <c r="B773" s="17"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22646,7 +22593,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
-      <c r="B774" s="18"/>
+      <c r="B774" s="17"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22674,7 +22621,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
-      <c r="B775" s="18"/>
+      <c r="B775" s="17"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22702,7 +22649,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
-      <c r="B776" s="18"/>
+      <c r="B776" s="17"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22730,7 +22677,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
-      <c r="B777" s="18"/>
+      <c r="B777" s="17"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22758,7 +22705,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
-      <c r="B778" s="18"/>
+      <c r="B778" s="17"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22786,7 +22733,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
-      <c r="B779" s="18"/>
+      <c r="B779" s="17"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22814,7 +22761,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
-      <c r="B780" s="18"/>
+      <c r="B780" s="17"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22842,7 +22789,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
-      <c r="B781" s="18"/>
+      <c r="B781" s="17"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22870,7 +22817,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
-      <c r="B782" s="18"/>
+      <c r="B782" s="17"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22898,7 +22845,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
-      <c r="B783" s="18"/>
+      <c r="B783" s="17"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -22926,7 +22873,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
-      <c r="B784" s="18"/>
+      <c r="B784" s="17"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -22954,7 +22901,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
-      <c r="B785" s="18"/>
+      <c r="B785" s="17"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -22982,7 +22929,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
-      <c r="B786" s="18"/>
+      <c r="B786" s="17"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -23010,7 +22957,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
-      <c r="B787" s="18"/>
+      <c r="B787" s="17"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -23038,7 +22985,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
-      <c r="B788" s="18"/>
+      <c r="B788" s="17"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -23066,7 +23013,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
-      <c r="B789" s="18"/>
+      <c r="B789" s="17"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -23094,7 +23041,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
-      <c r="B790" s="18"/>
+      <c r="B790" s="17"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -23122,7 +23069,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
-      <c r="B791" s="18"/>
+      <c r="B791" s="17"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -23150,7 +23097,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
-      <c r="B792" s="18"/>
+      <c r="B792" s="17"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -23178,7 +23125,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
-      <c r="B793" s="18"/>
+      <c r="B793" s="17"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23206,7 +23153,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
-      <c r="B794" s="18"/>
+      <c r="B794" s="17"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23234,7 +23181,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
-      <c r="B795" s="18"/>
+      <c r="B795" s="17"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23262,7 +23209,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
-      <c r="B796" s="18"/>
+      <c r="B796" s="17"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23290,7 +23237,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
-      <c r="B797" s="18"/>
+      <c r="B797" s="17"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23318,7 +23265,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
-      <c r="B798" s="18"/>
+      <c r="B798" s="17"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23346,7 +23293,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
-      <c r="B799" s="18"/>
+      <c r="B799" s="17"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23374,7 +23321,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
-      <c r="B800" s="18"/>
+      <c r="B800" s="17"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23402,7 +23349,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
-      <c r="B801" s="18"/>
+      <c r="B801" s="17"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23430,7 +23377,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
-      <c r="B802" s="18"/>
+      <c r="B802" s="17"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23458,7 +23405,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
-      <c r="B803" s="18"/>
+      <c r="B803" s="17"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23486,7 +23433,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
-      <c r="B804" s="18"/>
+      <c r="B804" s="17"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23514,7 +23461,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
-      <c r="B805" s="18"/>
+      <c r="B805" s="17"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23542,7 +23489,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
-      <c r="B806" s="18"/>
+      <c r="B806" s="17"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23570,7 +23517,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="B807" s="18"/>
+      <c r="B807" s="17"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23598,7 +23545,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
-      <c r="B808" s="18"/>
+      <c r="B808" s="17"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23626,7 +23573,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
-      <c r="B809" s="18"/>
+      <c r="B809" s="17"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23654,7 +23601,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
-      <c r="B810" s="18"/>
+      <c r="B810" s="17"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23682,7 +23629,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
-      <c r="B811" s="18"/>
+      <c r="B811" s="17"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23710,7 +23657,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
-      <c r="B812" s="18"/>
+      <c r="B812" s="17"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23738,7 +23685,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
-      <c r="B813" s="18"/>
+      <c r="B813" s="17"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23766,7 +23713,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
-      <c r="B814" s="18"/>
+      <c r="B814" s="17"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23794,7 +23741,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
-      <c r="B815" s="18"/>
+      <c r="B815" s="17"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23822,7 +23769,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
-      <c r="B816" s="18"/>
+      <c r="B816" s="17"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23850,7 +23797,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
-      <c r="B817" s="18"/>
+      <c r="B817" s="17"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23878,7 +23825,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
-      <c r="B818" s="18"/>
+      <c r="B818" s="17"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -23906,7 +23853,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
-      <c r="B819" s="18"/>
+      <c r="B819" s="17"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -23934,7 +23881,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
-      <c r="B820" s="18"/>
+      <c r="B820" s="17"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -23962,7 +23909,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
-      <c r="B821" s="18"/>
+      <c r="B821" s="17"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -23990,7 +23937,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
-      <c r="B822" s="18"/>
+      <c r="B822" s="17"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -24018,7 +23965,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
-      <c r="B823" s="18"/>
+      <c r="B823" s="17"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -24046,7 +23993,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
-      <c r="B824" s="18"/>
+      <c r="B824" s="17"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -24074,7 +24021,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
-      <c r="B825" s="18"/>
+      <c r="B825" s="17"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -24102,7 +24049,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
-      <c r="B826" s="18"/>
+      <c r="B826" s="17"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -24130,7 +24077,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
-      <c r="B827" s="18"/>
+      <c r="B827" s="17"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -24158,7 +24105,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
-      <c r="B828" s="18"/>
+      <c r="B828" s="17"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -24186,7 +24133,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
-      <c r="B829" s="18"/>
+      <c r="B829" s="17"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24214,7 +24161,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
-      <c r="B830" s="18"/>
+      <c r="B830" s="17"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24242,7 +24189,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
-      <c r="B831" s="18"/>
+      <c r="B831" s="17"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24270,7 +24217,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
-      <c r="B832" s="18"/>
+      <c r="B832" s="17"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24298,7 +24245,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
-      <c r="B833" s="18"/>
+      <c r="B833" s="17"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24326,7 +24273,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
-      <c r="B834" s="18"/>
+      <c r="B834" s="17"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24354,7 +24301,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
-      <c r="B835" s="18"/>
+      <c r="B835" s="17"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24382,7 +24329,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
-      <c r="B836" s="18"/>
+      <c r="B836" s="17"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24410,7 +24357,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
-      <c r="B837" s="18"/>
+      <c r="B837" s="17"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24438,7 +24385,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
-      <c r="B838" s="18"/>
+      <c r="B838" s="17"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24466,7 +24413,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
-      <c r="B839" s="18"/>
+      <c r="B839" s="17"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24494,7 +24441,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
-      <c r="B840" s="18"/>
+      <c r="B840" s="17"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24522,7 +24469,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
-      <c r="B841" s="18"/>
+      <c r="B841" s="17"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24550,7 +24497,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
-      <c r="B842" s="18"/>
+      <c r="B842" s="17"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24578,7 +24525,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
-      <c r="B843" s="18"/>
+      <c r="B843" s="17"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24606,7 +24553,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
-      <c r="B844" s="18"/>
+      <c r="B844" s="17"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24634,7 +24581,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
-      <c r="B845" s="18"/>
+      <c r="B845" s="17"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24662,7 +24609,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
-      <c r="B846" s="18"/>
+      <c r="B846" s="17"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24690,7 +24637,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
-      <c r="B847" s="18"/>
+      <c r="B847" s="17"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24718,7 +24665,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
-      <c r="B848" s="18"/>
+      <c r="B848" s="17"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24746,7 +24693,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
-      <c r="B849" s="18"/>
+      <c r="B849" s="17"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24774,7 +24721,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
-      <c r="B850" s="18"/>
+      <c r="B850" s="17"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24802,7 +24749,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
-      <c r="B851" s="18"/>
+      <c r="B851" s="17"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24830,7 +24777,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
-      <c r="B852" s="18"/>
+      <c r="B852" s="17"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24858,7 +24805,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
-      <c r="B853" s="18"/>
+      <c r="B853" s="17"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24886,7 +24833,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
-      <c r="B854" s="18"/>
+      <c r="B854" s="17"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -24914,7 +24861,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
-      <c r="B855" s="18"/>
+      <c r="B855" s="17"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -24942,7 +24889,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
-      <c r="B856" s="18"/>
+      <c r="B856" s="17"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -24970,7 +24917,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
-      <c r="B857" s="18"/>
+      <c r="B857" s="17"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -24998,7 +24945,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
-      <c r="B858" s="18"/>
+      <c r="B858" s="17"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -25026,7 +24973,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
-      <c r="B859" s="18"/>
+      <c r="B859" s="17"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -25054,7 +25001,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
-      <c r="B860" s="18"/>
+      <c r="B860" s="17"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -25082,7 +25029,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
-      <c r="B861" s="18"/>
+      <c r="B861" s="17"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -25110,7 +25057,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
-      <c r="B862" s="18"/>
+      <c r="B862" s="17"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -25138,7 +25085,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
-      <c r="B863" s="18"/>
+      <c r="B863" s="17"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -25166,7 +25113,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
-      <c r="B864" s="18"/>
+      <c r="B864" s="17"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -25194,7 +25141,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
-      <c r="B865" s="18"/>
+      <c r="B865" s="17"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25222,7 +25169,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
-      <c r="B866" s="18"/>
+      <c r="B866" s="17"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25250,7 +25197,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
-      <c r="B867" s="18"/>
+      <c r="B867" s="17"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25278,7 +25225,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
-      <c r="B868" s="18"/>
+      <c r="B868" s="17"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25306,7 +25253,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
-      <c r="B869" s="18"/>
+      <c r="B869" s="17"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25334,7 +25281,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
-      <c r="B870" s="18"/>
+      <c r="B870" s="17"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25362,7 +25309,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
-      <c r="B871" s="18"/>
+      <c r="B871" s="17"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25390,7 +25337,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
-      <c r="B872" s="18"/>
+      <c r="B872" s="17"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25418,7 +25365,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
-      <c r="B873" s="18"/>
+      <c r="B873" s="17"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25446,7 +25393,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
-      <c r="B874" s="18"/>
+      <c r="B874" s="17"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25474,7 +25421,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
-      <c r="B875" s="18"/>
+      <c r="B875" s="17"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25502,7 +25449,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
-      <c r="B876" s="18"/>
+      <c r="B876" s="17"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25530,7 +25477,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
-      <c r="B877" s="18"/>
+      <c r="B877" s="17"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25558,7 +25505,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
-      <c r="B878" s="18"/>
+      <c r="B878" s="17"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25586,7 +25533,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
-      <c r="B879" s="18"/>
+      <c r="B879" s="17"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25614,7 +25561,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
-      <c r="B880" s="18"/>
+      <c r="B880" s="17"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25642,7 +25589,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
-      <c r="B881" s="18"/>
+      <c r="B881" s="17"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25670,7 +25617,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
-      <c r="B882" s="18"/>
+      <c r="B882" s="17"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25698,7 +25645,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
-      <c r="B883" s="18"/>
+      <c r="B883" s="17"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25726,7 +25673,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
-      <c r="B884" s="18"/>
+      <c r="B884" s="17"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25754,7 +25701,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
-      <c r="B885" s="18"/>
+      <c r="B885" s="17"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25782,7 +25729,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
-      <c r="B886" s="18"/>
+      <c r="B886" s="17"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25810,7 +25757,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
-      <c r="B887" s="18"/>
+      <c r="B887" s="17"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25838,7 +25785,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
-      <c r="B888" s="18"/>
+      <c r="B888" s="17"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25866,7 +25813,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
-      <c r="B889" s="18"/>
+      <c r="B889" s="17"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25894,7 +25841,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
-      <c r="B890" s="18"/>
+      <c r="B890" s="17"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -25922,7 +25869,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
-      <c r="B891" s="18"/>
+      <c r="B891" s="17"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -25950,7 +25897,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
-      <c r="B892" s="18"/>
+      <c r="B892" s="17"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -25978,7 +25925,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
-      <c r="B893" s="18"/>
+      <c r="B893" s="17"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -26006,7 +25953,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
-      <c r="B894" s="18"/>
+      <c r="B894" s="17"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -26034,7 +25981,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
-      <c r="B895" s="18"/>
+      <c r="B895" s="17"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -26062,7 +26009,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
-      <c r="B896" s="18"/>
+      <c r="B896" s="17"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -26090,7 +26037,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
-      <c r="B897" s="18"/>
+      <c r="B897" s="17"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -26118,7 +26065,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
-      <c r="B898" s="18"/>
+      <c r="B898" s="17"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -26146,7 +26093,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
-      <c r="B899" s="18"/>
+      <c r="B899" s="17"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -26174,7 +26121,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
-      <c r="B900" s="18"/>
+      <c r="B900" s="17"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26202,7 +26149,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
-      <c r="B901" s="18"/>
+      <c r="B901" s="17"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26230,7 +26177,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
-      <c r="B902" s="18"/>
+      <c r="B902" s="17"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26258,7 +26205,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
-      <c r="B903" s="18"/>
+      <c r="B903" s="17"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26286,7 +26233,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
-      <c r="B904" s="18"/>
+      <c r="B904" s="17"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26314,7 +26261,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
-      <c r="B905" s="18"/>
+      <c r="B905" s="17"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26342,7 +26289,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
-      <c r="B906" s="18"/>
+      <c r="B906" s="17"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26370,7 +26317,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
-      <c r="B907" s="18"/>
+      <c r="B907" s="17"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26398,7 +26345,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
-      <c r="B908" s="18"/>
+      <c r="B908" s="17"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26426,7 +26373,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
-      <c r="B909" s="18"/>
+      <c r="B909" s="17"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26454,7 +26401,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
-      <c r="B910" s="18"/>
+      <c r="B910" s="17"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26482,7 +26429,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
-      <c r="B911" s="18"/>
+      <c r="B911" s="17"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26510,7 +26457,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
-      <c r="B912" s="18"/>
+      <c r="B912" s="17"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26538,7 +26485,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="B913" s="18"/>
+      <c r="B913" s="17"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26566,7 +26513,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
-      <c r="B914" s="18"/>
+      <c r="B914" s="17"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26594,7 +26541,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
-      <c r="B915" s="18"/>
+      <c r="B915" s="17"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26622,7 +26569,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
-      <c r="B916" s="18"/>
+      <c r="B916" s="17"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26650,7 +26597,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
-      <c r="B917" s="18"/>
+      <c r="B917" s="17"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26678,7 +26625,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
-      <c r="B918" s="18"/>
+      <c r="B918" s="17"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26706,7 +26653,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
-      <c r="B919" s="18"/>
+      <c r="B919" s="17"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26734,7 +26681,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
-      <c r="B920" s="18"/>
+      <c r="B920" s="17"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26762,7 +26709,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
-      <c r="B921" s="18"/>
+      <c r="B921" s="17"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26790,7 +26737,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
-      <c r="B922" s="18"/>
+      <c r="B922" s="17"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26818,7 +26765,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
-      <c r="B923" s="18"/>
+      <c r="B923" s="17"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26846,7 +26793,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
-      <c r="B924" s="18"/>
+      <c r="B924" s="17"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26874,7 +26821,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
-      <c r="B925" s="18"/>
+      <c r="B925" s="17"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -26902,7 +26849,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
-      <c r="B926" s="18"/>
+      <c r="B926" s="17"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -26930,7 +26877,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
-      <c r="B927" s="18"/>
+      <c r="B927" s="17"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -26958,7 +26905,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
-      <c r="B928" s="18"/>
+      <c r="B928" s="17"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -26986,7 +26933,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
-      <c r="B929" s="18"/>
+      <c r="B929" s="17"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -27014,7 +26961,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
-      <c r="B930" s="18"/>
+      <c r="B930" s="17"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -27042,7 +26989,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
-      <c r="B931" s="18"/>
+      <c r="B931" s="17"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -27070,7 +27017,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
-      <c r="B932" s="18"/>
+      <c r="B932" s="17"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -27098,7 +27045,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
-      <c r="B933" s="18"/>
+      <c r="B933" s="17"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -27126,7 +27073,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
-      <c r="B934" s="18"/>
+      <c r="B934" s="17"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -27154,7 +27101,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
-      <c r="B935" s="18"/>
+      <c r="B935" s="17"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -27182,7 +27129,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
-      <c r="B936" s="18"/>
+      <c r="B936" s="17"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27210,7 +27157,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
-      <c r="B937" s="18"/>
+      <c r="B937" s="17"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27238,7 +27185,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
-      <c r="B938" s="18"/>
+      <c r="B938" s="17"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27266,7 +27213,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
-      <c r="B939" s="18"/>
+      <c r="B939" s="17"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27294,7 +27241,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
-      <c r="B940" s="18"/>
+      <c r="B940" s="17"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27322,7 +27269,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
-      <c r="B941" s="18"/>
+      <c r="B941" s="17"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27350,7 +27297,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
-      <c r="B942" s="18"/>
+      <c r="B942" s="17"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27378,7 +27325,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
-      <c r="B943" s="18"/>
+      <c r="B943" s="17"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27406,7 +27353,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
-      <c r="B944" s="18"/>
+      <c r="B944" s="17"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27434,7 +27381,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
-      <c r="B945" s="18"/>
+      <c r="B945" s="17"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27462,7 +27409,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
-      <c r="B946" s="18"/>
+      <c r="B946" s="17"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27490,7 +27437,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
-      <c r="B947" s="18"/>
+      <c r="B947" s="17"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27518,7 +27465,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
-      <c r="B948" s="18"/>
+      <c r="B948" s="17"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27546,7 +27493,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
-      <c r="B949" s="18"/>
+      <c r="B949" s="17"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27574,7 +27521,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
-      <c r="B950" s="18"/>
+      <c r="B950" s="17"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27602,7 +27549,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
-      <c r="B951" s="18"/>
+      <c r="B951" s="17"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27630,7 +27577,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
-      <c r="B952" s="18"/>
+      <c r="B952" s="17"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27658,7 +27605,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
-      <c r="B953" s="18"/>
+      <c r="B953" s="17"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27686,7 +27633,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
-      <c r="B954" s="18"/>
+      <c r="B954" s="17"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27714,7 +27661,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
-      <c r="B955" s="18"/>
+      <c r="B955" s="17"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27742,7 +27689,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
-      <c r="B956" s="18"/>
+      <c r="B956" s="17"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27770,7 +27717,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
-      <c r="B957" s="18"/>
+      <c r="B957" s="17"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27798,7 +27745,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
-      <c r="B958" s="18"/>
+      <c r="B958" s="17"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27826,7 +27773,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
-      <c r="B959" s="18"/>
+      <c r="B959" s="17"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27854,7 +27801,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
-      <c r="B960" s="18"/>
+      <c r="B960" s="17"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27882,7 +27829,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
-      <c r="B961" s="18"/>
+      <c r="B961" s="17"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -27910,7 +27857,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
-      <c r="B962" s="18"/>
+      <c r="B962" s="17"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -27938,7 +27885,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
-      <c r="B963" s="18"/>
+      <c r="B963" s="17"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -27966,7 +27913,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
-      <c r="B964" s="18"/>
+      <c r="B964" s="17"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -27994,7 +27941,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
-      <c r="B965" s="18"/>
+      <c r="B965" s="17"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -28022,7 +27969,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
-      <c r="B966" s="18"/>
+      <c r="B966" s="17"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -28050,7 +27997,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
-      <c r="B967" s="18"/>
+      <c r="B967" s="17"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -28078,7 +28025,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
-      <c r="B968" s="18"/>
+      <c r="B968" s="17"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -28106,7 +28053,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
-      <c r="B969" s="18"/>
+      <c r="B969" s="17"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -28134,7 +28081,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
-      <c r="B970" s="18"/>
+      <c r="B970" s="17"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -28162,7 +28109,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
-      <c r="B971" s="18"/>
+      <c r="B971" s="17"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -28190,7 +28137,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
-      <c r="B972" s="18"/>
+      <c r="B972" s="17"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28218,7 +28165,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
-      <c r="B973" s="18"/>
+      <c r="B973" s="17"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28246,7 +28193,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
-      <c r="B974" s="18"/>
+      <c r="B974" s="17"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28274,7 +28221,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
-      <c r="B975" s="18"/>
+      <c r="B975" s="17"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28302,7 +28249,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
-      <c r="B976" s="18"/>
+      <c r="B976" s="17"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28330,7 +28277,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
-      <c r="B977" s="18"/>
+      <c r="B977" s="17"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28358,7 +28305,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
-      <c r="B978" s="18"/>
+      <c r="B978" s="17"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28386,7 +28333,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
-      <c r="B979" s="18"/>
+      <c r="B979" s="17"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28414,7 +28361,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
-      <c r="B980" s="18"/>
+      <c r="B980" s="17"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28442,7 +28389,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
-      <c r="B981" s="18"/>
+      <c r="B981" s="17"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28470,7 +28417,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
-      <c r="B982" s="18"/>
+      <c r="B982" s="17"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28498,7 +28445,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
-      <c r="B983" s="18"/>
+      <c r="B983" s="17"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28526,7 +28473,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
-      <c r="B984" s="18"/>
+      <c r="B984" s="17"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28554,7 +28501,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
-      <c r="B985" s="18"/>
+      <c r="B985" s="17"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28582,7 +28529,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
-      <c r="B986" s="18"/>
+      <c r="B986" s="17"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28610,7 +28557,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
-      <c r="B987" s="18"/>
+      <c r="B987" s="17"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28638,7 +28585,7 @@
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
-      <c r="B988" s="18"/>
+      <c r="B988" s="17"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -28666,7 +28613,7 @@
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
-      <c r="B989" s="18"/>
+      <c r="B989" s="17"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -28694,7 +28641,7 @@
     </row>
     <row r="990" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
-      <c r="B990" s="18"/>
+      <c r="B990" s="17"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
@@ -28722,7 +28669,7 @@
     </row>
     <row r="991" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
-      <c r="B991" s="18"/>
+      <c r="B991" s="17"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
@@ -28750,7 +28697,7 @@
     </row>
     <row r="992" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
-      <c r="B992" s="18"/>
+      <c r="B992" s="17"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
@@ -28778,7 +28725,7 @@
     </row>
     <row r="993" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
-      <c r="B993" s="18"/>
+      <c r="B993" s="17"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
@@ -28806,7 +28753,7 @@
     </row>
     <row r="994" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
-      <c r="B994" s="18"/>
+      <c r="B994" s="17"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
@@ -28834,7 +28781,7 @@
     </row>
     <row r="995" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
-      <c r="B995" s="18"/>
+      <c r="B995" s="17"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>

--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F88A2-27D6-4918-A856-BFC8FF94F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F647B-F360-41B4-AB22-1A32621BB9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -156,10 +156,25 @@
     <t>Xác định database, template user, dashboard và các usecase</t>
   </si>
   <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase …</t>
+    <t>Xác định usecase và mối quan hệ giữa các use case, mô tả usecase 1-9</t>
   </si>
   <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case, mô tả usecase …</t>
+    <t xml:space="preserve">Giang Quang Đạo </t>
+  </si>
+  <si>
+    <t>Lê Quốc Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cương</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase 10-18</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase 19-27</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase 28-35</t>
   </si>
 </sst>
 </file>
@@ -545,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -942,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9">
         <v>45573</v>
@@ -954,11 +969,17 @@
         <v>45579</v>
       </c>
       <c r="F11" s="9">
-        <v>45579</v>
+        <v>45575</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -981,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9">
         <v>45573</v>
@@ -993,11 +1014,17 @@
         <v>45579</v>
       </c>
       <c r="F12" s="9">
-        <v>45579</v>
+        <v>45575</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1020,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9">
         <v>45573</v>
@@ -1032,11 +1059,17 @@
         <v>45579</v>
       </c>
       <c r="F13" s="9">
-        <v>45579</v>
+        <v>45575</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1060,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9">
         <v>45573</v>
@@ -1072,11 +1105,17 @@
         <v>45579</v>
       </c>
       <c r="F14" s="9">
-        <v>45579</v>
+        <v>45575</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>

--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F647B-F360-41B4-AB22-1A32621BB9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6444E-EFA1-4ED3-B3B2-7F79CAE23ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Xác định các yêu cầu về dữ liệu</t>
-  </si>
-  <si>
-    <t>Chương trình có sự phức tạo cụ thể do đó cần có thời gian tìm hiểu kĩ càng hơn</t>
   </si>
   <si>
     <t>Vẽ biểu đồ thực thể liên kết mức logic</t>
@@ -175,6 +172,18 @@
   </si>
   <si>
     <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase 28-35</t>
+  </si>
+  <si>
+    <t>Xác định các thành phần về giao diện</t>
+  </si>
+  <si>
+    <t>Đỗ Thành Đạt, Nguyễn Văn Cương</t>
+  </si>
+  <si>
+    <t>Lê Quốc Đạt, Giang Quang Đạo</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -605,7 +614,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -635,7 +644,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -665,7 +674,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -695,7 +704,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -792,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
@@ -838,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -884,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -912,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9">
         <v>45566</v>
@@ -957,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9">
         <v>45573</v>
@@ -975,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>11</v>
@@ -1002,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9">
         <v>45573</v>
@@ -1020,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>11</v>
@@ -1047,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9">
         <v>45573</v>
@@ -1065,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
@@ -1093,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9">
         <v>45573</v>
@@ -1111,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
@@ -1142,21 +1151,25 @@
         <v>16</v>
       </c>
       <c r="C15" s="9">
-        <v>45573</v>
+        <v>45580</v>
       </c>
       <c r="D15" s="9">
-        <v>45573</v>
+        <v>45580</v>
       </c>
       <c r="E15" s="9">
-        <v>45579</v>
+        <v>45588</v>
       </c>
       <c r="F15" s="9">
-        <v>45579</v>
+        <v>45588</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I15" s="10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1176,28 +1189,34 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9">
-        <v>45573</v>
+        <v>45581</v>
       </c>
       <c r="D16" s="9">
-        <v>45573</v>
+        <v>45581</v>
       </c>
       <c r="E16" s="9">
-        <v>45579</v>
+        <v>45589</v>
       </c>
       <c r="F16" s="9">
-        <v>45579</v>
+        <v>45589</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1221,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9">
         <v>45573</v>
@@ -1256,7 +1275,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1301,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9">
         <v>45573</v>
@@ -1336,12 +1355,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>15</v>
+      <c r="B20" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="9">
         <v>45573</v>
@@ -1356,8 +1375,8 @@
         <v>45579</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1381,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9">
         <v>45573</v>
@@ -1396,7 +1415,7 @@
         <v>45579</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1416,12 +1435,12 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>22</v>
+      <c r="B22" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="9">
         <v>45573</v>
@@ -1456,12 +1475,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="9">
         <v>45573</v>
@@ -1496,12 +1515,12 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9">
         <v>45573</v>
@@ -1536,12 +1555,12 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9">
         <v>45573</v>
@@ -1576,12 +1595,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="9">
         <v>45573</v>
@@ -1616,12 +1635,12 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>27</v>
+      <c r="B27" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="9">
         <v>45573</v>
@@ -1637,7 +1656,7 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1656,12 +1675,12 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>28</v>
+      <c r="B28" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="9">
         <v>45573</v>
@@ -1677,7 +1696,7 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1701,7 +1720,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9">
         <v>45573</v>
@@ -1741,7 +1760,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="9">
         <v>45573</v>
@@ -1776,12 +1795,12 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>25</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9">
         <v>45573</v>
@@ -1821,7 +1840,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="9">
         <v>45573</v>
@@ -1856,12 +1875,12 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>33</v>
+      <c r="B33" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C33" s="9">
         <v>45573</v>
@@ -1896,12 +1915,12 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>28</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="9">
         <v>45573</v>
@@ -1916,9 +1935,7 @@
         <v>45579</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1938,16 +1955,30 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+    <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="9">
+        <v>45573</v>
+      </c>
+      <c r="D35" s="9">
+        <v>45573</v>
+      </c>
+      <c r="E35" s="9">
+        <v>45579</v>
+      </c>
+      <c r="F35" s="9">
+        <v>45579</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -7007,16 +7038,16 @@
       <c r="Z215" s="1"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -7101,22 +7132,22 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
-      <c r="R219" s="4"/>
-      <c r="S219" s="4"/>
-      <c r="T219" s="4"/>
-      <c r="U219" s="4"/>
-      <c r="V219" s="4"/>
-      <c r="W219" s="4"/>
-      <c r="X219" s="4"/>
-      <c r="Y219" s="4"/>
-      <c r="Z219" s="4"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
@@ -28847,6 +28878,16 @@
       <c r="Z995" s="4"/>
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A996" s="4"/>
+      <c r="B996" s="17"/>
+      <c r="C996" s="4"/>
+      <c r="D996" s="4"/>
+      <c r="E996" s="4"/>
+      <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
       <c r="K996" s="4"/>
       <c r="L996" s="4"/>
       <c r="M996" s="4"/>
@@ -28900,6 +28941,24 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
+    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K999" s="4"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="4"/>
+      <c r="N999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="P999" s="4"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="4"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="4"/>
+      <c r="Z999" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:I1"/>

--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6444E-EFA1-4ED3-B3B2-7F79CAE23ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1BA014-A62B-4A60-B3E3-D112EAEC3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -183,14 +183,17 @@
     <t>Lê Quốc Đạt, Giang Quang Đạo</t>
   </si>
   <si>
-    <t>done</t>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +244,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,9 +322,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,6 +354,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,31 +577,31 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="17" customWidth="1"/>
     <col min="3" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="26" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -613,17 +621,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -643,17 +651,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -673,17 +681,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -703,17 +711,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -736,7 +744,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -782,7 +790,7 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
@@ -828,7 +836,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7">
@@ -874,7 +882,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7">
@@ -920,7 +928,7 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="9">
@@ -965,7 +973,7 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="9">
@@ -1010,7 +1018,7 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="9">
@@ -1055,7 +1063,7 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="9">
@@ -1101,7 +1109,7 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="9">
@@ -1147,7 +1155,7 @@
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="9">
@@ -1157,10 +1165,10 @@
         <v>45580</v>
       </c>
       <c r="E15" s="9">
-        <v>45588</v>
+        <v>45596</v>
       </c>
-      <c r="F15" s="9">
-        <v>45588</v>
+      <c r="F15" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>11</v>
@@ -1168,8 +1176,8 @@
       <c r="H15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>52</v>
+      <c r="I15" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1193,7 +1201,7 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="9">
@@ -1203,10 +1211,10 @@
         <v>45581</v>
       </c>
       <c r="E16" s="9">
-        <v>45589</v>
+        <v>45597</v>
       </c>
-      <c r="F16" s="9">
-        <v>45589</v>
+      <c r="F16" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>11</v>
@@ -1214,7 +1222,7 @@
       <c r="H16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="1"/>
@@ -1239,7 +1247,7 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9">
@@ -1256,7 +1264,7 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1279,7 +1287,7 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="9">
@@ -1296,7 +1304,7 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1319,7 +1327,7 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="9">
@@ -1336,7 +1344,7 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1359,7 +1367,7 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="9">
@@ -1376,7 +1384,7 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1399,7 +1407,7 @@
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9">
@@ -1439,7 +1447,7 @@
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="9">
@@ -1479,7 +1487,7 @@
       <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="9">
@@ -1519,7 +1527,7 @@
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="9">
@@ -1559,7 +1567,7 @@
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="9">
@@ -1599,7 +1607,7 @@
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="9">
@@ -1639,7 +1647,7 @@
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="9">
@@ -1679,7 +1687,7 @@
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="9">
@@ -1696,7 +1704,7 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1719,7 +1727,7 @@
       <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="9">
@@ -1759,7 +1767,7 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="9">
@@ -1799,7 +1807,7 @@
       <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="9">
@@ -1839,7 +1847,7 @@
       <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="9">
@@ -1879,7 +1887,7 @@
       <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="9">
@@ -1919,7 +1927,7 @@
       <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="9">
@@ -1959,7 +1967,7 @@
       <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="9">
@@ -7067,7 +7075,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="17"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7095,7 +7103,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="17"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7123,7 +7131,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="B219" s="17"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7151,7 +7159,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="B220" s="17"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7179,7 +7187,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="17"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7207,7 +7215,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="17"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7235,7 +7243,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="17"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7263,7 +7271,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="17"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7291,7 +7299,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="17"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7319,7 +7327,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="17"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7347,7 +7355,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="17"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7375,7 +7383,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="17"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7403,7 +7411,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="17"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7431,7 +7439,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="17"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7459,7 +7467,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="17"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7487,7 +7495,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="17"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7515,7 +7523,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="17"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7543,7 +7551,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="17"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7571,7 +7579,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="17"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7599,7 +7607,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="17"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7627,7 +7635,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="17"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7655,7 +7663,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="17"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7683,7 +7691,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="17"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7711,7 +7719,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="17"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7739,7 +7747,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="17"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7767,7 +7775,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="17"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7795,7 +7803,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="17"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7823,7 +7831,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="17"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7851,7 +7859,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="17"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7879,7 +7887,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="17"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7907,7 +7915,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="17"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7935,7 +7943,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="17"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7963,7 +7971,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="17"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7991,7 +7999,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="17"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -8019,7 +8027,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="17"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -8047,7 +8055,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="17"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -8075,7 +8083,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="17"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -8103,7 +8111,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="17"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -8131,7 +8139,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="17"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -8159,7 +8167,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="17"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8187,7 +8195,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="17"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8215,7 +8223,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="17"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8243,7 +8251,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="17"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8271,7 +8279,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="17"/>
+      <c r="B260" s="16"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8299,7 +8307,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="17"/>
+      <c r="B261" s="16"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8327,7 +8335,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="17"/>
+      <c r="B262" s="16"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8355,7 +8363,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="17"/>
+      <c r="B263" s="16"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8383,7 +8391,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="17"/>
+      <c r="B264" s="16"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8411,7 +8419,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="17"/>
+      <c r="B265" s="16"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8439,7 +8447,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="17"/>
+      <c r="B266" s="16"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8467,7 +8475,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="17"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8495,7 +8503,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="17"/>
+      <c r="B268" s="16"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8523,7 +8531,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="17"/>
+      <c r="B269" s="16"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8551,7 +8559,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="17"/>
+      <c r="B270" s="16"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8579,7 +8587,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="17"/>
+      <c r="B271" s="16"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8607,7 +8615,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="17"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8635,7 +8643,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="17"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8663,7 +8671,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="B274" s="17"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8691,7 +8699,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="B275" s="17"/>
+      <c r="B275" s="16"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8719,7 +8727,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="B276" s="17"/>
+      <c r="B276" s="16"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8747,7 +8755,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="B277" s="17"/>
+      <c r="B277" s="16"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8775,7 +8783,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="B278" s="17"/>
+      <c r="B278" s="16"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8803,7 +8811,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="B279" s="17"/>
+      <c r="B279" s="16"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8831,7 +8839,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="B280" s="17"/>
+      <c r="B280" s="16"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8859,7 +8867,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="B281" s="17"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8887,7 +8895,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="B282" s="17"/>
+      <c r="B282" s="16"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8915,7 +8923,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="B283" s="17"/>
+      <c r="B283" s="16"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8943,7 +8951,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="17"/>
+      <c r="B284" s="16"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8971,7 +8979,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="17"/>
+      <c r="B285" s="16"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -8999,7 +9007,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="17"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -9027,7 +9035,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="B287" s="17"/>
+      <c r="B287" s="16"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -9055,7 +9063,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="B288" s="17"/>
+      <c r="B288" s="16"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -9083,7 +9091,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="B289" s="17"/>
+      <c r="B289" s="16"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -9111,7 +9119,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="B290" s="17"/>
+      <c r="B290" s="16"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -9139,7 +9147,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="B291" s="17"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -9167,7 +9175,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="B292" s="17"/>
+      <c r="B292" s="16"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -9195,7 +9203,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="B293" s="17"/>
+      <c r="B293" s="16"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9223,7 +9231,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="17"/>
+      <c r="B294" s="16"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9251,7 +9259,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="17"/>
+      <c r="B295" s="16"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9279,7 +9287,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="17"/>
+      <c r="B296" s="16"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9307,7 +9315,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="17"/>
+      <c r="B297" s="16"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9335,7 +9343,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="B298" s="17"/>
+      <c r="B298" s="16"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9363,7 +9371,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="B299" s="17"/>
+      <c r="B299" s="16"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9391,7 +9399,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="B300" s="17"/>
+      <c r="B300" s="16"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9419,7 +9427,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="B301" s="17"/>
+      <c r="B301" s="16"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9447,7 +9455,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="B302" s="17"/>
+      <c r="B302" s="16"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9475,7 +9483,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="B303" s="17"/>
+      <c r="B303" s="16"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9503,7 +9511,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="17"/>
+      <c r="B304" s="16"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9531,7 +9539,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="17"/>
+      <c r="B305" s="16"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9559,7 +9567,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="17"/>
+      <c r="B306" s="16"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9587,7 +9595,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="B307" s="17"/>
+      <c r="B307" s="16"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9615,7 +9623,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="B308" s="17"/>
+      <c r="B308" s="16"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9643,7 +9651,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="17"/>
+      <c r="B309" s="16"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9671,7 +9679,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="17"/>
+      <c r="B310" s="16"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9699,7 +9707,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="17"/>
+      <c r="B311" s="16"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9727,7 +9735,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="17"/>
+      <c r="B312" s="16"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9755,7 +9763,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="17"/>
+      <c r="B313" s="16"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9783,7 +9791,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="17"/>
+      <c r="B314" s="16"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9811,7 +9819,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="17"/>
+      <c r="B315" s="16"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9839,7 +9847,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="17"/>
+      <c r="B316" s="16"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9867,7 +9875,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="17"/>
+      <c r="B317" s="16"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9895,7 +9903,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="17"/>
+      <c r="B318" s="16"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9923,7 +9931,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="17"/>
+      <c r="B319" s="16"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9951,7 +9959,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="B320" s="17"/>
+      <c r="B320" s="16"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9979,7 +9987,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="17"/>
+      <c r="B321" s="16"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -10007,7 +10015,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="17"/>
+      <c r="B322" s="16"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -10035,7 +10043,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="17"/>
+      <c r="B323" s="16"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -10063,7 +10071,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="B324" s="17"/>
+      <c r="B324" s="16"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -10091,7 +10099,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="B325" s="17"/>
+      <c r="B325" s="16"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -10119,7 +10127,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="B326" s="17"/>
+      <c r="B326" s="16"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -10147,7 +10155,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="B327" s="17"/>
+      <c r="B327" s="16"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -10175,7 +10183,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="B328" s="17"/>
+      <c r="B328" s="16"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -10203,7 +10211,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="B329" s="17"/>
+      <c r="B329" s="16"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10231,7 +10239,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="B330" s="17"/>
+      <c r="B330" s="16"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10259,7 +10267,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="B331" s="17"/>
+      <c r="B331" s="16"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10287,7 +10295,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="B332" s="17"/>
+      <c r="B332" s="16"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10315,7 +10323,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="B333" s="17"/>
+      <c r="B333" s="16"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10343,7 +10351,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="B334" s="17"/>
+      <c r="B334" s="16"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10371,7 +10379,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="B335" s="17"/>
+      <c r="B335" s="16"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10399,7 +10407,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="B336" s="17"/>
+      <c r="B336" s="16"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10427,7 +10435,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="B337" s="17"/>
+      <c r="B337" s="16"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10455,7 +10463,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="B338" s="17"/>
+      <c r="B338" s="16"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10483,7 +10491,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="17"/>
+      <c r="B339" s="16"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10511,7 +10519,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="17"/>
+      <c r="B340" s="16"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10539,7 +10547,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="17"/>
+      <c r="B341" s="16"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10567,7 +10575,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="B342" s="17"/>
+      <c r="B342" s="16"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10595,7 +10603,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="17"/>
+      <c r="B343" s="16"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10623,7 +10631,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="17"/>
+      <c r="B344" s="16"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10651,7 +10659,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="17"/>
+      <c r="B345" s="16"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10679,7 +10687,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="17"/>
+      <c r="B346" s="16"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10707,7 +10715,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="17"/>
+      <c r="B347" s="16"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10735,7 +10743,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="17"/>
+      <c r="B348" s="16"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10763,7 +10771,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="17"/>
+      <c r="B349" s="16"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10791,7 +10799,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="17"/>
+      <c r="B350" s="16"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10819,7 +10827,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="17"/>
+      <c r="B351" s="16"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10847,7 +10855,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="17"/>
+      <c r="B352" s="16"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10875,7 +10883,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="17"/>
+      <c r="B353" s="16"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10903,7 +10911,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="17"/>
+      <c r="B354" s="16"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10931,7 +10939,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="17"/>
+      <c r="B355" s="16"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10959,7 +10967,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="17"/>
+      <c r="B356" s="16"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10987,7 +10995,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="17"/>
+      <c r="B357" s="16"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -11015,7 +11023,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="17"/>
+      <c r="B358" s="16"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11043,7 +11051,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="17"/>
+      <c r="B359" s="16"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -11071,7 +11079,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="17"/>
+      <c r="B360" s="16"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -11099,7 +11107,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="17"/>
+      <c r="B361" s="16"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -11127,7 +11135,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="17"/>
+      <c r="B362" s="16"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -11155,7 +11163,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="17"/>
+      <c r="B363" s="16"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11183,7 +11191,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="17"/>
+      <c r="B364" s="16"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11211,7 +11219,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="17"/>
+      <c r="B365" s="16"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11239,7 +11247,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="17"/>
+      <c r="B366" s="16"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11267,7 +11275,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="B367" s="17"/>
+      <c r="B367" s="16"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11295,7 +11303,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="B368" s="17"/>
+      <c r="B368" s="16"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11323,7 +11331,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="B369" s="17"/>
+      <c r="B369" s="16"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11351,7 +11359,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="B370" s="17"/>
+      <c r="B370" s="16"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11379,7 +11387,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="B371" s="17"/>
+      <c r="B371" s="16"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11407,7 +11415,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="B372" s="17"/>
+      <c r="B372" s="16"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11435,7 +11443,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="B373" s="17"/>
+      <c r="B373" s="16"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11463,7 +11471,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="B374" s="17"/>
+      <c r="B374" s="16"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11491,7 +11499,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="17"/>
+      <c r="B375" s="16"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11519,7 +11527,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="17"/>
+      <c r="B376" s="16"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11547,7 +11555,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="17"/>
+      <c r="B377" s="16"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11575,7 +11583,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="17"/>
+      <c r="B378" s="16"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11603,7 +11611,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="17"/>
+      <c r="B379" s="16"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11631,7 +11639,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="17"/>
+      <c r="B380" s="16"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11659,7 +11667,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="17"/>
+      <c r="B381" s="16"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11687,7 +11695,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="17"/>
+      <c r="B382" s="16"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11715,7 +11723,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="17"/>
+      <c r="B383" s="16"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11743,7 +11751,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="17"/>
+      <c r="B384" s="16"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11771,7 +11779,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="17"/>
+      <c r="B385" s="16"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11799,7 +11807,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="17"/>
+      <c r="B386" s="16"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11827,7 +11835,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="17"/>
+      <c r="B387" s="16"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11855,7 +11863,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="17"/>
+      <c r="B388" s="16"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11883,7 +11891,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="17"/>
+      <c r="B389" s="16"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11911,7 +11919,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="17"/>
+      <c r="B390" s="16"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -11939,7 +11947,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="17"/>
+      <c r="B391" s="16"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -11967,7 +11975,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="17"/>
+      <c r="B392" s="16"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -11995,7 +12003,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="17"/>
+      <c r="B393" s="16"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -12023,7 +12031,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="17"/>
+      <c r="B394" s="16"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -12051,7 +12059,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="17"/>
+      <c r="B395" s="16"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -12079,7 +12087,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="17"/>
+      <c r="B396" s="16"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -12107,7 +12115,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="17"/>
+      <c r="B397" s="16"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -12135,7 +12143,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="17"/>
+      <c r="B398" s="16"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -12163,7 +12171,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="17"/>
+      <c r="B399" s="16"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12191,7 +12199,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="17"/>
+      <c r="B400" s="16"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12219,7 +12227,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="17"/>
+      <c r="B401" s="16"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12247,7 +12255,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="17"/>
+      <c r="B402" s="16"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12275,7 +12283,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="17"/>
+      <c r="B403" s="16"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12303,7 +12311,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="17"/>
+      <c r="B404" s="16"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12331,7 +12339,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="17"/>
+      <c r="B405" s="16"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12359,7 +12367,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="17"/>
+      <c r="B406" s="16"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12387,7 +12395,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="17"/>
+      <c r="B407" s="16"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12415,7 +12423,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="17"/>
+      <c r="B408" s="16"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12443,7 +12451,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="17"/>
+      <c r="B409" s="16"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12471,7 +12479,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="17"/>
+      <c r="B410" s="16"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12499,7 +12507,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="17"/>
+      <c r="B411" s="16"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12527,7 +12535,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="B412" s="17"/>
+      <c r="B412" s="16"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12555,7 +12563,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="17"/>
+      <c r="B413" s="16"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12583,7 +12591,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="B414" s="17"/>
+      <c r="B414" s="16"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12611,7 +12619,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="17"/>
+      <c r="B415" s="16"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12639,7 +12647,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="B416" s="17"/>
+      <c r="B416" s="16"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12667,7 +12675,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="B417" s="17"/>
+      <c r="B417" s="16"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12695,7 +12703,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="17"/>
+      <c r="B418" s="16"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12723,7 +12731,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="17"/>
+      <c r="B419" s="16"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12751,7 +12759,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="17"/>
+      <c r="B420" s="16"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12779,7 +12787,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="17"/>
+      <c r="B421" s="16"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12807,7 +12815,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="17"/>
+      <c r="B422" s="16"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12835,7 +12843,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="17"/>
+      <c r="B423" s="16"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12863,7 +12871,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="17"/>
+      <c r="B424" s="16"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12891,7 +12899,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="17"/>
+      <c r="B425" s="16"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -12919,7 +12927,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="17"/>
+      <c r="B426" s="16"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -12947,7 +12955,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="17"/>
+      <c r="B427" s="16"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -12975,7 +12983,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="17"/>
+      <c r="B428" s="16"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -13003,7 +13011,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="17"/>
+      <c r="B429" s="16"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -13031,7 +13039,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="17"/>
+      <c r="B430" s="16"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -13059,7 +13067,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="17"/>
+      <c r="B431" s="16"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -13087,7 +13095,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="17"/>
+      <c r="B432" s="16"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -13115,7 +13123,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="17"/>
+      <c r="B433" s="16"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -13143,7 +13151,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="17"/>
+      <c r="B434" s="16"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -13171,7 +13179,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="17"/>
+      <c r="B435" s="16"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13199,7 +13207,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="17"/>
+      <c r="B436" s="16"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13227,7 +13235,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="17"/>
+      <c r="B437" s="16"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13255,7 +13263,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="17"/>
+      <c r="B438" s="16"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13283,7 +13291,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="17"/>
+      <c r="B439" s="16"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13311,7 +13319,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="17"/>
+      <c r="B440" s="16"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13339,7 +13347,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="17"/>
+      <c r="B441" s="16"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13367,7 +13375,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="17"/>
+      <c r="B442" s="16"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13395,7 +13403,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="17"/>
+      <c r="B443" s="16"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13423,7 +13431,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="17"/>
+      <c r="B444" s="16"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13451,7 +13459,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="17"/>
+      <c r="B445" s="16"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13479,7 +13487,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="17"/>
+      <c r="B446" s="16"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13507,7 +13515,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="17"/>
+      <c r="B447" s="16"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13535,7 +13543,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="17"/>
+      <c r="B448" s="16"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13563,7 +13571,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="17"/>
+      <c r="B449" s="16"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13591,7 +13599,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="17"/>
+      <c r="B450" s="16"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13619,7 +13627,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="17"/>
+      <c r="B451" s="16"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13647,7 +13655,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="17"/>
+      <c r="B452" s="16"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13675,7 +13683,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="17"/>
+      <c r="B453" s="16"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13703,7 +13711,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="17"/>
+      <c r="B454" s="16"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13731,7 +13739,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="17"/>
+      <c r="B455" s="16"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13759,7 +13767,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="17"/>
+      <c r="B456" s="16"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13787,7 +13795,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="17"/>
+      <c r="B457" s="16"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13815,7 +13823,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="17"/>
+      <c r="B458" s="16"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13843,7 +13851,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="17"/>
+      <c r="B459" s="16"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13871,7 +13879,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="17"/>
+      <c r="B460" s="16"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13899,7 +13907,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="17"/>
+      <c r="B461" s="16"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -13927,7 +13935,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="17"/>
+      <c r="B462" s="16"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -13955,7 +13963,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="17"/>
+      <c r="B463" s="16"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -13983,7 +13991,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="17"/>
+      <c r="B464" s="16"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -14011,7 +14019,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="17"/>
+      <c r="B465" s="16"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -14039,7 +14047,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="17"/>
+      <c r="B466" s="16"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -14067,7 +14075,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="17"/>
+      <c r="B467" s="16"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -14095,7 +14103,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="17"/>
+      <c r="B468" s="16"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -14123,7 +14131,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="17"/>
+      <c r="B469" s="16"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -14151,7 +14159,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="17"/>
+      <c r="B470" s="16"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14179,7 +14187,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="17"/>
+      <c r="B471" s="16"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14207,7 +14215,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="17"/>
+      <c r="B472" s="16"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14235,7 +14243,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="17"/>
+      <c r="B473" s="16"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14263,7 +14271,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="17"/>
+      <c r="B474" s="16"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14291,7 +14299,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="17"/>
+      <c r="B475" s="16"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14319,7 +14327,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="17"/>
+      <c r="B476" s="16"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14347,7 +14355,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="17"/>
+      <c r="B477" s="16"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14375,7 +14383,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="17"/>
+      <c r="B478" s="16"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14403,7 +14411,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="17"/>
+      <c r="B479" s="16"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14431,7 +14439,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="17"/>
+      <c r="B480" s="16"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14459,7 +14467,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="17"/>
+      <c r="B481" s="16"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14487,7 +14495,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="17"/>
+      <c r="B482" s="16"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14515,7 +14523,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="17"/>
+      <c r="B483" s="16"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14543,7 +14551,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="B484" s="17"/>
+      <c r="B484" s="16"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14571,7 +14579,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="B485" s="17"/>
+      <c r="B485" s="16"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14599,7 +14607,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="B486" s="17"/>
+      <c r="B486" s="16"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14627,7 +14635,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="B487" s="17"/>
+      <c r="B487" s="16"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14655,7 +14663,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="B488" s="17"/>
+      <c r="B488" s="16"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14683,7 +14691,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="B489" s="17"/>
+      <c r="B489" s="16"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14711,7 +14719,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="B490" s="17"/>
+      <c r="B490" s="16"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14739,7 +14747,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="B491" s="17"/>
+      <c r="B491" s="16"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14767,7 +14775,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="B492" s="17"/>
+      <c r="B492" s="16"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14795,7 +14803,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="B493" s="17"/>
+      <c r="B493" s="16"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14823,7 +14831,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="B494" s="17"/>
+      <c r="B494" s="16"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14851,7 +14859,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="B495" s="17"/>
+      <c r="B495" s="16"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14879,7 +14887,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="B496" s="17"/>
+      <c r="B496" s="16"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14907,7 +14915,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="B497" s="17"/>
+      <c r="B497" s="16"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14935,7 +14943,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="B498" s="17"/>
+      <c r="B498" s="16"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14963,7 +14971,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="B499" s="17"/>
+      <c r="B499" s="16"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14991,7 +14999,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="B500" s="17"/>
+      <c r="B500" s="16"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -15019,7 +15027,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="B501" s="17"/>
+      <c r="B501" s="16"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -15047,7 +15055,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="B502" s="17"/>
+      <c r="B502" s="16"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -15075,7 +15083,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="B503" s="17"/>
+      <c r="B503" s="16"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -15103,7 +15111,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="B504" s="17"/>
+      <c r="B504" s="16"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -15131,7 +15139,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="B505" s="17"/>
+      <c r="B505" s="16"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -15159,7 +15167,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="B506" s="17"/>
+      <c r="B506" s="16"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15187,7 +15195,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="B507" s="17"/>
+      <c r="B507" s="16"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15215,7 +15223,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="B508" s="17"/>
+      <c r="B508" s="16"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15243,7 +15251,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="B509" s="17"/>
+      <c r="B509" s="16"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15271,7 +15279,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="B510" s="17"/>
+      <c r="B510" s="16"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15299,7 +15307,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="B511" s="17"/>
+      <c r="B511" s="16"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15327,7 +15335,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="B512" s="17"/>
+      <c r="B512" s="16"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15355,7 +15363,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="B513" s="17"/>
+      <c r="B513" s="16"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15383,7 +15391,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="B514" s="17"/>
+      <c r="B514" s="16"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15411,7 +15419,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="B515" s="17"/>
+      <c r="B515" s="16"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15439,7 +15447,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="B516" s="17"/>
+      <c r="B516" s="16"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15467,7 +15475,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="B517" s="17"/>
+      <c r="B517" s="16"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15495,7 +15503,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="B518" s="17"/>
+      <c r="B518" s="16"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15523,7 +15531,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="B519" s="17"/>
+      <c r="B519" s="16"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15551,7 +15559,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="B520" s="17"/>
+      <c r="B520" s="16"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15579,7 +15587,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="B521" s="17"/>
+      <c r="B521" s="16"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15607,7 +15615,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="B522" s="17"/>
+      <c r="B522" s="16"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15635,7 +15643,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="B523" s="17"/>
+      <c r="B523" s="16"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15663,7 +15671,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="B524" s="17"/>
+      <c r="B524" s="16"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15691,7 +15699,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="B525" s="17"/>
+      <c r="B525" s="16"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15719,7 +15727,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="B526" s="17"/>
+      <c r="B526" s="16"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15747,7 +15755,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="B527" s="17"/>
+      <c r="B527" s="16"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15775,7 +15783,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="B528" s="17"/>
+      <c r="B528" s="16"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15803,7 +15811,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
-      <c r="B529" s="17"/>
+      <c r="B529" s="16"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15831,7 +15839,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
-      <c r="B530" s="17"/>
+      <c r="B530" s="16"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15859,7 +15867,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
-      <c r="B531" s="17"/>
+      <c r="B531" s="16"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15887,7 +15895,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
-      <c r="B532" s="17"/>
+      <c r="B532" s="16"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15915,7 +15923,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
-      <c r="B533" s="17"/>
+      <c r="B533" s="16"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15943,7 +15951,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
-      <c r="B534" s="17"/>
+      <c r="B534" s="16"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15971,7 +15979,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
-      <c r="B535" s="17"/>
+      <c r="B535" s="16"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -15999,7 +16007,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
-      <c r="B536" s="17"/>
+      <c r="B536" s="16"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -16027,7 +16035,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
-      <c r="B537" s="17"/>
+      <c r="B537" s="16"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -16055,7 +16063,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
-      <c r="B538" s="17"/>
+      <c r="B538" s="16"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -16083,7 +16091,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
-      <c r="B539" s="17"/>
+      <c r="B539" s="16"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -16111,7 +16119,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
-      <c r="B540" s="17"/>
+      <c r="B540" s="16"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -16139,7 +16147,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
-      <c r="B541" s="17"/>
+      <c r="B541" s="16"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -16167,7 +16175,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
-      <c r="B542" s="17"/>
+      <c r="B542" s="16"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -16195,7 +16203,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
-      <c r="B543" s="17"/>
+      <c r="B543" s="16"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16223,7 +16231,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
-      <c r="B544" s="17"/>
+      <c r="B544" s="16"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16251,7 +16259,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
-      <c r="B545" s="17"/>
+      <c r="B545" s="16"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16279,7 +16287,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
-      <c r="B546" s="17"/>
+      <c r="B546" s="16"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16307,7 +16315,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
-      <c r="B547" s="17"/>
+      <c r="B547" s="16"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16335,7 +16343,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
-      <c r="B548" s="17"/>
+      <c r="B548" s="16"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16363,7 +16371,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
-      <c r="B549" s="17"/>
+      <c r="B549" s="16"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16391,7 +16399,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
-      <c r="B550" s="17"/>
+      <c r="B550" s="16"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16419,7 +16427,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
-      <c r="B551" s="17"/>
+      <c r="B551" s="16"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16447,7 +16455,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
-      <c r="B552" s="17"/>
+      <c r="B552" s="16"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16475,7 +16483,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
-      <c r="B553" s="17"/>
+      <c r="B553" s="16"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16503,7 +16511,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
-      <c r="B554" s="17"/>
+      <c r="B554" s="16"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16531,7 +16539,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
-      <c r="B555" s="17"/>
+      <c r="B555" s="16"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16559,7 +16567,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
-      <c r="B556" s="17"/>
+      <c r="B556" s="16"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16587,7 +16595,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
-      <c r="B557" s="17"/>
+      <c r="B557" s="16"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16615,7 +16623,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
-      <c r="B558" s="17"/>
+      <c r="B558" s="16"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16643,7 +16651,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
-      <c r="B559" s="17"/>
+      <c r="B559" s="16"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16671,7 +16679,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
-      <c r="B560" s="17"/>
+      <c r="B560" s="16"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16699,7 +16707,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
-      <c r="B561" s="17"/>
+      <c r="B561" s="16"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16727,7 +16735,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
-      <c r="B562" s="17"/>
+      <c r="B562" s="16"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16755,7 +16763,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
-      <c r="B563" s="17"/>
+      <c r="B563" s="16"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16783,7 +16791,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
-      <c r="B564" s="17"/>
+      <c r="B564" s="16"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16811,7 +16819,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
-      <c r="B565" s="17"/>
+      <c r="B565" s="16"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16839,7 +16847,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
-      <c r="B566" s="17"/>
+      <c r="B566" s="16"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16867,7 +16875,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
-      <c r="B567" s="17"/>
+      <c r="B567" s="16"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16895,7 +16903,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
-      <c r="B568" s="17"/>
+      <c r="B568" s="16"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -16923,7 +16931,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
-      <c r="B569" s="17"/>
+      <c r="B569" s="16"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -16951,7 +16959,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
-      <c r="B570" s="17"/>
+      <c r="B570" s="16"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -16979,7 +16987,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
-      <c r="B571" s="17"/>
+      <c r="B571" s="16"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -17007,7 +17015,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
-      <c r="B572" s="17"/>
+      <c r="B572" s="16"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -17035,7 +17043,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
-      <c r="B573" s="17"/>
+      <c r="B573" s="16"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -17063,7 +17071,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
-      <c r="B574" s="17"/>
+      <c r="B574" s="16"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -17091,7 +17099,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
-      <c r="B575" s="17"/>
+      <c r="B575" s="16"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -17119,7 +17127,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
-      <c r="B576" s="17"/>
+      <c r="B576" s="16"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -17147,7 +17155,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
-      <c r="B577" s="17"/>
+      <c r="B577" s="16"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -17175,7 +17183,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
-      <c r="B578" s="17"/>
+      <c r="B578" s="16"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -17203,7 +17211,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
-      <c r="B579" s="17"/>
+      <c r="B579" s="16"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17231,7 +17239,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
-      <c r="B580" s="17"/>
+      <c r="B580" s="16"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17259,7 +17267,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
-      <c r="B581" s="17"/>
+      <c r="B581" s="16"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17287,7 +17295,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
-      <c r="B582" s="17"/>
+      <c r="B582" s="16"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17315,7 +17323,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
-      <c r="B583" s="17"/>
+      <c r="B583" s="16"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17343,7 +17351,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
-      <c r="B584" s="17"/>
+      <c r="B584" s="16"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17371,7 +17379,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
-      <c r="B585" s="17"/>
+      <c r="B585" s="16"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17399,7 +17407,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
-      <c r="B586" s="17"/>
+      <c r="B586" s="16"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17427,7 +17435,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
-      <c r="B587" s="17"/>
+      <c r="B587" s="16"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17455,7 +17463,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
-      <c r="B588" s="17"/>
+      <c r="B588" s="16"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17483,7 +17491,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
-      <c r="B589" s="17"/>
+      <c r="B589" s="16"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17511,7 +17519,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
-      <c r="B590" s="17"/>
+      <c r="B590" s="16"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17539,7 +17547,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
-      <c r="B591" s="17"/>
+      <c r="B591" s="16"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17567,7 +17575,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
-      <c r="B592" s="17"/>
+      <c r="B592" s="16"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17595,7 +17603,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
-      <c r="B593" s="17"/>
+      <c r="B593" s="16"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17623,7 +17631,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
-      <c r="B594" s="17"/>
+      <c r="B594" s="16"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17651,7 +17659,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
-      <c r="B595" s="17"/>
+      <c r="B595" s="16"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17679,7 +17687,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
-      <c r="B596" s="17"/>
+      <c r="B596" s="16"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17707,7 +17715,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
-      <c r="B597" s="17"/>
+      <c r="B597" s="16"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17735,7 +17743,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
-      <c r="B598" s="17"/>
+      <c r="B598" s="16"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17763,7 +17771,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
-      <c r="B599" s="17"/>
+      <c r="B599" s="16"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17791,7 +17799,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
-      <c r="B600" s="17"/>
+      <c r="B600" s="16"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17819,7 +17827,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
-      <c r="B601" s="17"/>
+      <c r="B601" s="16"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17847,7 +17855,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
-      <c r="B602" s="17"/>
+      <c r="B602" s="16"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17875,7 +17883,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
-      <c r="B603" s="17"/>
+      <c r="B603" s="16"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17903,7 +17911,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
-      <c r="B604" s="17"/>
+      <c r="B604" s="16"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -17931,7 +17939,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
-      <c r="B605" s="17"/>
+      <c r="B605" s="16"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -17959,7 +17967,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
-      <c r="B606" s="17"/>
+      <c r="B606" s="16"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -17987,7 +17995,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
-      <c r="B607" s="17"/>
+      <c r="B607" s="16"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -18015,7 +18023,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
-      <c r="B608" s="17"/>
+      <c r="B608" s="16"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -18043,7 +18051,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
-      <c r="B609" s="17"/>
+      <c r="B609" s="16"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -18071,7 +18079,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
-      <c r="B610" s="17"/>
+      <c r="B610" s="16"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -18099,7 +18107,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
-      <c r="B611" s="17"/>
+      <c r="B611" s="16"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -18127,7 +18135,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
-      <c r="B612" s="17"/>
+      <c r="B612" s="16"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -18155,7 +18163,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
-      <c r="B613" s="17"/>
+      <c r="B613" s="16"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -18183,7 +18191,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
-      <c r="B614" s="17"/>
+      <c r="B614" s="16"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -18211,7 +18219,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
-      <c r="B615" s="17"/>
+      <c r="B615" s="16"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18239,7 +18247,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
-      <c r="B616" s="17"/>
+      <c r="B616" s="16"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18267,7 +18275,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
-      <c r="B617" s="17"/>
+      <c r="B617" s="16"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18295,7 +18303,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
-      <c r="B618" s="17"/>
+      <c r="B618" s="16"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18323,7 +18331,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
-      <c r="B619" s="17"/>
+      <c r="B619" s="16"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18351,7 +18359,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
-      <c r="B620" s="17"/>
+      <c r="B620" s="16"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18379,7 +18387,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
-      <c r="B621" s="17"/>
+      <c r="B621" s="16"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18407,7 +18415,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
-      <c r="B622" s="17"/>
+      <c r="B622" s="16"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18435,7 +18443,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
-      <c r="B623" s="17"/>
+      <c r="B623" s="16"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18463,7 +18471,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
-      <c r="B624" s="17"/>
+      <c r="B624" s="16"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18491,7 +18499,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
-      <c r="B625" s="17"/>
+      <c r="B625" s="16"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18519,7 +18527,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
-      <c r="B626" s="17"/>
+      <c r="B626" s="16"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18547,7 +18555,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
-      <c r="B627" s="17"/>
+      <c r="B627" s="16"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18575,7 +18583,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
-      <c r="B628" s="17"/>
+      <c r="B628" s="16"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18603,7 +18611,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
-      <c r="B629" s="17"/>
+      <c r="B629" s="16"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18631,7 +18639,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
-      <c r="B630" s="17"/>
+      <c r="B630" s="16"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18659,7 +18667,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
-      <c r="B631" s="17"/>
+      <c r="B631" s="16"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18687,7 +18695,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
-      <c r="B632" s="17"/>
+      <c r="B632" s="16"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18715,7 +18723,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
-      <c r="B633" s="17"/>
+      <c r="B633" s="16"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18743,7 +18751,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
-      <c r="B634" s="17"/>
+      <c r="B634" s="16"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18771,7 +18779,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="B635" s="17"/>
+      <c r="B635" s="16"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18799,7 +18807,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
-      <c r="B636" s="17"/>
+      <c r="B636" s="16"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18827,7 +18835,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
-      <c r="B637" s="17"/>
+      <c r="B637" s="16"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18855,7 +18863,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
-      <c r="B638" s="17"/>
+      <c r="B638" s="16"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18883,7 +18891,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
-      <c r="B639" s="17"/>
+      <c r="B639" s="16"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18911,7 +18919,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
-      <c r="B640" s="17"/>
+      <c r="B640" s="16"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -18939,7 +18947,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
-      <c r="B641" s="17"/>
+      <c r="B641" s="16"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -18967,7 +18975,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
-      <c r="B642" s="17"/>
+      <c r="B642" s="16"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -18995,7 +19003,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
-      <c r="B643" s="17"/>
+      <c r="B643" s="16"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -19023,7 +19031,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
-      <c r="B644" s="17"/>
+      <c r="B644" s="16"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -19051,7 +19059,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
-      <c r="B645" s="17"/>
+      <c r="B645" s="16"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -19079,7 +19087,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-      <c r="B646" s="17"/>
+      <c r="B646" s="16"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -19107,7 +19115,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
-      <c r="B647" s="17"/>
+      <c r="B647" s="16"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -19135,7 +19143,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="B648" s="17"/>
+      <c r="B648" s="16"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -19163,7 +19171,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="B649" s="17"/>
+      <c r="B649" s="16"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -19191,7 +19199,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="B650" s="17"/>
+      <c r="B650" s="16"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19219,7 +19227,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
-      <c r="B651" s="17"/>
+      <c r="B651" s="16"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19247,7 +19255,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
-      <c r="B652" s="17"/>
+      <c r="B652" s="16"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19275,7 +19283,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
-      <c r="B653" s="17"/>
+      <c r="B653" s="16"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19303,7 +19311,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
-      <c r="B654" s="17"/>
+      <c r="B654" s="16"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19331,7 +19339,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
-      <c r="B655" s="17"/>
+      <c r="B655" s="16"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19359,7 +19367,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
-      <c r="B656" s="17"/>
+      <c r="B656" s="16"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19387,7 +19395,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
-      <c r="B657" s="17"/>
+      <c r="B657" s="16"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19415,7 +19423,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="B658" s="17"/>
+      <c r="B658" s="16"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19443,7 +19451,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
-      <c r="B659" s="17"/>
+      <c r="B659" s="16"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19471,7 +19479,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
-      <c r="B660" s="17"/>
+      <c r="B660" s="16"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19499,7 +19507,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
-      <c r="B661" s="17"/>
+      <c r="B661" s="16"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19527,7 +19535,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="B662" s="17"/>
+      <c r="B662" s="16"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19555,7 +19563,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
-      <c r="B663" s="17"/>
+      <c r="B663" s="16"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19583,7 +19591,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
-      <c r="B664" s="17"/>
+      <c r="B664" s="16"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19611,7 +19619,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="B665" s="17"/>
+      <c r="B665" s="16"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19639,7 +19647,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="B666" s="17"/>
+      <c r="B666" s="16"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19667,7 +19675,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="B667" s="17"/>
+      <c r="B667" s="16"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19695,7 +19703,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
-      <c r="B668" s="17"/>
+      <c r="B668" s="16"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19723,7 +19731,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
-      <c r="B669" s="17"/>
+      <c r="B669" s="16"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19751,7 +19759,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
-      <c r="B670" s="17"/>
+      <c r="B670" s="16"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19779,7 +19787,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
-      <c r="B671" s="17"/>
+      <c r="B671" s="16"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19807,7 +19815,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
-      <c r="B672" s="17"/>
+      <c r="B672" s="16"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19835,7 +19843,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
-      <c r="B673" s="17"/>
+      <c r="B673" s="16"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19863,7 +19871,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
-      <c r="B674" s="17"/>
+      <c r="B674" s="16"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19891,7 +19899,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
-      <c r="B675" s="17"/>
+      <c r="B675" s="16"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -19919,7 +19927,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
-      <c r="B676" s="17"/>
+      <c r="B676" s="16"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -19947,7 +19955,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="B677" s="17"/>
+      <c r="B677" s="16"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -19975,7 +19983,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="B678" s="17"/>
+      <c r="B678" s="16"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -20003,7 +20011,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="B679" s="17"/>
+      <c r="B679" s="16"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -20031,7 +20039,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
-      <c r="B680" s="17"/>
+      <c r="B680" s="16"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -20059,7 +20067,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-      <c r="B681" s="17"/>
+      <c r="B681" s="16"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -20087,7 +20095,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-      <c r="B682" s="17"/>
+      <c r="B682" s="16"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -20115,7 +20123,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="B683" s="17"/>
+      <c r="B683" s="16"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -20143,7 +20151,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="B684" s="17"/>
+      <c r="B684" s="16"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -20171,7 +20179,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
-      <c r="B685" s="17"/>
+      <c r="B685" s="16"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -20199,7 +20207,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
-      <c r="B686" s="17"/>
+      <c r="B686" s="16"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20227,7 +20235,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
-      <c r="B687" s="17"/>
+      <c r="B687" s="16"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20255,7 +20263,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
-      <c r="B688" s="17"/>
+      <c r="B688" s="16"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20283,7 +20291,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
-      <c r="B689" s="17"/>
+      <c r="B689" s="16"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20311,7 +20319,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
-      <c r="B690" s="17"/>
+      <c r="B690" s="16"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20339,7 +20347,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
-      <c r="B691" s="17"/>
+      <c r="B691" s="16"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20367,7 +20375,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
-      <c r="B692" s="17"/>
+      <c r="B692" s="16"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20395,7 +20403,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
-      <c r="B693" s="17"/>
+      <c r="B693" s="16"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20423,7 +20431,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
-      <c r="B694" s="17"/>
+      <c r="B694" s="16"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20451,7 +20459,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="B695" s="17"/>
+      <c r="B695" s="16"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20479,7 +20487,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="B696" s="17"/>
+      <c r="B696" s="16"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20507,7 +20515,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="B697" s="17"/>
+      <c r="B697" s="16"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20535,7 +20543,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="B698" s="17"/>
+      <c r="B698" s="16"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20563,7 +20571,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
-      <c r="B699" s="17"/>
+      <c r="B699" s="16"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20591,7 +20599,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
-      <c r="B700" s="17"/>
+      <c r="B700" s="16"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20619,7 +20627,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
-      <c r="B701" s="17"/>
+      <c r="B701" s="16"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20647,7 +20655,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
-      <c r="B702" s="17"/>
+      <c r="B702" s="16"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20675,7 +20683,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
-      <c r="B703" s="17"/>
+      <c r="B703" s="16"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20703,7 +20711,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
-      <c r="B704" s="17"/>
+      <c r="B704" s="16"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20731,7 +20739,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
-      <c r="B705" s="17"/>
+      <c r="B705" s="16"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20759,7 +20767,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
-      <c r="B706" s="17"/>
+      <c r="B706" s="16"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20787,7 +20795,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
-      <c r="B707" s="17"/>
+      <c r="B707" s="16"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20815,7 +20823,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
-      <c r="B708" s="17"/>
+      <c r="B708" s="16"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20843,7 +20851,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
-      <c r="B709" s="17"/>
+      <c r="B709" s="16"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20871,7 +20879,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
-      <c r="B710" s="17"/>
+      <c r="B710" s="16"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20899,7 +20907,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
-      <c r="B711" s="17"/>
+      <c r="B711" s="16"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -20927,7 +20935,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
-      <c r="B712" s="17"/>
+      <c r="B712" s="16"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -20955,7 +20963,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
-      <c r="B713" s="17"/>
+      <c r="B713" s="16"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -20983,7 +20991,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
-      <c r="B714" s="17"/>
+      <c r="B714" s="16"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -21011,7 +21019,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
-      <c r="B715" s="17"/>
+      <c r="B715" s="16"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -21039,7 +21047,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
-      <c r="B716" s="17"/>
+      <c r="B716" s="16"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -21067,7 +21075,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
-      <c r="B717" s="17"/>
+      <c r="B717" s="16"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -21095,7 +21103,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
-      <c r="B718" s="17"/>
+      <c r="B718" s="16"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -21123,7 +21131,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
-      <c r="B719" s="17"/>
+      <c r="B719" s="16"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -21151,7 +21159,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
-      <c r="B720" s="17"/>
+      <c r="B720" s="16"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -21179,7 +21187,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
-      <c r="B721" s="17"/>
+      <c r="B721" s="16"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -21207,7 +21215,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
-      <c r="B722" s="17"/>
+      <c r="B722" s="16"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21235,7 +21243,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
-      <c r="B723" s="17"/>
+      <c r="B723" s="16"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21263,7 +21271,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
-      <c r="B724" s="17"/>
+      <c r="B724" s="16"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21291,7 +21299,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
-      <c r="B725" s="17"/>
+      <c r="B725" s="16"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21319,7 +21327,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
-      <c r="B726" s="17"/>
+      <c r="B726" s="16"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21347,7 +21355,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
-      <c r="B727" s="17"/>
+      <c r="B727" s="16"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21375,7 +21383,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
-      <c r="B728" s="17"/>
+      <c r="B728" s="16"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21403,7 +21411,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
-      <c r="B729" s="17"/>
+      <c r="B729" s="16"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21431,7 +21439,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
-      <c r="B730" s="17"/>
+      <c r="B730" s="16"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21459,7 +21467,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
-      <c r="B731" s="17"/>
+      <c r="B731" s="16"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21487,7 +21495,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
-      <c r="B732" s="17"/>
+      <c r="B732" s="16"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21515,7 +21523,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
-      <c r="B733" s="17"/>
+      <c r="B733" s="16"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21543,7 +21551,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
-      <c r="B734" s="17"/>
+      <c r="B734" s="16"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21571,7 +21579,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
-      <c r="B735" s="17"/>
+      <c r="B735" s="16"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21599,7 +21607,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
-      <c r="B736" s="17"/>
+      <c r="B736" s="16"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21627,7 +21635,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
-      <c r="B737" s="17"/>
+      <c r="B737" s="16"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21655,7 +21663,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
-      <c r="B738" s="17"/>
+      <c r="B738" s="16"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21683,7 +21691,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
-      <c r="B739" s="17"/>
+      <c r="B739" s="16"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21711,7 +21719,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
-      <c r="B740" s="17"/>
+      <c r="B740" s="16"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21739,7 +21747,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
-      <c r="B741" s="17"/>
+      <c r="B741" s="16"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21767,7 +21775,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
-      <c r="B742" s="17"/>
+      <c r="B742" s="16"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21795,7 +21803,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
-      <c r="B743" s="17"/>
+      <c r="B743" s="16"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21823,7 +21831,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
-      <c r="B744" s="17"/>
+      <c r="B744" s="16"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21851,7 +21859,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
-      <c r="B745" s="17"/>
+      <c r="B745" s="16"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21879,7 +21887,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
-      <c r="B746" s="17"/>
+      <c r="B746" s="16"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21907,7 +21915,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
-      <c r="B747" s="17"/>
+      <c r="B747" s="16"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -21935,7 +21943,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
-      <c r="B748" s="17"/>
+      <c r="B748" s="16"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -21963,7 +21971,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
-      <c r="B749" s="17"/>
+      <c r="B749" s="16"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -21991,7 +21999,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
-      <c r="B750" s="17"/>
+      <c r="B750" s="16"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -22019,7 +22027,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
-      <c r="B751" s="17"/>
+      <c r="B751" s="16"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -22047,7 +22055,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
-      <c r="B752" s="17"/>
+      <c r="B752" s="16"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -22075,7 +22083,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
-      <c r="B753" s="17"/>
+      <c r="B753" s="16"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -22103,7 +22111,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
-      <c r="B754" s="17"/>
+      <c r="B754" s="16"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -22131,7 +22139,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
-      <c r="B755" s="17"/>
+      <c r="B755" s="16"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -22159,7 +22167,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
-      <c r="B756" s="17"/>
+      <c r="B756" s="16"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -22187,7 +22195,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
-      <c r="B757" s="17"/>
+      <c r="B757" s="16"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22215,7 +22223,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
-      <c r="B758" s="17"/>
+      <c r="B758" s="16"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22243,7 +22251,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
-      <c r="B759" s="17"/>
+      <c r="B759" s="16"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22271,7 +22279,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
-      <c r="B760" s="17"/>
+      <c r="B760" s="16"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22299,7 +22307,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
-      <c r="B761" s="17"/>
+      <c r="B761" s="16"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22327,7 +22335,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
-      <c r="B762" s="17"/>
+      <c r="B762" s="16"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22355,7 +22363,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
-      <c r="B763" s="17"/>
+      <c r="B763" s="16"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22383,7 +22391,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="B764" s="17"/>
+      <c r="B764" s="16"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22411,7 +22419,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="B765" s="17"/>
+      <c r="B765" s="16"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22439,7 +22447,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="B766" s="17"/>
+      <c r="B766" s="16"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22467,7 +22475,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="B767" s="17"/>
+      <c r="B767" s="16"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22495,7 +22503,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
-      <c r="B768" s="17"/>
+      <c r="B768" s="16"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22523,7 +22531,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
-      <c r="B769" s="17"/>
+      <c r="B769" s="16"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22551,7 +22559,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
-      <c r="B770" s="17"/>
+      <c r="B770" s="16"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22579,7 +22587,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
-      <c r="B771" s="17"/>
+      <c r="B771" s="16"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22607,7 +22615,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
-      <c r="B772" s="17"/>
+      <c r="B772" s="16"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22635,7 +22643,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
-      <c r="B773" s="17"/>
+      <c r="B773" s="16"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22663,7 +22671,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
-      <c r="B774" s="17"/>
+      <c r="B774" s="16"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22691,7 +22699,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
-      <c r="B775" s="17"/>
+      <c r="B775" s="16"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22719,7 +22727,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
-      <c r="B776" s="17"/>
+      <c r="B776" s="16"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22747,7 +22755,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
-      <c r="B777" s="17"/>
+      <c r="B777" s="16"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22775,7 +22783,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
-      <c r="B778" s="17"/>
+      <c r="B778" s="16"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22803,7 +22811,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
-      <c r="B779" s="17"/>
+      <c r="B779" s="16"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22831,7 +22839,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
-      <c r="B780" s="17"/>
+      <c r="B780" s="16"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22859,7 +22867,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
-      <c r="B781" s="17"/>
+      <c r="B781" s="16"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22887,7 +22895,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
-      <c r="B782" s="17"/>
+      <c r="B782" s="16"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22915,7 +22923,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
-      <c r="B783" s="17"/>
+      <c r="B783" s="16"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -22943,7 +22951,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
-      <c r="B784" s="17"/>
+      <c r="B784" s="16"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -22971,7 +22979,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
-      <c r="B785" s="17"/>
+      <c r="B785" s="16"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -22999,7 +23007,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
-      <c r="B786" s="17"/>
+      <c r="B786" s="16"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -23027,7 +23035,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
-      <c r="B787" s="17"/>
+      <c r="B787" s="16"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -23055,7 +23063,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
-      <c r="B788" s="17"/>
+      <c r="B788" s="16"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -23083,7 +23091,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
-      <c r="B789" s="17"/>
+      <c r="B789" s="16"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -23111,7 +23119,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
-      <c r="B790" s="17"/>
+      <c r="B790" s="16"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -23139,7 +23147,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
-      <c r="B791" s="17"/>
+      <c r="B791" s="16"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -23167,7 +23175,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
-      <c r="B792" s="17"/>
+      <c r="B792" s="16"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -23195,7 +23203,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
-      <c r="B793" s="17"/>
+      <c r="B793" s="16"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23223,7 +23231,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
-      <c r="B794" s="17"/>
+      <c r="B794" s="16"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23251,7 +23259,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
-      <c r="B795" s="17"/>
+      <c r="B795" s="16"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23279,7 +23287,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
-      <c r="B796" s="17"/>
+      <c r="B796" s="16"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23307,7 +23315,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
-      <c r="B797" s="17"/>
+      <c r="B797" s="16"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23335,7 +23343,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
-      <c r="B798" s="17"/>
+      <c r="B798" s="16"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23363,7 +23371,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
-      <c r="B799" s="17"/>
+      <c r="B799" s="16"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23391,7 +23399,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
-      <c r="B800" s="17"/>
+      <c r="B800" s="16"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23419,7 +23427,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
-      <c r="B801" s="17"/>
+      <c r="B801" s="16"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23447,7 +23455,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
-      <c r="B802" s="17"/>
+      <c r="B802" s="16"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23475,7 +23483,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
-      <c r="B803" s="17"/>
+      <c r="B803" s="16"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23503,7 +23511,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
-      <c r="B804" s="17"/>
+      <c r="B804" s="16"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23531,7 +23539,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
-      <c r="B805" s="17"/>
+      <c r="B805" s="16"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23559,7 +23567,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
-      <c r="B806" s="17"/>
+      <c r="B806" s="16"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23587,7 +23595,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="B807" s="17"/>
+      <c r="B807" s="16"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23615,7 +23623,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
-      <c r="B808" s="17"/>
+      <c r="B808" s="16"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23643,7 +23651,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
-      <c r="B809" s="17"/>
+      <c r="B809" s="16"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23671,7 +23679,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
-      <c r="B810" s="17"/>
+      <c r="B810" s="16"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23699,7 +23707,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
-      <c r="B811" s="17"/>
+      <c r="B811" s="16"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23727,7 +23735,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
-      <c r="B812" s="17"/>
+      <c r="B812" s="16"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23755,7 +23763,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
-      <c r="B813" s="17"/>
+      <c r="B813" s="16"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23783,7 +23791,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
-      <c r="B814" s="17"/>
+      <c r="B814" s="16"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23811,7 +23819,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
-      <c r="B815" s="17"/>
+      <c r="B815" s="16"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23839,7 +23847,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
-      <c r="B816" s="17"/>
+      <c r="B816" s="16"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23867,7 +23875,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
-      <c r="B817" s="17"/>
+      <c r="B817" s="16"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23895,7 +23903,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
-      <c r="B818" s="17"/>
+      <c r="B818" s="16"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -23923,7 +23931,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
-      <c r="B819" s="17"/>
+      <c r="B819" s="16"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -23951,7 +23959,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
-      <c r="B820" s="17"/>
+      <c r="B820" s="16"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -23979,7 +23987,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
-      <c r="B821" s="17"/>
+      <c r="B821" s="16"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -24007,7 +24015,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
-      <c r="B822" s="17"/>
+      <c r="B822" s="16"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -24035,7 +24043,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
-      <c r="B823" s="17"/>
+      <c r="B823" s="16"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -24063,7 +24071,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
-      <c r="B824" s="17"/>
+      <c r="B824" s="16"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -24091,7 +24099,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
-      <c r="B825" s="17"/>
+      <c r="B825" s="16"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -24119,7 +24127,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
-      <c r="B826" s="17"/>
+      <c r="B826" s="16"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -24147,7 +24155,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
-      <c r="B827" s="17"/>
+      <c r="B827" s="16"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -24175,7 +24183,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
-      <c r="B828" s="17"/>
+      <c r="B828" s="16"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -24203,7 +24211,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
-      <c r="B829" s="17"/>
+      <c r="B829" s="16"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24231,7 +24239,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
-      <c r="B830" s="17"/>
+      <c r="B830" s="16"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24259,7 +24267,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
-      <c r="B831" s="17"/>
+      <c r="B831" s="16"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24287,7 +24295,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
-      <c r="B832" s="17"/>
+      <c r="B832" s="16"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24315,7 +24323,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
-      <c r="B833" s="17"/>
+      <c r="B833" s="16"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24343,7 +24351,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
-      <c r="B834" s="17"/>
+      <c r="B834" s="16"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24371,7 +24379,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
-      <c r="B835" s="17"/>
+      <c r="B835" s="16"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24399,7 +24407,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
-      <c r="B836" s="17"/>
+      <c r="B836" s="16"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24427,7 +24435,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
-      <c r="B837" s="17"/>
+      <c r="B837" s="16"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24455,7 +24463,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
-      <c r="B838" s="17"/>
+      <c r="B838" s="16"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24483,7 +24491,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
-      <c r="B839" s="17"/>
+      <c r="B839" s="16"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24511,7 +24519,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
-      <c r="B840" s="17"/>
+      <c r="B840" s="16"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24539,7 +24547,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
-      <c r="B841" s="17"/>
+      <c r="B841" s="16"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24567,7 +24575,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
-      <c r="B842" s="17"/>
+      <c r="B842" s="16"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24595,7 +24603,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
-      <c r="B843" s="17"/>
+      <c r="B843" s="16"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24623,7 +24631,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
-      <c r="B844" s="17"/>
+      <c r="B844" s="16"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24651,7 +24659,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
-      <c r="B845" s="17"/>
+      <c r="B845" s="16"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24679,7 +24687,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
-      <c r="B846" s="17"/>
+      <c r="B846" s="16"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24707,7 +24715,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
-      <c r="B847" s="17"/>
+      <c r="B847" s="16"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24735,7 +24743,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
-      <c r="B848" s="17"/>
+      <c r="B848" s="16"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24763,7 +24771,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
-      <c r="B849" s="17"/>
+      <c r="B849" s="16"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24791,7 +24799,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
-      <c r="B850" s="17"/>
+      <c r="B850" s="16"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24819,7 +24827,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
-      <c r="B851" s="17"/>
+      <c r="B851" s="16"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24847,7 +24855,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
-      <c r="B852" s="17"/>
+      <c r="B852" s="16"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24875,7 +24883,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
-      <c r="B853" s="17"/>
+      <c r="B853" s="16"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24903,7 +24911,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
-      <c r="B854" s="17"/>
+      <c r="B854" s="16"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -24931,7 +24939,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
-      <c r="B855" s="17"/>
+      <c r="B855" s="16"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -24959,7 +24967,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
-      <c r="B856" s="17"/>
+      <c r="B856" s="16"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -24987,7 +24995,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
-      <c r="B857" s="17"/>
+      <c r="B857" s="16"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -25015,7 +25023,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
-      <c r="B858" s="17"/>
+      <c r="B858" s="16"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -25043,7 +25051,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
-      <c r="B859" s="17"/>
+      <c r="B859" s="16"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -25071,7 +25079,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
-      <c r="B860" s="17"/>
+      <c r="B860" s="16"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -25099,7 +25107,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
-      <c r="B861" s="17"/>
+      <c r="B861" s="16"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -25127,7 +25135,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
-      <c r="B862" s="17"/>
+      <c r="B862" s="16"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -25155,7 +25163,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
-      <c r="B863" s="17"/>
+      <c r="B863" s="16"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -25183,7 +25191,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
-      <c r="B864" s="17"/>
+      <c r="B864" s="16"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -25211,7 +25219,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
-      <c r="B865" s="17"/>
+      <c r="B865" s="16"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25239,7 +25247,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
-      <c r="B866" s="17"/>
+      <c r="B866" s="16"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25267,7 +25275,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
-      <c r="B867" s="17"/>
+      <c r="B867" s="16"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25295,7 +25303,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
-      <c r="B868" s="17"/>
+      <c r="B868" s="16"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25323,7 +25331,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
-      <c r="B869" s="17"/>
+      <c r="B869" s="16"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25351,7 +25359,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
-      <c r="B870" s="17"/>
+      <c r="B870" s="16"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25379,7 +25387,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
-      <c r="B871" s="17"/>
+      <c r="B871" s="16"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25407,7 +25415,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
-      <c r="B872" s="17"/>
+      <c r="B872" s="16"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25435,7 +25443,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
-      <c r="B873" s="17"/>
+      <c r="B873" s="16"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25463,7 +25471,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
-      <c r="B874" s="17"/>
+      <c r="B874" s="16"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25491,7 +25499,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
-      <c r="B875" s="17"/>
+      <c r="B875" s="16"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25519,7 +25527,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
-      <c r="B876" s="17"/>
+      <c r="B876" s="16"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25547,7 +25555,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
-      <c r="B877" s="17"/>
+      <c r="B877" s="16"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25575,7 +25583,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
-      <c r="B878" s="17"/>
+      <c r="B878" s="16"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25603,7 +25611,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
-      <c r="B879" s="17"/>
+      <c r="B879" s="16"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25631,7 +25639,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
-      <c r="B880" s="17"/>
+      <c r="B880" s="16"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25659,7 +25667,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
-      <c r="B881" s="17"/>
+      <c r="B881" s="16"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25687,7 +25695,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
-      <c r="B882" s="17"/>
+      <c r="B882" s="16"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25715,7 +25723,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
-      <c r="B883" s="17"/>
+      <c r="B883" s="16"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25743,7 +25751,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
-      <c r="B884" s="17"/>
+      <c r="B884" s="16"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25771,7 +25779,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
-      <c r="B885" s="17"/>
+      <c r="B885" s="16"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25799,7 +25807,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
-      <c r="B886" s="17"/>
+      <c r="B886" s="16"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25827,7 +25835,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
-      <c r="B887" s="17"/>
+      <c r="B887" s="16"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25855,7 +25863,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
-      <c r="B888" s="17"/>
+      <c r="B888" s="16"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25883,7 +25891,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
-      <c r="B889" s="17"/>
+      <c r="B889" s="16"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25911,7 +25919,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
-      <c r="B890" s="17"/>
+      <c r="B890" s="16"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -25939,7 +25947,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
-      <c r="B891" s="17"/>
+      <c r="B891" s="16"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -25967,7 +25975,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
-      <c r="B892" s="17"/>
+      <c r="B892" s="16"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -25995,7 +26003,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
-      <c r="B893" s="17"/>
+      <c r="B893" s="16"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -26023,7 +26031,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
-      <c r="B894" s="17"/>
+      <c r="B894" s="16"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -26051,7 +26059,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
-      <c r="B895" s="17"/>
+      <c r="B895" s="16"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -26079,7 +26087,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
-      <c r="B896" s="17"/>
+      <c r="B896" s="16"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -26107,7 +26115,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
-      <c r="B897" s="17"/>
+      <c r="B897" s="16"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -26135,7 +26143,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
-      <c r="B898" s="17"/>
+      <c r="B898" s="16"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -26163,7 +26171,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
-      <c r="B899" s="17"/>
+      <c r="B899" s="16"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -26191,7 +26199,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
-      <c r="B900" s="17"/>
+      <c r="B900" s="16"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26219,7 +26227,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
-      <c r="B901" s="17"/>
+      <c r="B901" s="16"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26247,7 +26255,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
-      <c r="B902" s="17"/>
+      <c r="B902" s="16"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26275,7 +26283,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
-      <c r="B903" s="17"/>
+      <c r="B903" s="16"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26303,7 +26311,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
-      <c r="B904" s="17"/>
+      <c r="B904" s="16"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26331,7 +26339,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
-      <c r="B905" s="17"/>
+      <c r="B905" s="16"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26359,7 +26367,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
-      <c r="B906" s="17"/>
+      <c r="B906" s="16"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26387,7 +26395,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
-      <c r="B907" s="17"/>
+      <c r="B907" s="16"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26415,7 +26423,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
-      <c r="B908" s="17"/>
+      <c r="B908" s="16"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26443,7 +26451,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
-      <c r="B909" s="17"/>
+      <c r="B909" s="16"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26471,7 +26479,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
-      <c r="B910" s="17"/>
+      <c r="B910" s="16"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26499,7 +26507,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
-      <c r="B911" s="17"/>
+      <c r="B911" s="16"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26527,7 +26535,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
-      <c r="B912" s="17"/>
+      <c r="B912" s="16"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26555,7 +26563,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="B913" s="17"/>
+      <c r="B913" s="16"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26583,7 +26591,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
-      <c r="B914" s="17"/>
+      <c r="B914" s="16"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26611,7 +26619,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
-      <c r="B915" s="17"/>
+      <c r="B915" s="16"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26639,7 +26647,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
-      <c r="B916" s="17"/>
+      <c r="B916" s="16"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26667,7 +26675,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
-      <c r="B917" s="17"/>
+      <c r="B917" s="16"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26695,7 +26703,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
-      <c r="B918" s="17"/>
+      <c r="B918" s="16"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26723,7 +26731,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
-      <c r="B919" s="17"/>
+      <c r="B919" s="16"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26751,7 +26759,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
-      <c r="B920" s="17"/>
+      <c r="B920" s="16"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26779,7 +26787,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
-      <c r="B921" s="17"/>
+      <c r="B921" s="16"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26807,7 +26815,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
-      <c r="B922" s="17"/>
+      <c r="B922" s="16"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26835,7 +26843,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
-      <c r="B923" s="17"/>
+      <c r="B923" s="16"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26863,7 +26871,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
-      <c r="B924" s="17"/>
+      <c r="B924" s="16"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26891,7 +26899,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
-      <c r="B925" s="17"/>
+      <c r="B925" s="16"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -26919,7 +26927,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
-      <c r="B926" s="17"/>
+      <c r="B926" s="16"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -26947,7 +26955,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
-      <c r="B927" s="17"/>
+      <c r="B927" s="16"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -26975,7 +26983,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
-      <c r="B928" s="17"/>
+      <c r="B928" s="16"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -27003,7 +27011,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
-      <c r="B929" s="17"/>
+      <c r="B929" s="16"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -27031,7 +27039,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
-      <c r="B930" s="17"/>
+      <c r="B930" s="16"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -27059,7 +27067,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
-      <c r="B931" s="17"/>
+      <c r="B931" s="16"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -27087,7 +27095,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
-      <c r="B932" s="17"/>
+      <c r="B932" s="16"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -27115,7 +27123,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
-      <c r="B933" s="17"/>
+      <c r="B933" s="16"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -27143,7 +27151,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
-      <c r="B934" s="17"/>
+      <c r="B934" s="16"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -27171,7 +27179,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
-      <c r="B935" s="17"/>
+      <c r="B935" s="16"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -27199,7 +27207,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
-      <c r="B936" s="17"/>
+      <c r="B936" s="16"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27227,7 +27235,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
-      <c r="B937" s="17"/>
+      <c r="B937" s="16"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27255,7 +27263,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
-      <c r="B938" s="17"/>
+      <c r="B938" s="16"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27283,7 +27291,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
-      <c r="B939" s="17"/>
+      <c r="B939" s="16"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27311,7 +27319,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
-      <c r="B940" s="17"/>
+      <c r="B940" s="16"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27339,7 +27347,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
-      <c r="B941" s="17"/>
+      <c r="B941" s="16"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27367,7 +27375,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
-      <c r="B942" s="17"/>
+      <c r="B942" s="16"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27395,7 +27403,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
-      <c r="B943" s="17"/>
+      <c r="B943" s="16"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27423,7 +27431,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
-      <c r="B944" s="17"/>
+      <c r="B944" s="16"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27451,7 +27459,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
-      <c r="B945" s="17"/>
+      <c r="B945" s="16"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27479,7 +27487,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
-      <c r="B946" s="17"/>
+      <c r="B946" s="16"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27507,7 +27515,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
-      <c r="B947" s="17"/>
+      <c r="B947" s="16"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27535,7 +27543,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
-      <c r="B948" s="17"/>
+      <c r="B948" s="16"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27563,7 +27571,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
-      <c r="B949" s="17"/>
+      <c r="B949" s="16"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27591,7 +27599,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
-      <c r="B950" s="17"/>
+      <c r="B950" s="16"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27619,7 +27627,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
-      <c r="B951" s="17"/>
+      <c r="B951" s="16"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27647,7 +27655,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
-      <c r="B952" s="17"/>
+      <c r="B952" s="16"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27675,7 +27683,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
-      <c r="B953" s="17"/>
+      <c r="B953" s="16"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27703,7 +27711,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
-      <c r="B954" s="17"/>
+      <c r="B954" s="16"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27731,7 +27739,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
-      <c r="B955" s="17"/>
+      <c r="B955" s="16"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27759,7 +27767,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
-      <c r="B956" s="17"/>
+      <c r="B956" s="16"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27787,7 +27795,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
-      <c r="B957" s="17"/>
+      <c r="B957" s="16"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27815,7 +27823,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
-      <c r="B958" s="17"/>
+      <c r="B958" s="16"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27843,7 +27851,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
-      <c r="B959" s="17"/>
+      <c r="B959" s="16"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27871,7 +27879,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
-      <c r="B960" s="17"/>
+      <c r="B960" s="16"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27899,7 +27907,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
-      <c r="B961" s="17"/>
+      <c r="B961" s="16"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -27927,7 +27935,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
-      <c r="B962" s="17"/>
+      <c r="B962" s="16"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -27955,7 +27963,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
-      <c r="B963" s="17"/>
+      <c r="B963" s="16"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -27983,7 +27991,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
-      <c r="B964" s="17"/>
+      <c r="B964" s="16"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -28011,7 +28019,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
-      <c r="B965" s="17"/>
+      <c r="B965" s="16"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -28039,7 +28047,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
-      <c r="B966" s="17"/>
+      <c r="B966" s="16"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -28067,7 +28075,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
-      <c r="B967" s="17"/>
+      <c r="B967" s="16"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -28095,7 +28103,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
-      <c r="B968" s="17"/>
+      <c r="B968" s="16"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -28123,7 +28131,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
-      <c r="B969" s="17"/>
+      <c r="B969" s="16"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -28151,7 +28159,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
-      <c r="B970" s="17"/>
+      <c r="B970" s="16"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -28179,7 +28187,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
-      <c r="B971" s="17"/>
+      <c r="B971" s="16"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -28207,7 +28215,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
-      <c r="B972" s="17"/>
+      <c r="B972" s="16"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28235,7 +28243,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
-      <c r="B973" s="17"/>
+      <c r="B973" s="16"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28263,7 +28271,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
-      <c r="B974" s="17"/>
+      <c r="B974" s="16"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28291,7 +28299,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
-      <c r="B975" s="17"/>
+      <c r="B975" s="16"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28319,7 +28327,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
-      <c r="B976" s="17"/>
+      <c r="B976" s="16"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28347,7 +28355,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
-      <c r="B977" s="17"/>
+      <c r="B977" s="16"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28375,7 +28383,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
-      <c r="B978" s="17"/>
+      <c r="B978" s="16"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28403,7 +28411,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
-      <c r="B979" s="17"/>
+      <c r="B979" s="16"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28431,7 +28439,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
-      <c r="B980" s="17"/>
+      <c r="B980" s="16"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28459,7 +28467,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
-      <c r="B981" s="17"/>
+      <c r="B981" s="16"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28487,7 +28495,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
-      <c r="B982" s="17"/>
+      <c r="B982" s="16"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28515,7 +28523,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
-      <c r="B983" s="17"/>
+      <c r="B983" s="16"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28543,7 +28551,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
-      <c r="B984" s="17"/>
+      <c r="B984" s="16"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28571,7 +28579,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
-      <c r="B985" s="17"/>
+      <c r="B985" s="16"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28599,7 +28607,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
-      <c r="B986" s="17"/>
+      <c r="B986" s="16"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28627,7 +28635,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
-      <c r="B987" s="17"/>
+      <c r="B987" s="16"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28655,7 +28663,7 @@
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
-      <c r="B988" s="17"/>
+      <c r="B988" s="16"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -28683,7 +28691,7 @@
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
-      <c r="B989" s="17"/>
+      <c r="B989" s="16"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -28711,7 +28719,7 @@
     </row>
     <row r="990" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
-      <c r="B990" s="17"/>
+      <c r="B990" s="16"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
@@ -28739,7 +28747,7 @@
     </row>
     <row r="991" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
-      <c r="B991" s="17"/>
+      <c r="B991" s="16"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
@@ -28767,7 +28775,7 @@
     </row>
     <row r="992" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
-      <c r="B992" s="17"/>
+      <c r="B992" s="16"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
@@ -28795,7 +28803,7 @@
     </row>
     <row r="993" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
-      <c r="B993" s="17"/>
+      <c r="B993" s="16"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
@@ -28823,7 +28831,7 @@
     </row>
     <row r="994" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
-      <c r="B994" s="17"/>
+      <c r="B994" s="16"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
@@ -28851,7 +28859,7 @@
     </row>
     <row r="995" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
-      <c r="B995" s="17"/>
+      <c r="B995" s="16"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
@@ -28879,7 +28887,7 @@
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
-      <c r="B996" s="17"/>
+      <c r="B996" s="16"/>
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
@@ -28967,6 +28975,7 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1BA014-A62B-4A60-B3E3-D112EAEC3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CA1D36-FBAA-4C2B-8816-F89C97E7898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -78,34 +78,10 @@
     <t>Xác định các yêu cầu về dữ liệu</t>
   </si>
   <si>
-    <t>Vẽ biểu đồ thực thể liên kết mức logic</t>
-  </si>
-  <si>
     <t>Thiết kế các bảng</t>
   </si>
   <si>
-    <t>Vẽ biểu đồ thực thể liên kết mức vật lý</t>
-  </si>
-  <si>
     <t>Tổng hợp và viết báo cáo chương 3</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem sách theo thể loại, bảo trì sách,vẽ biểu đồ cho các lớp entity của hệ thống.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem sách theo xu hướng,bảo trì xu hướng, vẽ biểu đồ các lớp phân tích cho nhóm usecase chính và usecase thứ cấp.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 4</t>
   </si>
   <si>
     <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem Flashsale, bảo trì Flashsale.</t>
@@ -121,9 +97,6 @@
   </si>
   <si>
     <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 5</t>
   </si>
   <si>
     <t>Viết báo cáo bài tập lớn</t>
@@ -188,12 +161,18 @@
   <si>
     <t>31/10/2025</t>
   </si>
+  <si>
+    <t>Vẽ biểu đồ UML</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ tuần tự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -251,6 +230,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,6 +269,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,9 +324,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -346,6 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,8 +353,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,16 +574,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="16" customWidth="1"/>
     <col min="3" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="26" width="14.44140625" customWidth="1"/>
@@ -622,7 +621,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -652,7 +651,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -682,7 +681,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -712,7 +711,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -744,7 +743,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -790,7 +789,7 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
@@ -809,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
@@ -836,7 +835,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7">
@@ -855,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -882,7 +881,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7">
@@ -901,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -928,8 +927,8 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>41</v>
+      <c r="B10" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="9">
         <v>45566</v>
@@ -973,8 +972,8 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>42</v>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="9">
         <v>45573</v>
@@ -992,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>11</v>
@@ -1018,8 +1017,8 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>47</v>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="9">
         <v>45573</v>
@@ -1037,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>11</v>
@@ -1063,8 +1062,8 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>46</v>
+      <c r="B13" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="9">
         <v>45573</v>
@@ -1082,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
@@ -1109,8 +1108,8 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>48</v>
+      <c r="B14" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="9">
         <v>45573</v>
@@ -1128,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
@@ -1155,7 +1154,7 @@
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="9">
@@ -1168,15 +1167,15 @@
         <v>45596</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="1"/>
@@ -1197,12 +1196,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>49</v>
+      <c r="B16" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="9">
         <v>45581</v>
@@ -1214,15 +1213,15 @@
         <v>45597</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="1"/>
@@ -1243,28 +1242,34 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>17</v>
+      <c r="B17" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="D17" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="E17" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
       <c r="F17" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="10"/>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1283,28 +1288,34 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>19</v>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="D18" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="E18" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
       <c r="F18" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1327,24 +1338,30 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>18</v>
+      <c r="B19" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="D19" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="E19" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
       <c r="F19" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1367,24 +1384,30 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
+      <c r="B20" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="D20" s="9">
-        <v>45573</v>
+        <v>45595</v>
       </c>
       <c r="E20" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
       <c r="F20" s="9">
-        <v>45579</v>
+        <v>45615</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="10"/>
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1407,7 +1430,7 @@
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9">
@@ -1443,12 +1466,12 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="9">
         <v>45573</v>
@@ -1483,12 +1506,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>21</v>
+      <c r="B23" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="9">
         <v>45573</v>
@@ -1523,12 +1546,12 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>22</v>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="9">
         <v>45573</v>
@@ -1563,12 +1586,12 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>23</v>
+      <c r="B25" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="9">
         <v>45573</v>
@@ -1603,12 +1626,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>24</v>
+      <c r="B26" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="9">
         <v>45573</v>
@@ -1643,12 +1666,12 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>25</v>
+      <c r="B27" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C27" s="9">
         <v>45573</v>
@@ -1683,12 +1706,12 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>26</v>
+      <c r="B28" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="9">
         <v>45573</v>
@@ -1703,8 +1726,10 @@
         <v>45579</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1723,28 +1748,16 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>23</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D29" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E29" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F29" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1763,28 +1776,16 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>24</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D30" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E30" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F30" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1803,28 +1804,16 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>25</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D31" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E31" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F31" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1843,28 +1832,16 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>26</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D32" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E32" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F32" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1883,28 +1860,16 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>27</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D33" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E33" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F33" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1923,28 +1888,16 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>28</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D34" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E34" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F34" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1963,30 +1916,16 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>29</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D35" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E35" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F35" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="6"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6878,16 +6817,16 @@
       <c r="Z209" s="1"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -6906,16 +6845,16 @@
       <c r="Z210" s="1"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
@@ -6934,16 +6873,16 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -6962,120 +6901,120 @@
       <c r="Z212" s="1"/>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
-      <c r="Y213" s="1"/>
-      <c r="Z213" s="1"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+      <c r="X213" s="4"/>
+      <c r="Y213" s="4"/>
+      <c r="Z213" s="4"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="U214" s="1"/>
-      <c r="V214" s="1"/>
-      <c r="W214" s="1"/>
-      <c r="X214" s="1"/>
-      <c r="Y214" s="1"/>
-      <c r="Z214" s="1"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+      <c r="X214" s="4"/>
+      <c r="Y214" s="4"/>
+      <c r="Z214" s="4"/>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="1"/>
-      <c r="Z215" s="1"/>
+      <c r="A215" s="4"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+      <c r="X215" s="4"/>
+      <c r="Y215" s="4"/>
+      <c r="Z215" s="4"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="1"/>
-      <c r="Z216" s="1"/>
+      <c r="A216" s="4"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7084,26 +7023,26 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="1"/>
-      <c r="Z217" s="1"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7112,26 +7051,26 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
-      <c r="Y218" s="1"/>
-      <c r="Z218" s="1"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7140,26 +7079,26 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
-      <c r="V219" s="1"/>
-      <c r="W219" s="1"/>
-      <c r="X219" s="1"/>
-      <c r="Y219" s="1"/>
-      <c r="Z219" s="1"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="4"/>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7187,7 +7126,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7215,7 +7154,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7243,7 +7182,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7271,7 +7210,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7299,7 +7238,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7327,7 +7266,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7355,7 +7294,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7383,7 +7322,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7411,7 +7350,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7439,7 +7378,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7467,7 +7406,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7495,7 +7434,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7523,7 +7462,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7551,7 +7490,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7579,7 +7518,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7607,7 +7546,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7635,7 +7574,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7663,7 +7602,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7691,7 +7630,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7719,7 +7658,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7747,7 +7686,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7775,7 +7714,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7803,7 +7742,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7831,7 +7770,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7859,7 +7798,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7887,7 +7826,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7915,7 +7854,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7943,7 +7882,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7971,7 +7910,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7999,7 +7938,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -8027,7 +7966,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -8055,7 +7994,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -8083,7 +8022,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -8111,7 +8050,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -8139,7 +8078,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -8167,7 +8106,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8195,7 +8134,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8223,7 +8162,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8251,7 +8190,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8279,7 +8218,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8307,7 +8246,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8335,7 +8274,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8363,7 +8302,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8391,7 +8330,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8419,7 +8358,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8447,7 +8386,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8475,7 +8414,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="16"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8503,7 +8442,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="16"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8531,7 +8470,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="16"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8559,7 +8498,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="16"/>
+      <c r="B270" s="15"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8587,7 +8526,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="16"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8615,7 +8554,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="16"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8643,7 +8582,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="16"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8671,7 +8610,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="B274" s="16"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8699,7 +8638,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8727,7 +8666,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="B276" s="16"/>
+      <c r="B276" s="15"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8755,7 +8694,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="B277" s="16"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8783,7 +8722,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="B278" s="16"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8811,7 +8750,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="B279" s="16"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8839,7 +8778,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="B280" s="16"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8867,7 +8806,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="B281" s="16"/>
+      <c r="B281" s="15"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8895,7 +8834,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="B282" s="16"/>
+      <c r="B282" s="15"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8923,7 +8862,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="B283" s="16"/>
+      <c r="B283" s="15"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8951,7 +8890,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="16"/>
+      <c r="B284" s="15"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8979,7 +8918,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="16"/>
+      <c r="B285" s="15"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -9007,7 +8946,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="16"/>
+      <c r="B286" s="15"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -9035,7 +8974,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="B287" s="16"/>
+      <c r="B287" s="15"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -9063,7 +9002,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="B288" s="16"/>
+      <c r="B288" s="15"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -9091,7 +9030,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="B289" s="16"/>
+      <c r="B289" s="15"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -9119,7 +9058,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="B290" s="16"/>
+      <c r="B290" s="15"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -9147,7 +9086,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="B291" s="16"/>
+      <c r="B291" s="15"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -9175,7 +9114,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="B292" s="16"/>
+      <c r="B292" s="15"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -9203,7 +9142,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="B293" s="16"/>
+      <c r="B293" s="15"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9231,7 +9170,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="16"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9259,7 +9198,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="16"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9287,7 +9226,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="16"/>
+      <c r="B296" s="15"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9315,7 +9254,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="16"/>
+      <c r="B297" s="15"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9343,7 +9282,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="B298" s="16"/>
+      <c r="B298" s="15"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9371,7 +9310,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="B299" s="16"/>
+      <c r="B299" s="15"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9399,7 +9338,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="B300" s="16"/>
+      <c r="B300" s="15"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9427,7 +9366,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="B301" s="16"/>
+      <c r="B301" s="15"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9455,7 +9394,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="B302" s="16"/>
+      <c r="B302" s="15"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9483,7 +9422,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="B303" s="16"/>
+      <c r="B303" s="15"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9511,7 +9450,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="16"/>
+      <c r="B304" s="15"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9539,7 +9478,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="16"/>
+      <c r="B305" s="15"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9567,7 +9506,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="16"/>
+      <c r="B306" s="15"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9595,7 +9534,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="B307" s="16"/>
+      <c r="B307" s="15"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9623,7 +9562,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="B308" s="16"/>
+      <c r="B308" s="15"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9651,7 +9590,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="16"/>
+      <c r="B309" s="15"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9679,7 +9618,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="16"/>
+      <c r="B310" s="15"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9707,7 +9646,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="16"/>
+      <c r="B311" s="15"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9735,7 +9674,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="16"/>
+      <c r="B312" s="15"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9763,7 +9702,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="16"/>
+      <c r="B313" s="15"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9791,7 +9730,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="16"/>
+      <c r="B314" s="15"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9819,7 +9758,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="16"/>
+      <c r="B315" s="15"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9847,7 +9786,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="16"/>
+      <c r="B316" s="15"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9875,7 +9814,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="16"/>
+      <c r="B317" s="15"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9903,7 +9842,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="16"/>
+      <c r="B318" s="15"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9931,7 +9870,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="16"/>
+      <c r="B319" s="15"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9959,7 +9898,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="B320" s="16"/>
+      <c r="B320" s="15"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9987,7 +9926,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="16"/>
+      <c r="B321" s="15"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -10015,7 +9954,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="16"/>
+      <c r="B322" s="15"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -10043,7 +9982,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="16"/>
+      <c r="B323" s="15"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -10071,7 +10010,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="B324" s="16"/>
+      <c r="B324" s="15"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -10099,7 +10038,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="B325" s="16"/>
+      <c r="B325" s="15"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -10127,7 +10066,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="B326" s="16"/>
+      <c r="B326" s="15"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -10155,7 +10094,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="B327" s="16"/>
+      <c r="B327" s="15"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -10183,7 +10122,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="B328" s="16"/>
+      <c r="B328" s="15"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -10211,7 +10150,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="B329" s="16"/>
+      <c r="B329" s="15"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10239,7 +10178,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="B330" s="16"/>
+      <c r="B330" s="15"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10267,7 +10206,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="B331" s="16"/>
+      <c r="B331" s="15"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10295,7 +10234,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="B332" s="16"/>
+      <c r="B332" s="15"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10323,7 +10262,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="B333" s="16"/>
+      <c r="B333" s="15"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10351,7 +10290,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="B334" s="16"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10379,7 +10318,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="B335" s="16"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10407,7 +10346,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="B336" s="16"/>
+      <c r="B336" s="15"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10435,7 +10374,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="B337" s="16"/>
+      <c r="B337" s="15"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10463,7 +10402,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="B338" s="16"/>
+      <c r="B338" s="15"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10491,7 +10430,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="16"/>
+      <c r="B339" s="15"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10519,7 +10458,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="16"/>
+      <c r="B340" s="15"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10547,7 +10486,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="16"/>
+      <c r="B341" s="15"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10575,7 +10514,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="B342" s="16"/>
+      <c r="B342" s="15"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10603,7 +10542,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="16"/>
+      <c r="B343" s="15"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10631,7 +10570,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="16"/>
+      <c r="B344" s="15"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10659,7 +10598,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="16"/>
+      <c r="B345" s="15"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10687,7 +10626,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="16"/>
+      <c r="B346" s="15"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10715,7 +10654,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="16"/>
+      <c r="B347" s="15"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10743,7 +10682,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="16"/>
+      <c r="B348" s="15"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10771,7 +10710,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="16"/>
+      <c r="B349" s="15"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10799,7 +10738,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="16"/>
+      <c r="B350" s="15"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10827,7 +10766,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="16"/>
+      <c r="B351" s="15"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10855,7 +10794,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="16"/>
+      <c r="B352" s="15"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10883,7 +10822,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="16"/>
+      <c r="B353" s="15"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10911,7 +10850,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="16"/>
+      <c r="B354" s="15"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10939,7 +10878,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="16"/>
+      <c r="B355" s="15"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10967,7 +10906,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="16"/>
+      <c r="B356" s="15"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10995,7 +10934,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="16"/>
+      <c r="B357" s="15"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -11023,7 +10962,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="16"/>
+      <c r="B358" s="15"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11051,7 +10990,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="16"/>
+      <c r="B359" s="15"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -11079,7 +11018,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="16"/>
+      <c r="B360" s="15"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -11107,7 +11046,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="16"/>
+      <c r="B361" s="15"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -11135,7 +11074,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="16"/>
+      <c r="B362" s="15"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -11163,7 +11102,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="16"/>
+      <c r="B363" s="15"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11191,7 +11130,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="16"/>
+      <c r="B364" s="15"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11219,7 +11158,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="16"/>
+      <c r="B365" s="15"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11247,7 +11186,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="16"/>
+      <c r="B366" s="15"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11275,7 +11214,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="B367" s="16"/>
+      <c r="B367" s="15"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11303,7 +11242,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="B368" s="16"/>
+      <c r="B368" s="15"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11331,7 +11270,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="B369" s="16"/>
+      <c r="B369" s="15"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11359,7 +11298,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="B370" s="16"/>
+      <c r="B370" s="15"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11387,7 +11326,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="B371" s="16"/>
+      <c r="B371" s="15"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11415,7 +11354,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="B372" s="16"/>
+      <c r="B372" s="15"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11443,7 +11382,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="B373" s="16"/>
+      <c r="B373" s="15"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11471,7 +11410,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="B374" s="16"/>
+      <c r="B374" s="15"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11499,7 +11438,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="16"/>
+      <c r="B375" s="15"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11527,7 +11466,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="16"/>
+      <c r="B376" s="15"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11555,7 +11494,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="16"/>
+      <c r="B377" s="15"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11583,7 +11522,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="16"/>
+      <c r="B378" s="15"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11611,7 +11550,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="16"/>
+      <c r="B379" s="15"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11639,7 +11578,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="16"/>
+      <c r="B380" s="15"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11667,7 +11606,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="16"/>
+      <c r="B381" s="15"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11695,7 +11634,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="16"/>
+      <c r="B382" s="15"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11723,7 +11662,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="16"/>
+      <c r="B383" s="15"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11751,7 +11690,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="16"/>
+      <c r="B384" s="15"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11779,7 +11718,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="16"/>
+      <c r="B385" s="15"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11807,7 +11746,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="16"/>
+      <c r="B386" s="15"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11835,7 +11774,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="16"/>
+      <c r="B387" s="15"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11863,7 +11802,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="16"/>
+      <c r="B388" s="15"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11891,7 +11830,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="16"/>
+      <c r="B389" s="15"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11919,7 +11858,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="16"/>
+      <c r="B390" s="15"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -11947,7 +11886,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="16"/>
+      <c r="B391" s="15"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -11975,7 +11914,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="16"/>
+      <c r="B392" s="15"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -12003,7 +11942,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="16"/>
+      <c r="B393" s="15"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -12031,7 +11970,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="16"/>
+      <c r="B394" s="15"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -12059,7 +11998,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="16"/>
+      <c r="B395" s="15"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -12087,7 +12026,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="16"/>
+      <c r="B396" s="15"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -12115,7 +12054,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="16"/>
+      <c r="B397" s="15"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -12143,7 +12082,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="16"/>
+      <c r="B398" s="15"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -12171,7 +12110,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="16"/>
+      <c r="B399" s="15"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12199,7 +12138,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="16"/>
+      <c r="B400" s="15"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12227,7 +12166,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="16"/>
+      <c r="B401" s="15"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12255,7 +12194,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="16"/>
+      <c r="B402" s="15"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12283,7 +12222,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="16"/>
+      <c r="B403" s="15"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12311,7 +12250,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="16"/>
+      <c r="B404" s="15"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12339,7 +12278,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="16"/>
+      <c r="B405" s="15"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12367,7 +12306,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="16"/>
+      <c r="B406" s="15"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12395,7 +12334,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="16"/>
+      <c r="B407" s="15"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12423,7 +12362,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="16"/>
+      <c r="B408" s="15"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12451,7 +12390,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="16"/>
+      <c r="B409" s="15"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12479,7 +12418,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="16"/>
+      <c r="B410" s="15"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12507,7 +12446,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="16"/>
+      <c r="B411" s="15"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12535,7 +12474,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="B412" s="16"/>
+      <c r="B412" s="15"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12563,7 +12502,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="16"/>
+      <c r="B413" s="15"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12591,7 +12530,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="B414" s="16"/>
+      <c r="B414" s="15"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12619,7 +12558,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="16"/>
+      <c r="B415" s="15"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12647,7 +12586,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="B416" s="16"/>
+      <c r="B416" s="15"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12675,7 +12614,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="B417" s="16"/>
+      <c r="B417" s="15"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12703,7 +12642,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="16"/>
+      <c r="B418" s="15"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12731,7 +12670,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="16"/>
+      <c r="B419" s="15"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12759,7 +12698,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="16"/>
+      <c r="B420" s="15"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12787,7 +12726,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="16"/>
+      <c r="B421" s="15"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12815,7 +12754,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="16"/>
+      <c r="B422" s="15"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12843,7 +12782,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="16"/>
+      <c r="B423" s="15"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12871,7 +12810,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="16"/>
+      <c r="B424" s="15"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12899,7 +12838,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="16"/>
+      <c r="B425" s="15"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -12927,7 +12866,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="16"/>
+      <c r="B426" s="15"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -12955,7 +12894,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="16"/>
+      <c r="B427" s="15"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -12983,7 +12922,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="16"/>
+      <c r="B428" s="15"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -13011,7 +12950,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="16"/>
+      <c r="B429" s="15"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -13039,7 +12978,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="16"/>
+      <c r="B430" s="15"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -13067,7 +13006,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="16"/>
+      <c r="B431" s="15"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -13095,7 +13034,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="16"/>
+      <c r="B432" s="15"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -13123,7 +13062,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="16"/>
+      <c r="B433" s="15"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -13151,7 +13090,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="16"/>
+      <c r="B434" s="15"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -13179,7 +13118,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="16"/>
+      <c r="B435" s="15"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13207,7 +13146,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="16"/>
+      <c r="B436" s="15"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13235,7 +13174,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="16"/>
+      <c r="B437" s="15"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13263,7 +13202,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="16"/>
+      <c r="B438" s="15"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13291,7 +13230,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="16"/>
+      <c r="B439" s="15"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13319,7 +13258,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="16"/>
+      <c r="B440" s="15"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13347,7 +13286,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="16"/>
+      <c r="B441" s="15"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13375,7 +13314,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="16"/>
+      <c r="B442" s="15"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13403,7 +13342,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="16"/>
+      <c r="B443" s="15"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13431,7 +13370,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="16"/>
+      <c r="B444" s="15"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13459,7 +13398,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="16"/>
+      <c r="B445" s="15"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13487,7 +13426,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="16"/>
+      <c r="B446" s="15"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13515,7 +13454,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="16"/>
+      <c r="B447" s="15"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13543,7 +13482,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="16"/>
+      <c r="B448" s="15"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13571,7 +13510,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="16"/>
+      <c r="B449" s="15"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13599,7 +13538,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="16"/>
+      <c r="B450" s="15"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13627,7 +13566,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="16"/>
+      <c r="B451" s="15"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13655,7 +13594,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="16"/>
+      <c r="B452" s="15"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13683,7 +13622,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="16"/>
+      <c r="B453" s="15"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13711,7 +13650,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="16"/>
+      <c r="B454" s="15"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13739,7 +13678,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="16"/>
+      <c r="B455" s="15"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13767,7 +13706,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="16"/>
+      <c r="B456" s="15"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13795,7 +13734,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="16"/>
+      <c r="B457" s="15"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13823,7 +13762,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="16"/>
+      <c r="B458" s="15"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13851,7 +13790,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="16"/>
+      <c r="B459" s="15"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13879,7 +13818,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="16"/>
+      <c r="B460" s="15"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13907,7 +13846,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="16"/>
+      <c r="B461" s="15"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -13935,7 +13874,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="16"/>
+      <c r="B462" s="15"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -13963,7 +13902,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="16"/>
+      <c r="B463" s="15"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -13991,7 +13930,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="16"/>
+      <c r="B464" s="15"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -14019,7 +13958,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="16"/>
+      <c r="B465" s="15"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -14047,7 +13986,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="16"/>
+      <c r="B466" s="15"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -14075,7 +14014,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="16"/>
+      <c r="B467" s="15"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -14103,7 +14042,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="16"/>
+      <c r="B468" s="15"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -14131,7 +14070,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="16"/>
+      <c r="B469" s="15"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -14159,7 +14098,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="16"/>
+      <c r="B470" s="15"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14187,7 +14126,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="16"/>
+      <c r="B471" s="15"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14215,7 +14154,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="16"/>
+      <c r="B472" s="15"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14243,7 +14182,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="16"/>
+      <c r="B473" s="15"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14271,7 +14210,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="16"/>
+      <c r="B474" s="15"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14299,7 +14238,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="16"/>
+      <c r="B475" s="15"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14327,7 +14266,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="16"/>
+      <c r="B476" s="15"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14355,7 +14294,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="16"/>
+      <c r="B477" s="15"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14383,7 +14322,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="16"/>
+      <c r="B478" s="15"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14411,7 +14350,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="16"/>
+      <c r="B479" s="15"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14439,7 +14378,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="16"/>
+      <c r="B480" s="15"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14467,7 +14406,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="16"/>
+      <c r="B481" s="15"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14495,7 +14434,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="16"/>
+      <c r="B482" s="15"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14523,7 +14462,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="16"/>
+      <c r="B483" s="15"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14551,7 +14490,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="B484" s="16"/>
+      <c r="B484" s="15"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14579,7 +14518,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="B485" s="16"/>
+      <c r="B485" s="15"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14607,7 +14546,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="B486" s="16"/>
+      <c r="B486" s="15"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14635,7 +14574,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="B487" s="16"/>
+      <c r="B487" s="15"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14663,7 +14602,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="B488" s="16"/>
+      <c r="B488" s="15"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14691,7 +14630,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="B489" s="16"/>
+      <c r="B489" s="15"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14719,7 +14658,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="B490" s="16"/>
+      <c r="B490" s="15"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14747,7 +14686,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="B491" s="16"/>
+      <c r="B491" s="15"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14775,7 +14714,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="B492" s="16"/>
+      <c r="B492" s="15"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14803,7 +14742,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="B493" s="16"/>
+      <c r="B493" s="15"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14831,7 +14770,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="B494" s="16"/>
+      <c r="B494" s="15"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14859,7 +14798,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="B495" s="16"/>
+      <c r="B495" s="15"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14887,7 +14826,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="B496" s="16"/>
+      <c r="B496" s="15"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14915,7 +14854,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="B497" s="16"/>
+      <c r="B497" s="15"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14943,7 +14882,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="B498" s="16"/>
+      <c r="B498" s="15"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14971,7 +14910,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="B499" s="16"/>
+      <c r="B499" s="15"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14999,7 +14938,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="B500" s="16"/>
+      <c r="B500" s="15"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -15027,7 +14966,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="B501" s="16"/>
+      <c r="B501" s="15"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -15055,7 +14994,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="B502" s="16"/>
+      <c r="B502" s="15"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -15083,7 +15022,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="B503" s="16"/>
+      <c r="B503" s="15"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -15111,7 +15050,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="B504" s="16"/>
+      <c r="B504" s="15"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -15139,7 +15078,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="B505" s="16"/>
+      <c r="B505" s="15"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -15167,7 +15106,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="B506" s="16"/>
+      <c r="B506" s="15"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15195,7 +15134,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="B507" s="16"/>
+      <c r="B507" s="15"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15223,7 +15162,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="B508" s="16"/>
+      <c r="B508" s="15"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15251,7 +15190,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="B509" s="16"/>
+      <c r="B509" s="15"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15279,7 +15218,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="B510" s="16"/>
+      <c r="B510" s="15"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15307,7 +15246,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="B511" s="16"/>
+      <c r="B511" s="15"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15335,7 +15274,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="B512" s="16"/>
+      <c r="B512" s="15"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15363,7 +15302,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="B513" s="16"/>
+      <c r="B513" s="15"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15391,7 +15330,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="B514" s="16"/>
+      <c r="B514" s="15"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15419,7 +15358,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="B515" s="16"/>
+      <c r="B515" s="15"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15447,7 +15386,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="B516" s="16"/>
+      <c r="B516" s="15"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15475,7 +15414,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="B517" s="16"/>
+      <c r="B517" s="15"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15503,7 +15442,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="B518" s="16"/>
+      <c r="B518" s="15"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15531,7 +15470,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="B519" s="16"/>
+      <c r="B519" s="15"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15559,7 +15498,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="B520" s="16"/>
+      <c r="B520" s="15"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15587,7 +15526,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="B521" s="16"/>
+      <c r="B521" s="15"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15615,7 +15554,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="B522" s="16"/>
+      <c r="B522" s="15"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15643,7 +15582,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="B523" s="16"/>
+      <c r="B523" s="15"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15671,7 +15610,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="B524" s="16"/>
+      <c r="B524" s="15"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15699,7 +15638,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="B525" s="16"/>
+      <c r="B525" s="15"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15727,7 +15666,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="B526" s="16"/>
+      <c r="B526" s="15"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15755,7 +15694,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="B527" s="16"/>
+      <c r="B527" s="15"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15783,7 +15722,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="B528" s="16"/>
+      <c r="B528" s="15"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15811,7 +15750,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
-      <c r="B529" s="16"/>
+      <c r="B529" s="15"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15839,7 +15778,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
-      <c r="B530" s="16"/>
+      <c r="B530" s="15"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15867,7 +15806,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
-      <c r="B531" s="16"/>
+      <c r="B531" s="15"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15895,7 +15834,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
-      <c r="B532" s="16"/>
+      <c r="B532" s="15"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15923,7 +15862,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
-      <c r="B533" s="16"/>
+      <c r="B533" s="15"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15951,7 +15890,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
-      <c r="B534" s="16"/>
+      <c r="B534" s="15"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15979,7 +15918,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
-      <c r="B535" s="16"/>
+      <c r="B535" s="15"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -16007,7 +15946,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
-      <c r="B536" s="16"/>
+      <c r="B536" s="15"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -16035,7 +15974,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
-      <c r="B537" s="16"/>
+      <c r="B537" s="15"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -16063,7 +16002,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
-      <c r="B538" s="16"/>
+      <c r="B538" s="15"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -16091,7 +16030,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
-      <c r="B539" s="16"/>
+      <c r="B539" s="15"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -16119,7 +16058,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
-      <c r="B540" s="16"/>
+      <c r="B540" s="15"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -16147,7 +16086,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
-      <c r="B541" s="16"/>
+      <c r="B541" s="15"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -16175,7 +16114,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
-      <c r="B542" s="16"/>
+      <c r="B542" s="15"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -16203,7 +16142,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
-      <c r="B543" s="16"/>
+      <c r="B543" s="15"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16231,7 +16170,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
-      <c r="B544" s="16"/>
+      <c r="B544" s="15"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16259,7 +16198,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
-      <c r="B545" s="16"/>
+      <c r="B545" s="15"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16287,7 +16226,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
-      <c r="B546" s="16"/>
+      <c r="B546" s="15"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16315,7 +16254,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
-      <c r="B547" s="16"/>
+      <c r="B547" s="15"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16343,7 +16282,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
-      <c r="B548" s="16"/>
+      <c r="B548" s="15"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16371,7 +16310,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
-      <c r="B549" s="16"/>
+      <c r="B549" s="15"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16399,7 +16338,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
-      <c r="B550" s="16"/>
+      <c r="B550" s="15"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16427,7 +16366,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
-      <c r="B551" s="16"/>
+      <c r="B551" s="15"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16455,7 +16394,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
-      <c r="B552" s="16"/>
+      <c r="B552" s="15"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16483,7 +16422,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
-      <c r="B553" s="16"/>
+      <c r="B553" s="15"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16511,7 +16450,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
-      <c r="B554" s="16"/>
+      <c r="B554" s="15"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16539,7 +16478,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
-      <c r="B555" s="16"/>
+      <c r="B555" s="15"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16567,7 +16506,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
-      <c r="B556" s="16"/>
+      <c r="B556" s="15"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16595,7 +16534,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
-      <c r="B557" s="16"/>
+      <c r="B557" s="15"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16623,7 +16562,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
-      <c r="B558" s="16"/>
+      <c r="B558" s="15"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16651,7 +16590,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
-      <c r="B559" s="16"/>
+      <c r="B559" s="15"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16679,7 +16618,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
-      <c r="B560" s="16"/>
+      <c r="B560" s="15"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16707,7 +16646,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
-      <c r="B561" s="16"/>
+      <c r="B561" s="15"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16735,7 +16674,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
-      <c r="B562" s="16"/>
+      <c r="B562" s="15"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16763,7 +16702,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
-      <c r="B563" s="16"/>
+      <c r="B563" s="15"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16791,7 +16730,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
-      <c r="B564" s="16"/>
+      <c r="B564" s="15"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16819,7 +16758,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
-      <c r="B565" s="16"/>
+      <c r="B565" s="15"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16847,7 +16786,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
-      <c r="B566" s="16"/>
+      <c r="B566" s="15"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16875,7 +16814,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
-      <c r="B567" s="16"/>
+      <c r="B567" s="15"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16903,7 +16842,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
-      <c r="B568" s="16"/>
+      <c r="B568" s="15"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -16931,7 +16870,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
-      <c r="B569" s="16"/>
+      <c r="B569" s="15"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -16959,7 +16898,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
-      <c r="B570" s="16"/>
+      <c r="B570" s="15"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -16987,7 +16926,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
-      <c r="B571" s="16"/>
+      <c r="B571" s="15"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -17015,7 +16954,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
-      <c r="B572" s="16"/>
+      <c r="B572" s="15"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -17043,7 +16982,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
-      <c r="B573" s="16"/>
+      <c r="B573" s="15"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -17071,7 +17010,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
-      <c r="B574" s="16"/>
+      <c r="B574" s="15"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -17099,7 +17038,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
-      <c r="B575" s="16"/>
+      <c r="B575" s="15"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -17127,7 +17066,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
-      <c r="B576" s="16"/>
+      <c r="B576" s="15"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -17155,7 +17094,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
-      <c r="B577" s="16"/>
+      <c r="B577" s="15"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -17183,7 +17122,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
-      <c r="B578" s="16"/>
+      <c r="B578" s="15"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -17211,7 +17150,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
-      <c r="B579" s="16"/>
+      <c r="B579" s="15"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17239,7 +17178,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
-      <c r="B580" s="16"/>
+      <c r="B580" s="15"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17267,7 +17206,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
-      <c r="B581" s="16"/>
+      <c r="B581" s="15"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17295,7 +17234,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
-      <c r="B582" s="16"/>
+      <c r="B582" s="15"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17323,7 +17262,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
-      <c r="B583" s="16"/>
+      <c r="B583" s="15"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17351,7 +17290,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
-      <c r="B584" s="16"/>
+      <c r="B584" s="15"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17379,7 +17318,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
-      <c r="B585" s="16"/>
+      <c r="B585" s="15"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17407,7 +17346,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
-      <c r="B586" s="16"/>
+      <c r="B586" s="15"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17435,7 +17374,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
-      <c r="B587" s="16"/>
+      <c r="B587" s="15"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17463,7 +17402,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
-      <c r="B588" s="16"/>
+      <c r="B588" s="15"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17491,7 +17430,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
-      <c r="B589" s="16"/>
+      <c r="B589" s="15"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17519,7 +17458,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
-      <c r="B590" s="16"/>
+      <c r="B590" s="15"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17547,7 +17486,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
-      <c r="B591" s="16"/>
+      <c r="B591" s="15"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17575,7 +17514,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
-      <c r="B592" s="16"/>
+      <c r="B592" s="15"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17603,7 +17542,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
-      <c r="B593" s="16"/>
+      <c r="B593" s="15"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17631,7 +17570,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
-      <c r="B594" s="16"/>
+      <c r="B594" s="15"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17659,7 +17598,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
-      <c r="B595" s="16"/>
+      <c r="B595" s="15"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17687,7 +17626,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
-      <c r="B596" s="16"/>
+      <c r="B596" s="15"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17715,7 +17654,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
-      <c r="B597" s="16"/>
+      <c r="B597" s="15"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17743,7 +17682,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
-      <c r="B598" s="16"/>
+      <c r="B598" s="15"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17771,7 +17710,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
-      <c r="B599" s="16"/>
+      <c r="B599" s="15"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17799,7 +17738,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
-      <c r="B600" s="16"/>
+      <c r="B600" s="15"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17827,7 +17766,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
-      <c r="B601" s="16"/>
+      <c r="B601" s="15"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17855,7 +17794,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
-      <c r="B602" s="16"/>
+      <c r="B602" s="15"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17883,7 +17822,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
-      <c r="B603" s="16"/>
+      <c r="B603" s="15"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17911,7 +17850,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
-      <c r="B604" s="16"/>
+      <c r="B604" s="15"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -17939,7 +17878,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
-      <c r="B605" s="16"/>
+      <c r="B605" s="15"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -17967,7 +17906,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
-      <c r="B606" s="16"/>
+      <c r="B606" s="15"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -17995,7 +17934,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
-      <c r="B607" s="16"/>
+      <c r="B607" s="15"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -18023,7 +17962,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
-      <c r="B608" s="16"/>
+      <c r="B608" s="15"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -18051,7 +17990,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
-      <c r="B609" s="16"/>
+      <c r="B609" s="15"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -18079,7 +18018,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
-      <c r="B610" s="16"/>
+      <c r="B610" s="15"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -18107,7 +18046,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
-      <c r="B611" s="16"/>
+      <c r="B611" s="15"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -18135,7 +18074,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
-      <c r="B612" s="16"/>
+      <c r="B612" s="15"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -18163,7 +18102,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
-      <c r="B613" s="16"/>
+      <c r="B613" s="15"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -18191,7 +18130,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
-      <c r="B614" s="16"/>
+      <c r="B614" s="15"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -18219,7 +18158,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
-      <c r="B615" s="16"/>
+      <c r="B615" s="15"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18247,7 +18186,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
-      <c r="B616" s="16"/>
+      <c r="B616" s="15"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18275,7 +18214,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
-      <c r="B617" s="16"/>
+      <c r="B617" s="15"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18303,7 +18242,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
-      <c r="B618" s="16"/>
+      <c r="B618" s="15"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18331,7 +18270,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
-      <c r="B619" s="16"/>
+      <c r="B619" s="15"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18359,7 +18298,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
-      <c r="B620" s="16"/>
+      <c r="B620" s="15"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18387,7 +18326,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
-      <c r="B621" s="16"/>
+      <c r="B621" s="15"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18415,7 +18354,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
-      <c r="B622" s="16"/>
+      <c r="B622" s="15"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18443,7 +18382,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
-      <c r="B623" s="16"/>
+      <c r="B623" s="15"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18471,7 +18410,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
-      <c r="B624" s="16"/>
+      <c r="B624" s="15"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18499,7 +18438,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
-      <c r="B625" s="16"/>
+      <c r="B625" s="15"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18527,7 +18466,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
-      <c r="B626" s="16"/>
+      <c r="B626" s="15"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18555,7 +18494,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
-      <c r="B627" s="16"/>
+      <c r="B627" s="15"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18583,7 +18522,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
-      <c r="B628" s="16"/>
+      <c r="B628" s="15"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18611,7 +18550,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
-      <c r="B629" s="16"/>
+      <c r="B629" s="15"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18639,7 +18578,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
-      <c r="B630" s="16"/>
+      <c r="B630" s="15"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18667,7 +18606,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
-      <c r="B631" s="16"/>
+      <c r="B631" s="15"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18695,7 +18634,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
-      <c r="B632" s="16"/>
+      <c r="B632" s="15"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18723,7 +18662,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
-      <c r="B633" s="16"/>
+      <c r="B633" s="15"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18751,7 +18690,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
-      <c r="B634" s="16"/>
+      <c r="B634" s="15"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18779,7 +18718,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="B635" s="16"/>
+      <c r="B635" s="15"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18807,7 +18746,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
-      <c r="B636" s="16"/>
+      <c r="B636" s="15"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18835,7 +18774,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
-      <c r="B637" s="16"/>
+      <c r="B637" s="15"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18863,7 +18802,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
-      <c r="B638" s="16"/>
+      <c r="B638" s="15"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18891,7 +18830,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
-      <c r="B639" s="16"/>
+      <c r="B639" s="15"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18919,7 +18858,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
-      <c r="B640" s="16"/>
+      <c r="B640" s="15"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -18947,7 +18886,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
-      <c r="B641" s="16"/>
+      <c r="B641" s="15"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -18975,7 +18914,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
-      <c r="B642" s="16"/>
+      <c r="B642" s="15"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -19003,7 +18942,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
-      <c r="B643" s="16"/>
+      <c r="B643" s="15"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -19031,7 +18970,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
-      <c r="B644" s="16"/>
+      <c r="B644" s="15"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -19059,7 +18998,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
-      <c r="B645" s="16"/>
+      <c r="B645" s="15"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -19087,7 +19026,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-      <c r="B646" s="16"/>
+      <c r="B646" s="15"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -19115,7 +19054,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
-      <c r="B647" s="16"/>
+      <c r="B647" s="15"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -19143,7 +19082,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="B648" s="16"/>
+      <c r="B648" s="15"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -19171,7 +19110,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="B649" s="16"/>
+      <c r="B649" s="15"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -19199,7 +19138,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="B650" s="16"/>
+      <c r="B650" s="15"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19227,7 +19166,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
-      <c r="B651" s="16"/>
+      <c r="B651" s="15"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19255,7 +19194,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
-      <c r="B652" s="16"/>
+      <c r="B652" s="15"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19283,7 +19222,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
-      <c r="B653" s="16"/>
+      <c r="B653" s="15"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19311,7 +19250,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
-      <c r="B654" s="16"/>
+      <c r="B654" s="15"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19339,7 +19278,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
-      <c r="B655" s="16"/>
+      <c r="B655" s="15"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19367,7 +19306,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
-      <c r="B656" s="16"/>
+      <c r="B656" s="15"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19395,7 +19334,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
-      <c r="B657" s="16"/>
+      <c r="B657" s="15"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19423,7 +19362,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="B658" s="16"/>
+      <c r="B658" s="15"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19451,7 +19390,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
-      <c r="B659" s="16"/>
+      <c r="B659" s="15"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19479,7 +19418,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
-      <c r="B660" s="16"/>
+      <c r="B660" s="15"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19507,7 +19446,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
-      <c r="B661" s="16"/>
+      <c r="B661" s="15"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19535,7 +19474,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="B662" s="16"/>
+      <c r="B662" s="15"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19563,7 +19502,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
-      <c r="B663" s="16"/>
+      <c r="B663" s="15"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19591,7 +19530,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
-      <c r="B664" s="16"/>
+      <c r="B664" s="15"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19619,7 +19558,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="B665" s="16"/>
+      <c r="B665" s="15"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19647,7 +19586,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="B666" s="16"/>
+      <c r="B666" s="15"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19675,7 +19614,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="B667" s="16"/>
+      <c r="B667" s="15"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19703,7 +19642,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
-      <c r="B668" s="16"/>
+      <c r="B668" s="15"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19731,7 +19670,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
-      <c r="B669" s="16"/>
+      <c r="B669" s="15"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19759,7 +19698,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
-      <c r="B670" s="16"/>
+      <c r="B670" s="15"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19787,7 +19726,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
-      <c r="B671" s="16"/>
+      <c r="B671" s="15"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19815,7 +19754,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
-      <c r="B672" s="16"/>
+      <c r="B672" s="15"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19843,7 +19782,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
-      <c r="B673" s="16"/>
+      <c r="B673" s="15"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19871,7 +19810,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
-      <c r="B674" s="16"/>
+      <c r="B674" s="15"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19899,7 +19838,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
-      <c r="B675" s="16"/>
+      <c r="B675" s="15"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -19927,7 +19866,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
-      <c r="B676" s="16"/>
+      <c r="B676" s="15"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -19955,7 +19894,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="B677" s="16"/>
+      <c r="B677" s="15"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -19983,7 +19922,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="B678" s="16"/>
+      <c r="B678" s="15"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -20011,7 +19950,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="B679" s="16"/>
+      <c r="B679" s="15"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -20039,7 +19978,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
-      <c r="B680" s="16"/>
+      <c r="B680" s="15"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -20067,7 +20006,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-      <c r="B681" s="16"/>
+      <c r="B681" s="15"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -20095,7 +20034,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-      <c r="B682" s="16"/>
+      <c r="B682" s="15"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -20123,7 +20062,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="B683" s="16"/>
+      <c r="B683" s="15"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -20151,7 +20090,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="B684" s="16"/>
+      <c r="B684" s="15"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -20179,7 +20118,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
-      <c r="B685" s="16"/>
+      <c r="B685" s="15"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -20207,7 +20146,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
-      <c r="B686" s="16"/>
+      <c r="B686" s="15"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20235,7 +20174,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
-      <c r="B687" s="16"/>
+      <c r="B687" s="15"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20263,7 +20202,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
-      <c r="B688" s="16"/>
+      <c r="B688" s="15"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20291,7 +20230,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
-      <c r="B689" s="16"/>
+      <c r="B689" s="15"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20319,7 +20258,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
-      <c r="B690" s="16"/>
+      <c r="B690" s="15"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20347,7 +20286,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
-      <c r="B691" s="16"/>
+      <c r="B691" s="15"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20375,7 +20314,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
-      <c r="B692" s="16"/>
+      <c r="B692" s="15"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20403,7 +20342,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
-      <c r="B693" s="16"/>
+      <c r="B693" s="15"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20431,7 +20370,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
-      <c r="B694" s="16"/>
+      <c r="B694" s="15"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20459,7 +20398,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="B695" s="16"/>
+      <c r="B695" s="15"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20487,7 +20426,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="B696" s="16"/>
+      <c r="B696" s="15"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20515,7 +20454,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="B697" s="16"/>
+      <c r="B697" s="15"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20543,7 +20482,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="B698" s="16"/>
+      <c r="B698" s="15"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20571,7 +20510,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
-      <c r="B699" s="16"/>
+      <c r="B699" s="15"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20599,7 +20538,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
-      <c r="B700" s="16"/>
+      <c r="B700" s="15"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20627,7 +20566,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
-      <c r="B701" s="16"/>
+      <c r="B701" s="15"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20655,7 +20594,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
-      <c r="B702" s="16"/>
+      <c r="B702" s="15"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20683,7 +20622,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
-      <c r="B703" s="16"/>
+      <c r="B703" s="15"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20711,7 +20650,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
-      <c r="B704" s="16"/>
+      <c r="B704" s="15"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20739,7 +20678,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
-      <c r="B705" s="16"/>
+      <c r="B705" s="15"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20767,7 +20706,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
-      <c r="B706" s="16"/>
+      <c r="B706" s="15"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20795,7 +20734,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
-      <c r="B707" s="16"/>
+      <c r="B707" s="15"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20823,7 +20762,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
-      <c r="B708" s="16"/>
+      <c r="B708" s="15"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20851,7 +20790,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
-      <c r="B709" s="16"/>
+      <c r="B709" s="15"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20879,7 +20818,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
-      <c r="B710" s="16"/>
+      <c r="B710" s="15"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20907,7 +20846,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
-      <c r="B711" s="16"/>
+      <c r="B711" s="15"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -20935,7 +20874,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
-      <c r="B712" s="16"/>
+      <c r="B712" s="15"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -20963,7 +20902,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
-      <c r="B713" s="16"/>
+      <c r="B713" s="15"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -20991,7 +20930,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
-      <c r="B714" s="16"/>
+      <c r="B714" s="15"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -21019,7 +20958,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
-      <c r="B715" s="16"/>
+      <c r="B715" s="15"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -21047,7 +20986,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
-      <c r="B716" s="16"/>
+      <c r="B716" s="15"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -21075,7 +21014,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
-      <c r="B717" s="16"/>
+      <c r="B717" s="15"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -21103,7 +21042,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
-      <c r="B718" s="16"/>
+      <c r="B718" s="15"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -21131,7 +21070,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
-      <c r="B719" s="16"/>
+      <c r="B719" s="15"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -21159,7 +21098,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
-      <c r="B720" s="16"/>
+      <c r="B720" s="15"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -21187,7 +21126,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
-      <c r="B721" s="16"/>
+      <c r="B721" s="15"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -21215,7 +21154,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
-      <c r="B722" s="16"/>
+      <c r="B722" s="15"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21243,7 +21182,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
-      <c r="B723" s="16"/>
+      <c r="B723" s="15"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21271,7 +21210,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
-      <c r="B724" s="16"/>
+      <c r="B724" s="15"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21299,7 +21238,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
-      <c r="B725" s="16"/>
+      <c r="B725" s="15"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21327,7 +21266,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
-      <c r="B726" s="16"/>
+      <c r="B726" s="15"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21355,7 +21294,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
-      <c r="B727" s="16"/>
+      <c r="B727" s="15"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21383,7 +21322,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
-      <c r="B728" s="16"/>
+      <c r="B728" s="15"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21411,7 +21350,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
-      <c r="B729" s="16"/>
+      <c r="B729" s="15"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21439,7 +21378,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
-      <c r="B730" s="16"/>
+      <c r="B730" s="15"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21467,7 +21406,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
-      <c r="B731" s="16"/>
+      <c r="B731" s="15"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21495,7 +21434,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
-      <c r="B732" s="16"/>
+      <c r="B732" s="15"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21523,7 +21462,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
-      <c r="B733" s="16"/>
+      <c r="B733" s="15"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21551,7 +21490,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
-      <c r="B734" s="16"/>
+      <c r="B734" s="15"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21579,7 +21518,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
-      <c r="B735" s="16"/>
+      <c r="B735" s="15"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21607,7 +21546,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
-      <c r="B736" s="16"/>
+      <c r="B736" s="15"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21635,7 +21574,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
-      <c r="B737" s="16"/>
+      <c r="B737" s="15"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21663,7 +21602,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
-      <c r="B738" s="16"/>
+      <c r="B738" s="15"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21691,7 +21630,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
-      <c r="B739" s="16"/>
+      <c r="B739" s="15"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21719,7 +21658,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
-      <c r="B740" s="16"/>
+      <c r="B740" s="15"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21747,7 +21686,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
-      <c r="B741" s="16"/>
+      <c r="B741" s="15"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21775,7 +21714,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
-      <c r="B742" s="16"/>
+      <c r="B742" s="15"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21803,7 +21742,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
-      <c r="B743" s="16"/>
+      <c r="B743" s="15"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21831,7 +21770,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
-      <c r="B744" s="16"/>
+      <c r="B744" s="15"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21859,7 +21798,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
-      <c r="B745" s="16"/>
+      <c r="B745" s="15"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21887,7 +21826,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
-      <c r="B746" s="16"/>
+      <c r="B746" s="15"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21915,7 +21854,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
-      <c r="B747" s="16"/>
+      <c r="B747" s="15"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -21943,7 +21882,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
-      <c r="B748" s="16"/>
+      <c r="B748" s="15"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -21971,7 +21910,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
-      <c r="B749" s="16"/>
+      <c r="B749" s="15"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -21999,7 +21938,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
-      <c r="B750" s="16"/>
+      <c r="B750" s="15"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -22027,7 +21966,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
-      <c r="B751" s="16"/>
+      <c r="B751" s="15"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -22055,7 +21994,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
-      <c r="B752" s="16"/>
+      <c r="B752" s="15"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -22083,7 +22022,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
-      <c r="B753" s="16"/>
+      <c r="B753" s="15"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -22111,7 +22050,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
-      <c r="B754" s="16"/>
+      <c r="B754" s="15"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -22139,7 +22078,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
-      <c r="B755" s="16"/>
+      <c r="B755" s="15"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -22167,7 +22106,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
-      <c r="B756" s="16"/>
+      <c r="B756" s="15"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -22195,7 +22134,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
-      <c r="B757" s="16"/>
+      <c r="B757" s="15"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22223,7 +22162,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
-      <c r="B758" s="16"/>
+      <c r="B758" s="15"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22251,7 +22190,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
-      <c r="B759" s="16"/>
+      <c r="B759" s="15"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22279,7 +22218,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
-      <c r="B760" s="16"/>
+      <c r="B760" s="15"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22307,7 +22246,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
-      <c r="B761" s="16"/>
+      <c r="B761" s="15"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22335,7 +22274,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
-      <c r="B762" s="16"/>
+      <c r="B762" s="15"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22363,7 +22302,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
-      <c r="B763" s="16"/>
+      <c r="B763" s="15"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22391,7 +22330,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="B764" s="16"/>
+      <c r="B764" s="15"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22419,7 +22358,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="B765" s="16"/>
+      <c r="B765" s="15"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22447,7 +22386,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="B766" s="16"/>
+      <c r="B766" s="15"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22475,7 +22414,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="B767" s="16"/>
+      <c r="B767" s="15"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22503,7 +22442,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
-      <c r="B768" s="16"/>
+      <c r="B768" s="15"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22531,7 +22470,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
-      <c r="B769" s="16"/>
+      <c r="B769" s="15"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22559,7 +22498,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
-      <c r="B770" s="16"/>
+      <c r="B770" s="15"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22587,7 +22526,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
-      <c r="B771" s="16"/>
+      <c r="B771" s="15"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22615,7 +22554,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
-      <c r="B772" s="16"/>
+      <c r="B772" s="15"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22643,7 +22582,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
-      <c r="B773" s="16"/>
+      <c r="B773" s="15"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22671,7 +22610,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
-      <c r="B774" s="16"/>
+      <c r="B774" s="15"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22699,7 +22638,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
-      <c r="B775" s="16"/>
+      <c r="B775" s="15"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22727,7 +22666,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
-      <c r="B776" s="16"/>
+      <c r="B776" s="15"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22755,7 +22694,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
-      <c r="B777" s="16"/>
+      <c r="B777" s="15"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22783,7 +22722,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
-      <c r="B778" s="16"/>
+      <c r="B778" s="15"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22811,7 +22750,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
-      <c r="B779" s="16"/>
+      <c r="B779" s="15"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22839,7 +22778,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
-      <c r="B780" s="16"/>
+      <c r="B780" s="15"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22867,7 +22806,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
-      <c r="B781" s="16"/>
+      <c r="B781" s="15"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22895,7 +22834,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
-      <c r="B782" s="16"/>
+      <c r="B782" s="15"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22923,7 +22862,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
-      <c r="B783" s="16"/>
+      <c r="B783" s="15"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -22951,7 +22890,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
-      <c r="B784" s="16"/>
+      <c r="B784" s="15"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -22979,7 +22918,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
-      <c r="B785" s="16"/>
+      <c r="B785" s="15"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -23007,7 +22946,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
-      <c r="B786" s="16"/>
+      <c r="B786" s="15"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -23035,7 +22974,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
-      <c r="B787" s="16"/>
+      <c r="B787" s="15"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -23063,7 +23002,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
-      <c r="B788" s="16"/>
+      <c r="B788" s="15"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -23091,7 +23030,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
-      <c r="B789" s="16"/>
+      <c r="B789" s="15"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -23119,7 +23058,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
-      <c r="B790" s="16"/>
+      <c r="B790" s="15"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -23147,7 +23086,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
-      <c r="B791" s="16"/>
+      <c r="B791" s="15"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -23175,7 +23114,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
-      <c r="B792" s="16"/>
+      <c r="B792" s="15"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -23203,7 +23142,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
-      <c r="B793" s="16"/>
+      <c r="B793" s="15"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23231,7 +23170,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
-      <c r="B794" s="16"/>
+      <c r="B794" s="15"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23259,7 +23198,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
-      <c r="B795" s="16"/>
+      <c r="B795" s="15"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23287,7 +23226,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
-      <c r="B796" s="16"/>
+      <c r="B796" s="15"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23315,7 +23254,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
-      <c r="B797" s="16"/>
+      <c r="B797" s="15"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23343,7 +23282,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
-      <c r="B798" s="16"/>
+      <c r="B798" s="15"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23371,7 +23310,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
-      <c r="B799" s="16"/>
+      <c r="B799" s="15"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23399,7 +23338,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
-      <c r="B800" s="16"/>
+      <c r="B800" s="15"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23427,7 +23366,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
-      <c r="B801" s="16"/>
+      <c r="B801" s="15"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23455,7 +23394,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
-      <c r="B802" s="16"/>
+      <c r="B802" s="15"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23483,7 +23422,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
-      <c r="B803" s="16"/>
+      <c r="B803" s="15"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23511,7 +23450,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
-      <c r="B804" s="16"/>
+      <c r="B804" s="15"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23539,7 +23478,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
-      <c r="B805" s="16"/>
+      <c r="B805" s="15"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23567,7 +23506,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
-      <c r="B806" s="16"/>
+      <c r="B806" s="15"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23595,7 +23534,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="B807" s="16"/>
+      <c r="B807" s="15"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23623,7 +23562,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
-      <c r="B808" s="16"/>
+      <c r="B808" s="15"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23651,7 +23590,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
-      <c r="B809" s="16"/>
+      <c r="B809" s="15"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23679,7 +23618,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
-      <c r="B810" s="16"/>
+      <c r="B810" s="15"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23707,7 +23646,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
-      <c r="B811" s="16"/>
+      <c r="B811" s="15"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23735,7 +23674,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
-      <c r="B812" s="16"/>
+      <c r="B812" s="15"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23763,7 +23702,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
-      <c r="B813" s="16"/>
+      <c r="B813" s="15"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23791,7 +23730,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
-      <c r="B814" s="16"/>
+      <c r="B814" s="15"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23819,7 +23758,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
-      <c r="B815" s="16"/>
+      <c r="B815" s="15"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23847,7 +23786,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
-      <c r="B816" s="16"/>
+      <c r="B816" s="15"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23875,7 +23814,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
-      <c r="B817" s="16"/>
+      <c r="B817" s="15"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23903,7 +23842,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
-      <c r="B818" s="16"/>
+      <c r="B818" s="15"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -23931,7 +23870,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
-      <c r="B819" s="16"/>
+      <c r="B819" s="15"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -23959,7 +23898,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
-      <c r="B820" s="16"/>
+      <c r="B820" s="15"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -23987,7 +23926,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
-      <c r="B821" s="16"/>
+      <c r="B821" s="15"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -24015,7 +23954,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
-      <c r="B822" s="16"/>
+      <c r="B822" s="15"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -24043,7 +23982,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
-      <c r="B823" s="16"/>
+      <c r="B823" s="15"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -24071,7 +24010,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
-      <c r="B824" s="16"/>
+      <c r="B824" s="15"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -24099,7 +24038,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
-      <c r="B825" s="16"/>
+      <c r="B825" s="15"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -24127,7 +24066,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
-      <c r="B826" s="16"/>
+      <c r="B826" s="15"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -24155,7 +24094,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
-      <c r="B827" s="16"/>
+      <c r="B827" s="15"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -24183,7 +24122,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
-      <c r="B828" s="16"/>
+      <c r="B828" s="15"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -24211,7 +24150,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
-      <c r="B829" s="16"/>
+      <c r="B829" s="15"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24239,7 +24178,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
-      <c r="B830" s="16"/>
+      <c r="B830" s="15"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24267,7 +24206,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
-      <c r="B831" s="16"/>
+      <c r="B831" s="15"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24295,7 +24234,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
-      <c r="B832" s="16"/>
+      <c r="B832" s="15"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24323,7 +24262,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
-      <c r="B833" s="16"/>
+      <c r="B833" s="15"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24351,7 +24290,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
-      <c r="B834" s="16"/>
+      <c r="B834" s="15"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24379,7 +24318,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
-      <c r="B835" s="16"/>
+      <c r="B835" s="15"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24407,7 +24346,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
-      <c r="B836" s="16"/>
+      <c r="B836" s="15"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24435,7 +24374,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
-      <c r="B837" s="16"/>
+      <c r="B837" s="15"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24463,7 +24402,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
-      <c r="B838" s="16"/>
+      <c r="B838" s="15"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24491,7 +24430,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
-      <c r="B839" s="16"/>
+      <c r="B839" s="15"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24519,7 +24458,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
-      <c r="B840" s="16"/>
+      <c r="B840" s="15"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24547,7 +24486,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
-      <c r="B841" s="16"/>
+      <c r="B841" s="15"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24575,7 +24514,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
-      <c r="B842" s="16"/>
+      <c r="B842" s="15"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24603,7 +24542,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
-      <c r="B843" s="16"/>
+      <c r="B843" s="15"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24631,7 +24570,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
-      <c r="B844" s="16"/>
+      <c r="B844" s="15"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24659,7 +24598,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
-      <c r="B845" s="16"/>
+      <c r="B845" s="15"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24687,7 +24626,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
-      <c r="B846" s="16"/>
+      <c r="B846" s="15"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24715,7 +24654,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
-      <c r="B847" s="16"/>
+      <c r="B847" s="15"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24743,7 +24682,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
-      <c r="B848" s="16"/>
+      <c r="B848" s="15"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24771,7 +24710,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
-      <c r="B849" s="16"/>
+      <c r="B849" s="15"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24799,7 +24738,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
-      <c r="B850" s="16"/>
+      <c r="B850" s="15"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24827,7 +24766,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
-      <c r="B851" s="16"/>
+      <c r="B851" s="15"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24855,7 +24794,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
-      <c r="B852" s="16"/>
+      <c r="B852" s="15"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24883,7 +24822,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
-      <c r="B853" s="16"/>
+      <c r="B853" s="15"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24911,7 +24850,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
-      <c r="B854" s="16"/>
+      <c r="B854" s="15"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -24939,7 +24878,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
-      <c r="B855" s="16"/>
+      <c r="B855" s="15"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -24967,7 +24906,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
-      <c r="B856" s="16"/>
+      <c r="B856" s="15"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -24995,7 +24934,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
-      <c r="B857" s="16"/>
+      <c r="B857" s="15"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -25023,7 +24962,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
-      <c r="B858" s="16"/>
+      <c r="B858" s="15"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -25051,7 +24990,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
-      <c r="B859" s="16"/>
+      <c r="B859" s="15"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -25079,7 +25018,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
-      <c r="B860" s="16"/>
+      <c r="B860" s="15"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -25107,7 +25046,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
-      <c r="B861" s="16"/>
+      <c r="B861" s="15"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -25135,7 +25074,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
-      <c r="B862" s="16"/>
+      <c r="B862" s="15"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -25163,7 +25102,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
-      <c r="B863" s="16"/>
+      <c r="B863" s="15"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -25191,7 +25130,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
-      <c r="B864" s="16"/>
+      <c r="B864" s="15"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -25219,7 +25158,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
-      <c r="B865" s="16"/>
+      <c r="B865" s="15"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25247,7 +25186,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
-      <c r="B866" s="16"/>
+      <c r="B866" s="15"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25275,7 +25214,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
-      <c r="B867" s="16"/>
+      <c r="B867" s="15"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25303,7 +25242,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
-      <c r="B868" s="16"/>
+      <c r="B868" s="15"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25331,7 +25270,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
-      <c r="B869" s="16"/>
+      <c r="B869" s="15"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25359,7 +25298,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
-      <c r="B870" s="16"/>
+      <c r="B870" s="15"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25387,7 +25326,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
-      <c r="B871" s="16"/>
+      <c r="B871" s="15"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25415,7 +25354,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
-      <c r="B872" s="16"/>
+      <c r="B872" s="15"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25443,7 +25382,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
-      <c r="B873" s="16"/>
+      <c r="B873" s="15"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25471,7 +25410,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
-      <c r="B874" s="16"/>
+      <c r="B874" s="15"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25499,7 +25438,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
-      <c r="B875" s="16"/>
+      <c r="B875" s="15"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25527,7 +25466,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
-      <c r="B876" s="16"/>
+      <c r="B876" s="15"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25555,7 +25494,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
-      <c r="B877" s="16"/>
+      <c r="B877" s="15"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25583,7 +25522,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
-      <c r="B878" s="16"/>
+      <c r="B878" s="15"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25611,7 +25550,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
-      <c r="B879" s="16"/>
+      <c r="B879" s="15"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25639,7 +25578,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
-      <c r="B880" s="16"/>
+      <c r="B880" s="15"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25667,7 +25606,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
-      <c r="B881" s="16"/>
+      <c r="B881" s="15"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25695,7 +25634,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
-      <c r="B882" s="16"/>
+      <c r="B882" s="15"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25723,7 +25662,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
-      <c r="B883" s="16"/>
+      <c r="B883" s="15"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25751,7 +25690,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
-      <c r="B884" s="16"/>
+      <c r="B884" s="15"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25779,7 +25718,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
-      <c r="B885" s="16"/>
+      <c r="B885" s="15"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25807,7 +25746,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
-      <c r="B886" s="16"/>
+      <c r="B886" s="15"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25835,7 +25774,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
-      <c r="B887" s="16"/>
+      <c r="B887" s="15"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25863,7 +25802,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
-      <c r="B888" s="16"/>
+      <c r="B888" s="15"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25891,7 +25830,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
-      <c r="B889" s="16"/>
+      <c r="B889" s="15"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25919,7 +25858,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
-      <c r="B890" s="16"/>
+      <c r="B890" s="15"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -25947,7 +25886,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
-      <c r="B891" s="16"/>
+      <c r="B891" s="15"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -25975,7 +25914,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
-      <c r="B892" s="16"/>
+      <c r="B892" s="15"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -26003,7 +25942,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
-      <c r="B893" s="16"/>
+      <c r="B893" s="15"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -26031,7 +25970,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
-      <c r="B894" s="16"/>
+      <c r="B894" s="15"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -26059,7 +25998,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
-      <c r="B895" s="16"/>
+      <c r="B895" s="15"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -26087,7 +26026,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
-      <c r="B896" s="16"/>
+      <c r="B896" s="15"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -26115,7 +26054,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
-      <c r="B897" s="16"/>
+      <c r="B897" s="15"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -26143,7 +26082,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
-      <c r="B898" s="16"/>
+      <c r="B898" s="15"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -26171,7 +26110,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
-      <c r="B899" s="16"/>
+      <c r="B899" s="15"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -26199,7 +26138,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
-      <c r="B900" s="16"/>
+      <c r="B900" s="15"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26227,7 +26166,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
-      <c r="B901" s="16"/>
+      <c r="B901" s="15"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26255,7 +26194,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
-      <c r="B902" s="16"/>
+      <c r="B902" s="15"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26283,7 +26222,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
-      <c r="B903" s="16"/>
+      <c r="B903" s="15"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26311,7 +26250,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
-      <c r="B904" s="16"/>
+      <c r="B904" s="15"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26339,7 +26278,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
-      <c r="B905" s="16"/>
+      <c r="B905" s="15"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26367,7 +26306,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
-      <c r="B906" s="16"/>
+      <c r="B906" s="15"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26395,7 +26334,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
-      <c r="B907" s="16"/>
+      <c r="B907" s="15"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26423,7 +26362,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
-      <c r="B908" s="16"/>
+      <c r="B908" s="15"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26451,7 +26390,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
-      <c r="B909" s="16"/>
+      <c r="B909" s="15"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26479,7 +26418,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
-      <c r="B910" s="16"/>
+      <c r="B910" s="15"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26507,7 +26446,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
-      <c r="B911" s="16"/>
+      <c r="B911" s="15"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26535,7 +26474,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
-      <c r="B912" s="16"/>
+      <c r="B912" s="15"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26563,7 +26502,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="B913" s="16"/>
+      <c r="B913" s="15"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26591,7 +26530,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
-      <c r="B914" s="16"/>
+      <c r="B914" s="15"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26619,7 +26558,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
-      <c r="B915" s="16"/>
+      <c r="B915" s="15"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26647,7 +26586,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
-      <c r="B916" s="16"/>
+      <c r="B916" s="15"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26675,7 +26614,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
-      <c r="B917" s="16"/>
+      <c r="B917" s="15"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26703,7 +26642,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
-      <c r="B918" s="16"/>
+      <c r="B918" s="15"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26731,7 +26670,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
-      <c r="B919" s="16"/>
+      <c r="B919" s="15"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26759,7 +26698,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
-      <c r="B920" s="16"/>
+      <c r="B920" s="15"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26787,7 +26726,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
-      <c r="B921" s="16"/>
+      <c r="B921" s="15"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26815,7 +26754,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
-      <c r="B922" s="16"/>
+      <c r="B922" s="15"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26843,7 +26782,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
-      <c r="B923" s="16"/>
+      <c r="B923" s="15"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26871,7 +26810,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
-      <c r="B924" s="16"/>
+      <c r="B924" s="15"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26899,7 +26838,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
-      <c r="B925" s="16"/>
+      <c r="B925" s="15"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -26927,7 +26866,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
-      <c r="B926" s="16"/>
+      <c r="B926" s="15"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -26955,7 +26894,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
-      <c r="B927" s="16"/>
+      <c r="B927" s="15"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -26983,7 +26922,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
-      <c r="B928" s="16"/>
+      <c r="B928" s="15"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -27011,7 +26950,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
-      <c r="B929" s="16"/>
+      <c r="B929" s="15"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -27039,7 +26978,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
-      <c r="B930" s="16"/>
+      <c r="B930" s="15"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -27067,7 +27006,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
-      <c r="B931" s="16"/>
+      <c r="B931" s="15"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -27095,7 +27034,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
-      <c r="B932" s="16"/>
+      <c r="B932" s="15"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -27123,7 +27062,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
-      <c r="B933" s="16"/>
+      <c r="B933" s="15"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -27151,7 +27090,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
-      <c r="B934" s="16"/>
+      <c r="B934" s="15"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -27179,7 +27118,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
-      <c r="B935" s="16"/>
+      <c r="B935" s="15"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -27207,7 +27146,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
-      <c r="B936" s="16"/>
+      <c r="B936" s="15"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27235,7 +27174,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
-      <c r="B937" s="16"/>
+      <c r="B937" s="15"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27263,7 +27202,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
-      <c r="B938" s="16"/>
+      <c r="B938" s="15"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27291,7 +27230,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
-      <c r="B939" s="16"/>
+      <c r="B939" s="15"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27319,7 +27258,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
-      <c r="B940" s="16"/>
+      <c r="B940" s="15"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27347,7 +27286,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
-      <c r="B941" s="16"/>
+      <c r="B941" s="15"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27375,7 +27314,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
-      <c r="B942" s="16"/>
+      <c r="B942" s="15"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27403,7 +27342,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
-      <c r="B943" s="16"/>
+      <c r="B943" s="15"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27431,7 +27370,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
-      <c r="B944" s="16"/>
+      <c r="B944" s="15"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27459,7 +27398,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
-      <c r="B945" s="16"/>
+      <c r="B945" s="15"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27487,7 +27426,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
-      <c r="B946" s="16"/>
+      <c r="B946" s="15"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27515,7 +27454,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
-      <c r="B947" s="16"/>
+      <c r="B947" s="15"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27543,7 +27482,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
-      <c r="B948" s="16"/>
+      <c r="B948" s="15"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27571,7 +27510,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
-      <c r="B949" s="16"/>
+      <c r="B949" s="15"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27599,7 +27538,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
-      <c r="B950" s="16"/>
+      <c r="B950" s="15"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27627,7 +27566,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
-      <c r="B951" s="16"/>
+      <c r="B951" s="15"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27655,7 +27594,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
-      <c r="B952" s="16"/>
+      <c r="B952" s="15"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27683,7 +27622,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
-      <c r="B953" s="16"/>
+      <c r="B953" s="15"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27711,7 +27650,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
-      <c r="B954" s="16"/>
+      <c r="B954" s="15"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27739,7 +27678,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
-      <c r="B955" s="16"/>
+      <c r="B955" s="15"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27767,7 +27706,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
-      <c r="B956" s="16"/>
+      <c r="B956" s="15"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27795,7 +27734,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
-      <c r="B957" s="16"/>
+      <c r="B957" s="15"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27823,7 +27762,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
-      <c r="B958" s="16"/>
+      <c r="B958" s="15"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27851,7 +27790,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
-      <c r="B959" s="16"/>
+      <c r="B959" s="15"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27879,7 +27818,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
-      <c r="B960" s="16"/>
+      <c r="B960" s="15"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27907,7 +27846,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
-      <c r="B961" s="16"/>
+      <c r="B961" s="15"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -27935,7 +27874,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
-      <c r="B962" s="16"/>
+      <c r="B962" s="15"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -27963,7 +27902,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
-      <c r="B963" s="16"/>
+      <c r="B963" s="15"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -27991,7 +27930,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
-      <c r="B964" s="16"/>
+      <c r="B964" s="15"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -28019,7 +27958,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
-      <c r="B965" s="16"/>
+      <c r="B965" s="15"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -28047,7 +27986,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
-      <c r="B966" s="16"/>
+      <c r="B966" s="15"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -28075,7 +28014,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
-      <c r="B967" s="16"/>
+      <c r="B967" s="15"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -28103,7 +28042,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
-      <c r="B968" s="16"/>
+      <c r="B968" s="15"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -28131,7 +28070,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
-      <c r="B969" s="16"/>
+      <c r="B969" s="15"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -28159,7 +28098,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
-      <c r="B970" s="16"/>
+      <c r="B970" s="15"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -28187,7 +28126,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
-      <c r="B971" s="16"/>
+      <c r="B971" s="15"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -28215,7 +28154,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
-      <c r="B972" s="16"/>
+      <c r="B972" s="15"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28243,7 +28182,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
-      <c r="B973" s="16"/>
+      <c r="B973" s="15"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28271,7 +28210,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
-      <c r="B974" s="16"/>
+      <c r="B974" s="15"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28299,7 +28238,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
-      <c r="B975" s="16"/>
+      <c r="B975" s="15"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28327,7 +28266,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
-      <c r="B976" s="16"/>
+      <c r="B976" s="15"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28355,7 +28294,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
-      <c r="B977" s="16"/>
+      <c r="B977" s="15"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28383,7 +28322,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
-      <c r="B978" s="16"/>
+      <c r="B978" s="15"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28411,7 +28350,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
-      <c r="B979" s="16"/>
+      <c r="B979" s="15"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28439,7 +28378,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
-      <c r="B980" s="16"/>
+      <c r="B980" s="15"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28467,7 +28406,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
-      <c r="B981" s="16"/>
+      <c r="B981" s="15"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28495,7 +28434,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
-      <c r="B982" s="16"/>
+      <c r="B982" s="15"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28523,7 +28462,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
-      <c r="B983" s="16"/>
+      <c r="B983" s="15"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28551,7 +28490,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
-      <c r="B984" s="16"/>
+      <c r="B984" s="15"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28579,7 +28518,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
-      <c r="B985" s="16"/>
+      <c r="B985" s="15"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28607,7 +28546,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
-      <c r="B986" s="16"/>
+      <c r="B986" s="15"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28635,7 +28574,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
-      <c r="B987" s="16"/>
+      <c r="B987" s="15"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28663,7 +28602,7 @@
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
-      <c r="B988" s="16"/>
+      <c r="B988" s="15"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -28691,7 +28630,7 @@
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
-      <c r="B989" s="16"/>
+      <c r="B989" s="15"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -28718,16 +28657,6 @@
       <c r="Z989" s="4"/>
     </row>
     <row r="990" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A990" s="4"/>
-      <c r="B990" s="16"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
-      <c r="H990" s="4"/>
-      <c r="I990" s="4"/>
-      <c r="J990" s="4"/>
       <c r="K990" s="4"/>
       <c r="L990" s="4"/>
       <c r="M990" s="4"/>
@@ -28746,16 +28675,6 @@
       <c r="Z990" s="4"/>
     </row>
     <row r="991" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A991" s="4"/>
-      <c r="B991" s="16"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-      <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
-      <c r="J991" s="4"/>
       <c r="K991" s="4"/>
       <c r="L991" s="4"/>
       <c r="M991" s="4"/>
@@ -28774,16 +28693,6 @@
       <c r="Z991" s="4"/>
     </row>
     <row r="992" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A992" s="4"/>
-      <c r="B992" s="16"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="4"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
-      <c r="J992" s="4"/>
       <c r="K992" s="4"/>
       <c r="L992" s="4"/>
       <c r="M992" s="4"/>
@@ -28801,172 +28710,6 @@
       <c r="Y992" s="4"/>
       <c r="Z992" s="4"/>
     </row>
-    <row r="993" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A993" s="4"/>
-      <c r="B993" s="16"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="4"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
-      <c r="K993" s="4"/>
-      <c r="L993" s="4"/>
-      <c r="M993" s="4"/>
-      <c r="N993" s="4"/>
-      <c r="O993" s="4"/>
-      <c r="P993" s="4"/>
-      <c r="Q993" s="4"/>
-      <c r="R993" s="4"/>
-      <c r="S993" s="4"/>
-      <c r="T993" s="4"/>
-      <c r="U993" s="4"/>
-      <c r="V993" s="4"/>
-      <c r="W993" s="4"/>
-      <c r="X993" s="4"/>
-      <c r="Y993" s="4"/>
-      <c r="Z993" s="4"/>
-    </row>
-    <row r="994" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A994" s="4"/>
-      <c r="B994" s="16"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
-      <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
-      <c r="J994" s="4"/>
-      <c r="K994" s="4"/>
-      <c r="L994" s="4"/>
-      <c r="M994" s="4"/>
-      <c r="N994" s="4"/>
-      <c r="O994" s="4"/>
-      <c r="P994" s="4"/>
-      <c r="Q994" s="4"/>
-      <c r="R994" s="4"/>
-      <c r="S994" s="4"/>
-      <c r="T994" s="4"/>
-      <c r="U994" s="4"/>
-      <c r="V994" s="4"/>
-      <c r="W994" s="4"/>
-      <c r="X994" s="4"/>
-      <c r="Y994" s="4"/>
-      <c r="Z994" s="4"/>
-    </row>
-    <row r="995" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A995" s="4"/>
-      <c r="B995" s="16"/>
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
-      <c r="E995" s="4"/>
-      <c r="F995" s="4"/>
-      <c r="G995" s="4"/>
-      <c r="H995" s="4"/>
-      <c r="I995" s="4"/>
-      <c r="J995" s="4"/>
-      <c r="K995" s="4"/>
-      <c r="L995" s="4"/>
-      <c r="M995" s="4"/>
-      <c r="N995" s="4"/>
-      <c r="O995" s="4"/>
-      <c r="P995" s="4"/>
-      <c r="Q995" s="4"/>
-      <c r="R995" s="4"/>
-      <c r="S995" s="4"/>
-      <c r="T995" s="4"/>
-      <c r="U995" s="4"/>
-      <c r="V995" s="4"/>
-      <c r="W995" s="4"/>
-      <c r="X995" s="4"/>
-      <c r="Y995" s="4"/>
-      <c r="Z995" s="4"/>
-    </row>
-    <row r="996" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A996" s="4"/>
-      <c r="B996" s="16"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-      <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
-      <c r="J996" s="4"/>
-      <c r="K996" s="4"/>
-      <c r="L996" s="4"/>
-      <c r="M996" s="4"/>
-      <c r="N996" s="4"/>
-      <c r="O996" s="4"/>
-      <c r="P996" s="4"/>
-      <c r="Q996" s="4"/>
-      <c r="R996" s="4"/>
-      <c r="S996" s="4"/>
-      <c r="T996" s="4"/>
-      <c r="U996" s="4"/>
-      <c r="V996" s="4"/>
-      <c r="W996" s="4"/>
-      <c r="X996" s="4"/>
-      <c r="Y996" s="4"/>
-      <c r="Z996" s="4"/>
-    </row>
-    <row r="997" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K997" s="4"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-      <c r="Z997" s="4"/>
-    </row>
-    <row r="998" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-      <c r="Z998" s="4"/>
-    </row>
-    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="4"/>
-      <c r="N999" s="4"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="4"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-      <c r="Z999" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
@@ -28977,6 +28720,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CA1D36-FBAA-4C2B-8816-F89C97E7898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6463B4-0CD6-4B23-8D7C-7EF42B83E1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Tổng hợp công việc của các thành viên để hoàn thiện chương 1 BTL</t>
   </si>
   <si>
-    <t>Tổng hợp và viết báo cáo chương II</t>
-  </si>
-  <si>
     <t>Xác định các yêu cầu về dữ liệu</t>
   </si>
   <si>
@@ -82,21 +79,6 @@
   </si>
   <si>
     <t>Tổng hợp và viết báo cáo chương 3</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem sách theo thể loại, bảo trì sách.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem sách theo xu hướng, bảo trì xu hướng.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
   </si>
   <si>
     <t>Viết báo cáo bài tập lớn</t>
@@ -167,12 +149,24 @@
   <si>
     <t>Vẽ biểu đồ tuần tự</t>
   </si>
+  <si>
+    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình.</t>
+  </si>
+  <si>
+    <t>Tổng hợp và viết báo cáo chương 2</t>
+  </si>
+  <si>
+    <t>Phần quyền chức năng người dùng</t>
+  </si>
+  <si>
+    <t>Kết nối API</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,13 +197,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -292,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,9 +308,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -345,17 +329,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,16 +558,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="15" customWidth="1"/>
     <col min="3" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="26" width="14.44140625" customWidth="1"/>
@@ -621,7 +605,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -651,7 +635,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -681,7 +665,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -711,7 +695,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -743,7 +727,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -789,7 +773,7 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
@@ -808,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
@@ -835,7 +819,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7">
@@ -854,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -881,7 +865,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7">
@@ -900,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -927,8 +911,8 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>45566</v>
@@ -972,8 +956,8 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>33</v>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>45573</v>
@@ -991,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>11</v>
@@ -1017,8 +1001,8 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>38</v>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="9">
         <v>45573</v>
@@ -1036,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>11</v>
@@ -1062,8 +1046,8 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>37</v>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="9">
         <v>45573</v>
@@ -1081,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
@@ -1108,8 +1092,8 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>39</v>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="9">
         <v>45573</v>
@@ -1127,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
@@ -1154,8 +1138,8 @@
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="9">
         <v>45580</v>
@@ -1167,15 +1151,15 @@
         <v>45596</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="1"/>
@@ -1200,8 +1184,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="9">
         <v>45581</v>
@@ -1213,15 +1197,15 @@
         <v>45597</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="1"/>
@@ -1246,8 +1230,8 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>45</v>
+      <c r="B17" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="9">
         <v>45595</v>
@@ -1267,7 +1251,7 @@
       <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="1"/>
@@ -1292,8 +1276,8 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>46</v>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="9">
         <v>45595</v>
@@ -1313,7 +1297,7 @@
       <c r="H18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="1"/>
@@ -1338,8 +1322,8 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>17</v>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="9">
         <v>45595</v>
@@ -1359,7 +1343,7 @@
       <c r="H19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="1"/>
@@ -1384,8 +1368,8 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="9">
         <v>45595</v>
@@ -1405,7 +1389,7 @@
       <c r="H20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="1"/>
@@ -1426,28 +1410,34 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C21" s="9">
-        <v>45573</v>
+        <v>45616</v>
       </c>
       <c r="D21" s="9">
-        <v>45573</v>
+        <v>45616</v>
       </c>
       <c r="E21" s="9">
-        <v>45579</v>
+        <v>45622</v>
       </c>
       <c r="F21" s="9">
-        <v>45579</v>
+        <v>45622</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1466,28 +1456,34 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>19</v>
+      <c r="B22" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="9">
-        <v>45573</v>
+        <v>45616</v>
       </c>
       <c r="D22" s="9">
-        <v>45573</v>
+        <v>45616</v>
       </c>
       <c r="E22" s="9">
-        <v>45579</v>
+        <v>45622</v>
       </c>
       <c r="F22" s="9">
-        <v>45579</v>
+        <v>45622</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1506,28 +1502,34 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
+      <c r="B23" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="9">
-        <v>45573</v>
+        <v>45623</v>
       </c>
       <c r="D23" s="9">
-        <v>45573</v>
+        <v>45623</v>
       </c>
       <c r="E23" s="9">
-        <v>45579</v>
+        <v>45636</v>
       </c>
       <c r="F23" s="9">
-        <v>45579</v>
+        <v>45636</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1546,28 +1548,34 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>21</v>
+      <c r="B24" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="9">
-        <v>45573</v>
+        <v>45637</v>
       </c>
       <c r="D24" s="9">
-        <v>45573</v>
+        <v>45637</v>
       </c>
       <c r="E24" s="9">
-        <v>45579</v>
+        <v>45643</v>
       </c>
       <c r="F24" s="9">
-        <v>45579</v>
+        <v>45643</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1586,27 +1594,29 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>22</v>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="9">
-        <v>45573</v>
+        <v>45644</v>
       </c>
       <c r="D25" s="9">
-        <v>45573</v>
+        <v>45644</v>
       </c>
       <c r="E25" s="9">
-        <v>45579</v>
+        <v>45647</v>
       </c>
       <c r="F25" s="9">
-        <v>45579</v>
+        <v>45647</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1626,27 +1636,29 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>23</v>
+      <c r="B26" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="9">
-        <v>45573</v>
+        <v>45644</v>
       </c>
       <c r="D26" s="9">
-        <v>45573</v>
+        <v>45644</v>
       </c>
       <c r="E26" s="9">
-        <v>45579</v>
+        <v>45648</v>
       </c>
       <c r="F26" s="9">
-        <v>45579</v>
+        <v>45648</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1666,28 +1678,16 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D27" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E27" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F27" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1706,30 +1706,16 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>22</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9">
-        <v>45573</v>
-      </c>
-      <c r="D28" s="9">
-        <v>45573</v>
-      </c>
-      <c r="E28" s="9">
-        <v>45579</v>
-      </c>
-      <c r="F28" s="9">
-        <v>45579</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="6"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -6761,16 +6747,16 @@
       <c r="Z207" s="1"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -6789,16 +6775,16 @@
       <c r="Z208" s="1"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
@@ -6818,7 +6804,7 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -6846,7 +6832,7 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -6855,26 +6841,26 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
-      <c r="Y211" s="1"/>
-      <c r="Z211" s="1"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
+      <c r="Z211" s="4"/>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -6883,26 +6869,26 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
-      <c r="U212" s="1"/>
-      <c r="V212" s="1"/>
-      <c r="W212" s="1"/>
-      <c r="X212" s="1"/>
-      <c r="Y212" s="1"/>
-      <c r="Z212" s="1"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+      <c r="X212" s="4"/>
+      <c r="Y212" s="4"/>
+      <c r="Z212" s="4"/>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -6930,7 +6916,7 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="14"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -6958,7 +6944,7 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -6986,7 +6972,7 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -7014,7 +7000,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7042,7 +7028,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7070,7 +7056,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7098,7 +7084,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7126,7 +7112,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7154,7 +7140,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7182,7 +7168,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7210,7 +7196,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="14"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7238,7 +7224,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7266,7 +7252,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7294,7 +7280,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7322,7 +7308,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7350,7 +7336,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="14"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7378,7 +7364,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7406,7 +7392,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7434,7 +7420,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7462,7 +7448,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7490,7 +7476,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="14"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7518,7 +7504,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7546,7 +7532,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7574,7 +7560,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7602,7 +7588,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7630,7 +7616,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="14"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7658,7 +7644,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7686,7 +7672,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7714,7 +7700,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7742,7 +7728,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7770,7 +7756,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="14"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7798,7 +7784,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7826,7 +7812,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7854,7 +7840,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7882,7 +7868,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7910,7 +7896,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7938,7 +7924,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="14"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -7966,7 +7952,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -7994,7 +7980,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -8022,7 +8008,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -8050,7 +8036,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -8078,7 +8064,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -8106,7 +8092,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8134,7 +8120,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8162,7 +8148,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8190,7 +8176,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8218,7 +8204,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="15"/>
+      <c r="B260" s="14"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8246,7 +8232,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="15"/>
+      <c r="B261" s="14"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8274,7 +8260,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="15"/>
+      <c r="B262" s="14"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8302,7 +8288,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="15"/>
+      <c r="B263" s="14"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8330,7 +8316,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="15"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8358,7 +8344,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="15"/>
+      <c r="B265" s="14"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8386,7 +8372,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="14"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8414,7 +8400,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="14"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8442,7 +8428,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="14"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8470,7 +8456,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8498,7 +8484,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="15"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8526,7 +8512,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="14"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8554,7 +8540,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="15"/>
+      <c r="B272" s="14"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8582,7 +8568,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="14"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8610,7 +8596,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8638,7 +8624,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="14"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8666,7 +8652,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="B276" s="15"/>
+      <c r="B276" s="14"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8694,7 +8680,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="14"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8722,7 +8708,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8750,7 +8736,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8778,7 +8764,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="14"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8806,7 +8792,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="B281" s="15"/>
+      <c r="B281" s="14"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8834,7 +8820,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="B282" s="15"/>
+      <c r="B282" s="14"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8862,7 +8848,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="B283" s="15"/>
+      <c r="B283" s="14"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8890,7 +8876,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="15"/>
+      <c r="B284" s="14"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8918,7 +8904,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="15"/>
+      <c r="B285" s="14"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -8946,7 +8932,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="15"/>
+      <c r="B286" s="14"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -8974,7 +8960,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="B287" s="15"/>
+      <c r="B287" s="14"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -9002,7 +8988,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="B288" s="15"/>
+      <c r="B288" s="14"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -9030,7 +9016,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="B289" s="15"/>
+      <c r="B289" s="14"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -9058,7 +9044,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="B290" s="15"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -9086,7 +9072,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="B291" s="15"/>
+      <c r="B291" s="14"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -9114,7 +9100,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="B292" s="15"/>
+      <c r="B292" s="14"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -9142,7 +9128,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="B293" s="15"/>
+      <c r="B293" s="14"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9170,7 +9156,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="15"/>
+      <c r="B294" s="14"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9198,7 +9184,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="15"/>
+      <c r="B295" s="14"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9226,7 +9212,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="15"/>
+      <c r="B296" s="14"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9254,7 +9240,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="15"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9282,7 +9268,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="B298" s="15"/>
+      <c r="B298" s="14"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9310,7 +9296,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="B299" s="15"/>
+      <c r="B299" s="14"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9338,7 +9324,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="B300" s="15"/>
+      <c r="B300" s="14"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9366,7 +9352,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="B301" s="15"/>
+      <c r="B301" s="14"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9394,7 +9380,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="B302" s="15"/>
+      <c r="B302" s="14"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9422,7 +9408,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="B303" s="15"/>
+      <c r="B303" s="14"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9450,7 +9436,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="15"/>
+      <c r="B304" s="14"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9478,7 +9464,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="15"/>
+      <c r="B305" s="14"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9506,7 +9492,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="15"/>
+      <c r="B306" s="14"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9534,7 +9520,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="B307" s="15"/>
+      <c r="B307" s="14"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9562,7 +9548,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="B308" s="15"/>
+      <c r="B308" s="14"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9590,7 +9576,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="15"/>
+      <c r="B309" s="14"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9618,7 +9604,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="15"/>
+      <c r="B310" s="14"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9646,7 +9632,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="15"/>
+      <c r="B311" s="14"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9674,7 +9660,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="15"/>
+      <c r="B312" s="14"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9702,7 +9688,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="15"/>
+      <c r="B313" s="14"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9730,7 +9716,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="15"/>
+      <c r="B314" s="14"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9758,7 +9744,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="15"/>
+      <c r="B315" s="14"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9786,7 +9772,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="15"/>
+      <c r="B316" s="14"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9814,7 +9800,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="15"/>
+      <c r="B317" s="14"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9842,7 +9828,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="15"/>
+      <c r="B318" s="14"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9870,7 +9856,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="15"/>
+      <c r="B319" s="14"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9898,7 +9884,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="B320" s="15"/>
+      <c r="B320" s="14"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9926,7 +9912,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="15"/>
+      <c r="B321" s="14"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9954,7 +9940,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="15"/>
+      <c r="B322" s="14"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -9982,7 +9968,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="15"/>
+      <c r="B323" s="14"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -10010,7 +9996,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="B324" s="15"/>
+      <c r="B324" s="14"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -10038,7 +10024,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="B325" s="15"/>
+      <c r="B325" s="14"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -10066,7 +10052,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="B326" s="15"/>
+      <c r="B326" s="14"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -10094,7 +10080,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="B327" s="15"/>
+      <c r="B327" s="14"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -10122,7 +10108,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="B328" s="15"/>
+      <c r="B328" s="14"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -10150,7 +10136,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="B329" s="15"/>
+      <c r="B329" s="14"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10178,7 +10164,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="B330" s="15"/>
+      <c r="B330" s="14"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10206,7 +10192,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="B331" s="15"/>
+      <c r="B331" s="14"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10234,7 +10220,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="B332" s="15"/>
+      <c r="B332" s="14"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10262,7 +10248,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="B333" s="15"/>
+      <c r="B333" s="14"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10290,7 +10276,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="B334" s="15"/>
+      <c r="B334" s="14"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10318,7 +10304,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="B335" s="15"/>
+      <c r="B335" s="14"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10346,7 +10332,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="B336" s="15"/>
+      <c r="B336" s="14"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10374,7 +10360,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="B337" s="15"/>
+      <c r="B337" s="14"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10402,7 +10388,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="B338" s="15"/>
+      <c r="B338" s="14"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10430,7 +10416,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="15"/>
+      <c r="B339" s="14"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10458,7 +10444,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="15"/>
+      <c r="B340" s="14"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10486,7 +10472,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="15"/>
+      <c r="B341" s="14"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10514,7 +10500,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="B342" s="15"/>
+      <c r="B342" s="14"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10542,7 +10528,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="15"/>
+      <c r="B343" s="14"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10570,7 +10556,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="15"/>
+      <c r="B344" s="14"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10598,7 +10584,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="15"/>
+      <c r="B345" s="14"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10626,7 +10612,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="15"/>
+      <c r="B346" s="14"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10654,7 +10640,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="15"/>
+      <c r="B347" s="14"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10682,7 +10668,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="15"/>
+      <c r="B348" s="14"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10710,7 +10696,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="15"/>
+      <c r="B349" s="14"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10738,7 +10724,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="15"/>
+      <c r="B350" s="14"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10766,7 +10752,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="15"/>
+      <c r="B351" s="14"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10794,7 +10780,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="15"/>
+      <c r="B352" s="14"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10822,7 +10808,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="15"/>
+      <c r="B353" s="14"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10850,7 +10836,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="15"/>
+      <c r="B354" s="14"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10878,7 +10864,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="15"/>
+      <c r="B355" s="14"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10906,7 +10892,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="15"/>
+      <c r="B356" s="14"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10934,7 +10920,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="15"/>
+      <c r="B357" s="14"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -10962,7 +10948,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="15"/>
+      <c r="B358" s="14"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -10990,7 +10976,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="15"/>
+      <c r="B359" s="14"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -11018,7 +11004,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="15"/>
+      <c r="B360" s="14"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -11046,7 +11032,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="15"/>
+      <c r="B361" s="14"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -11074,7 +11060,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="15"/>
+      <c r="B362" s="14"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -11102,7 +11088,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="15"/>
+      <c r="B363" s="14"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11130,7 +11116,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="15"/>
+      <c r="B364" s="14"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11158,7 +11144,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="15"/>
+      <c r="B365" s="14"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11186,7 +11172,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="15"/>
+      <c r="B366" s="14"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11214,7 +11200,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="B367" s="15"/>
+      <c r="B367" s="14"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11242,7 +11228,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="B368" s="15"/>
+      <c r="B368" s="14"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11270,7 +11256,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="B369" s="15"/>
+      <c r="B369" s="14"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11298,7 +11284,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="B370" s="15"/>
+      <c r="B370" s="14"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11326,7 +11312,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="B371" s="15"/>
+      <c r="B371" s="14"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11354,7 +11340,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="B372" s="15"/>
+      <c r="B372" s="14"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11382,7 +11368,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="B373" s="15"/>
+      <c r="B373" s="14"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11410,7 +11396,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="B374" s="15"/>
+      <c r="B374" s="14"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11438,7 +11424,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="15"/>
+      <c r="B375" s="14"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11466,7 +11452,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="15"/>
+      <c r="B376" s="14"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11494,7 +11480,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="15"/>
+      <c r="B377" s="14"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11522,7 +11508,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="15"/>
+      <c r="B378" s="14"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11550,7 +11536,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="15"/>
+      <c r="B379" s="14"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11578,7 +11564,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="15"/>
+      <c r="B380" s="14"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11606,7 +11592,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="15"/>
+      <c r="B381" s="14"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11634,7 +11620,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="15"/>
+      <c r="B382" s="14"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11662,7 +11648,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="15"/>
+      <c r="B383" s="14"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11690,7 +11676,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="15"/>
+      <c r="B384" s="14"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11718,7 +11704,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="15"/>
+      <c r="B385" s="14"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11746,7 +11732,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="15"/>
+      <c r="B386" s="14"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11774,7 +11760,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="15"/>
+      <c r="B387" s="14"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11802,7 +11788,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="15"/>
+      <c r="B388" s="14"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11830,7 +11816,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="15"/>
+      <c r="B389" s="14"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11858,7 +11844,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="15"/>
+      <c r="B390" s="14"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -11886,7 +11872,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="15"/>
+      <c r="B391" s="14"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -11914,7 +11900,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="15"/>
+      <c r="B392" s="14"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -11942,7 +11928,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="15"/>
+      <c r="B393" s="14"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -11970,7 +11956,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="15"/>
+      <c r="B394" s="14"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -11998,7 +11984,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="15"/>
+      <c r="B395" s="14"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -12026,7 +12012,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="15"/>
+      <c r="B396" s="14"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -12054,7 +12040,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="15"/>
+      <c r="B397" s="14"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -12082,7 +12068,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="15"/>
+      <c r="B398" s="14"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -12110,7 +12096,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="15"/>
+      <c r="B399" s="14"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12138,7 +12124,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="15"/>
+      <c r="B400" s="14"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12166,7 +12152,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="15"/>
+      <c r="B401" s="14"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12194,7 +12180,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="15"/>
+      <c r="B402" s="14"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12222,7 +12208,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="15"/>
+      <c r="B403" s="14"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12250,7 +12236,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="15"/>
+      <c r="B404" s="14"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12278,7 +12264,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="15"/>
+      <c r="B405" s="14"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12306,7 +12292,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="15"/>
+      <c r="B406" s="14"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12334,7 +12320,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="15"/>
+      <c r="B407" s="14"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12362,7 +12348,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="15"/>
+      <c r="B408" s="14"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12390,7 +12376,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="15"/>
+      <c r="B409" s="14"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12418,7 +12404,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="15"/>
+      <c r="B410" s="14"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12446,7 +12432,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="15"/>
+      <c r="B411" s="14"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12474,7 +12460,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="B412" s="15"/>
+      <c r="B412" s="14"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12502,7 +12488,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="15"/>
+      <c r="B413" s="14"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12530,7 +12516,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="B414" s="15"/>
+      <c r="B414" s="14"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12558,7 +12544,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="15"/>
+      <c r="B415" s="14"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12586,7 +12572,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="B416" s="15"/>
+      <c r="B416" s="14"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12614,7 +12600,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="B417" s="15"/>
+      <c r="B417" s="14"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12642,7 +12628,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="15"/>
+      <c r="B418" s="14"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12670,7 +12656,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="15"/>
+      <c r="B419" s="14"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12698,7 +12684,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="15"/>
+      <c r="B420" s="14"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12726,7 +12712,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="15"/>
+      <c r="B421" s="14"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12754,7 +12740,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="15"/>
+      <c r="B422" s="14"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12782,7 +12768,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="15"/>
+      <c r="B423" s="14"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12810,7 +12796,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="15"/>
+      <c r="B424" s="14"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12838,7 +12824,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="15"/>
+      <c r="B425" s="14"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -12866,7 +12852,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="15"/>
+      <c r="B426" s="14"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -12894,7 +12880,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="15"/>
+      <c r="B427" s="14"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -12922,7 +12908,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="15"/>
+      <c r="B428" s="14"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -12950,7 +12936,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="15"/>
+      <c r="B429" s="14"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -12978,7 +12964,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="15"/>
+      <c r="B430" s="14"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -13006,7 +12992,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="15"/>
+      <c r="B431" s="14"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -13034,7 +13020,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="15"/>
+      <c r="B432" s="14"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -13062,7 +13048,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="15"/>
+      <c r="B433" s="14"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -13090,7 +13076,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="15"/>
+      <c r="B434" s="14"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -13118,7 +13104,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="15"/>
+      <c r="B435" s="14"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13146,7 +13132,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="15"/>
+      <c r="B436" s="14"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13174,7 +13160,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="15"/>
+      <c r="B437" s="14"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13202,7 +13188,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="15"/>
+      <c r="B438" s="14"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13230,7 +13216,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="15"/>
+      <c r="B439" s="14"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13258,7 +13244,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="15"/>
+      <c r="B440" s="14"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13286,7 +13272,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="15"/>
+      <c r="B441" s="14"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13314,7 +13300,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="15"/>
+      <c r="B442" s="14"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13342,7 +13328,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="15"/>
+      <c r="B443" s="14"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13370,7 +13356,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="15"/>
+      <c r="B444" s="14"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13398,7 +13384,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="15"/>
+      <c r="B445" s="14"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13426,7 +13412,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="15"/>
+      <c r="B446" s="14"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13454,7 +13440,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="15"/>
+      <c r="B447" s="14"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13482,7 +13468,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="15"/>
+      <c r="B448" s="14"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13510,7 +13496,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="15"/>
+      <c r="B449" s="14"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13538,7 +13524,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="15"/>
+      <c r="B450" s="14"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13566,7 +13552,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="15"/>
+      <c r="B451" s="14"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13594,7 +13580,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="15"/>
+      <c r="B452" s="14"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13622,7 +13608,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="15"/>
+      <c r="B453" s="14"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13650,7 +13636,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="15"/>
+      <c r="B454" s="14"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13678,7 +13664,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="15"/>
+      <c r="B455" s="14"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13706,7 +13692,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="15"/>
+      <c r="B456" s="14"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13734,7 +13720,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="15"/>
+      <c r="B457" s="14"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13762,7 +13748,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="15"/>
+      <c r="B458" s="14"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13790,7 +13776,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="15"/>
+      <c r="B459" s="14"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13818,7 +13804,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="15"/>
+      <c r="B460" s="14"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13846,7 +13832,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="15"/>
+      <c r="B461" s="14"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -13874,7 +13860,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="15"/>
+      <c r="B462" s="14"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -13902,7 +13888,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="15"/>
+      <c r="B463" s="14"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -13930,7 +13916,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="15"/>
+      <c r="B464" s="14"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -13958,7 +13944,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="15"/>
+      <c r="B465" s="14"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -13986,7 +13972,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="15"/>
+      <c r="B466" s="14"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -14014,7 +14000,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="15"/>
+      <c r="B467" s="14"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -14042,7 +14028,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="15"/>
+      <c r="B468" s="14"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -14070,7 +14056,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="15"/>
+      <c r="B469" s="14"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -14098,7 +14084,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="15"/>
+      <c r="B470" s="14"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14126,7 +14112,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="15"/>
+      <c r="B471" s="14"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14154,7 +14140,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="15"/>
+      <c r="B472" s="14"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14182,7 +14168,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="15"/>
+      <c r="B473" s="14"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14210,7 +14196,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="15"/>
+      <c r="B474" s="14"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14238,7 +14224,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="15"/>
+      <c r="B475" s="14"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14266,7 +14252,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="15"/>
+      <c r="B476" s="14"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14294,7 +14280,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="15"/>
+      <c r="B477" s="14"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14322,7 +14308,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="15"/>
+      <c r="B478" s="14"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14350,7 +14336,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="15"/>
+      <c r="B479" s="14"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14378,7 +14364,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="15"/>
+      <c r="B480" s="14"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14406,7 +14392,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="15"/>
+      <c r="B481" s="14"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14434,7 +14420,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="15"/>
+      <c r="B482" s="14"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14462,7 +14448,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="15"/>
+      <c r="B483" s="14"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14490,7 +14476,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="B484" s="15"/>
+      <c r="B484" s="14"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14518,7 +14504,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="B485" s="15"/>
+      <c r="B485" s="14"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14546,7 +14532,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="B486" s="15"/>
+      <c r="B486" s="14"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14574,7 +14560,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="B487" s="15"/>
+      <c r="B487" s="14"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14602,7 +14588,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="B488" s="15"/>
+      <c r="B488" s="14"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14630,7 +14616,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="B489" s="15"/>
+      <c r="B489" s="14"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14658,7 +14644,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="B490" s="15"/>
+      <c r="B490" s="14"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14686,7 +14672,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="B491" s="15"/>
+      <c r="B491" s="14"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14714,7 +14700,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="B492" s="15"/>
+      <c r="B492" s="14"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14742,7 +14728,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="B493" s="15"/>
+      <c r="B493" s="14"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14770,7 +14756,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="B494" s="15"/>
+      <c r="B494" s="14"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14798,7 +14784,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="B495" s="15"/>
+      <c r="B495" s="14"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14826,7 +14812,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="B496" s="15"/>
+      <c r="B496" s="14"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14854,7 +14840,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="B497" s="15"/>
+      <c r="B497" s="14"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14882,7 +14868,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="B498" s="15"/>
+      <c r="B498" s="14"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14910,7 +14896,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="B499" s="15"/>
+      <c r="B499" s="14"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14938,7 +14924,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="B500" s="15"/>
+      <c r="B500" s="14"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -14966,7 +14952,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="B501" s="15"/>
+      <c r="B501" s="14"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -14994,7 +14980,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="B502" s="15"/>
+      <c r="B502" s="14"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -15022,7 +15008,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="B503" s="15"/>
+      <c r="B503" s="14"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -15050,7 +15036,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="B504" s="15"/>
+      <c r="B504" s="14"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -15078,7 +15064,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="B505" s="15"/>
+      <c r="B505" s="14"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -15106,7 +15092,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="B506" s="15"/>
+      <c r="B506" s="14"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15134,7 +15120,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="B507" s="15"/>
+      <c r="B507" s="14"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15162,7 +15148,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="B508" s="15"/>
+      <c r="B508" s="14"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15190,7 +15176,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="B509" s="15"/>
+      <c r="B509" s="14"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15218,7 +15204,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="B510" s="15"/>
+      <c r="B510" s="14"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15246,7 +15232,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="B511" s="15"/>
+      <c r="B511" s="14"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15274,7 +15260,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="B512" s="15"/>
+      <c r="B512" s="14"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15302,7 +15288,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="B513" s="15"/>
+      <c r="B513" s="14"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15330,7 +15316,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="B514" s="15"/>
+      <c r="B514" s="14"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15358,7 +15344,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="B515" s="15"/>
+      <c r="B515" s="14"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15386,7 +15372,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="B516" s="15"/>
+      <c r="B516" s="14"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15414,7 +15400,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="B517" s="15"/>
+      <c r="B517" s="14"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15442,7 +15428,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="B518" s="15"/>
+      <c r="B518" s="14"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15470,7 +15456,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="B519" s="15"/>
+      <c r="B519" s="14"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15498,7 +15484,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="B520" s="15"/>
+      <c r="B520" s="14"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15526,7 +15512,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="B521" s="15"/>
+      <c r="B521" s="14"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15554,7 +15540,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="B522" s="15"/>
+      <c r="B522" s="14"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15582,7 +15568,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="B523" s="15"/>
+      <c r="B523" s="14"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15610,7 +15596,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="B524" s="15"/>
+      <c r="B524" s="14"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15638,7 +15624,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="B525" s="15"/>
+      <c r="B525" s="14"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15666,7 +15652,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="B526" s="15"/>
+      <c r="B526" s="14"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15694,7 +15680,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="B527" s="15"/>
+      <c r="B527" s="14"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15722,7 +15708,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="B528" s="15"/>
+      <c r="B528" s="14"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15750,7 +15736,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
-      <c r="B529" s="15"/>
+      <c r="B529" s="14"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15778,7 +15764,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
-      <c r="B530" s="15"/>
+      <c r="B530" s="14"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15806,7 +15792,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
-      <c r="B531" s="15"/>
+      <c r="B531" s="14"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15834,7 +15820,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
-      <c r="B532" s="15"/>
+      <c r="B532" s="14"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15862,7 +15848,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
-      <c r="B533" s="15"/>
+      <c r="B533" s="14"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15890,7 +15876,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
-      <c r="B534" s="15"/>
+      <c r="B534" s="14"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15918,7 +15904,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
-      <c r="B535" s="15"/>
+      <c r="B535" s="14"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -15946,7 +15932,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
-      <c r="B536" s="15"/>
+      <c r="B536" s="14"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -15974,7 +15960,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
-      <c r="B537" s="15"/>
+      <c r="B537" s="14"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -16002,7 +15988,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
-      <c r="B538" s="15"/>
+      <c r="B538" s="14"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -16030,7 +16016,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
-      <c r="B539" s="15"/>
+      <c r="B539" s="14"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -16058,7 +16044,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
-      <c r="B540" s="15"/>
+      <c r="B540" s="14"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -16086,7 +16072,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
-      <c r="B541" s="15"/>
+      <c r="B541" s="14"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -16114,7 +16100,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
-      <c r="B542" s="15"/>
+      <c r="B542" s="14"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -16142,7 +16128,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
-      <c r="B543" s="15"/>
+      <c r="B543" s="14"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16170,7 +16156,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
-      <c r="B544" s="15"/>
+      <c r="B544" s="14"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16198,7 +16184,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
-      <c r="B545" s="15"/>
+      <c r="B545" s="14"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16226,7 +16212,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
-      <c r="B546" s="15"/>
+      <c r="B546" s="14"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16254,7 +16240,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
-      <c r="B547" s="15"/>
+      <c r="B547" s="14"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16282,7 +16268,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
-      <c r="B548" s="15"/>
+      <c r="B548" s="14"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16310,7 +16296,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
-      <c r="B549" s="15"/>
+      <c r="B549" s="14"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16338,7 +16324,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
-      <c r="B550" s="15"/>
+      <c r="B550" s="14"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16366,7 +16352,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
-      <c r="B551" s="15"/>
+      <c r="B551" s="14"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16394,7 +16380,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
-      <c r="B552" s="15"/>
+      <c r="B552" s="14"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16422,7 +16408,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
-      <c r="B553" s="15"/>
+      <c r="B553" s="14"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16450,7 +16436,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
-      <c r="B554" s="15"/>
+      <c r="B554" s="14"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16478,7 +16464,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
-      <c r="B555" s="15"/>
+      <c r="B555" s="14"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16506,7 +16492,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
-      <c r="B556" s="15"/>
+      <c r="B556" s="14"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16534,7 +16520,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
-      <c r="B557" s="15"/>
+      <c r="B557" s="14"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16562,7 +16548,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
-      <c r="B558" s="15"/>
+      <c r="B558" s="14"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16590,7 +16576,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
-      <c r="B559" s="15"/>
+      <c r="B559" s="14"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16618,7 +16604,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
-      <c r="B560" s="15"/>
+      <c r="B560" s="14"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16646,7 +16632,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
-      <c r="B561" s="15"/>
+      <c r="B561" s="14"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16674,7 +16660,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
-      <c r="B562" s="15"/>
+      <c r="B562" s="14"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16702,7 +16688,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
-      <c r="B563" s="15"/>
+      <c r="B563" s="14"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16730,7 +16716,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
-      <c r="B564" s="15"/>
+      <c r="B564" s="14"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16758,7 +16744,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
-      <c r="B565" s="15"/>
+      <c r="B565" s="14"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16786,7 +16772,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
-      <c r="B566" s="15"/>
+      <c r="B566" s="14"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16814,7 +16800,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
-      <c r="B567" s="15"/>
+      <c r="B567" s="14"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16842,7 +16828,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
-      <c r="B568" s="15"/>
+      <c r="B568" s="14"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -16870,7 +16856,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
-      <c r="B569" s="15"/>
+      <c r="B569" s="14"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -16898,7 +16884,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
-      <c r="B570" s="15"/>
+      <c r="B570" s="14"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -16926,7 +16912,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
-      <c r="B571" s="15"/>
+      <c r="B571" s="14"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -16954,7 +16940,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
-      <c r="B572" s="15"/>
+      <c r="B572" s="14"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -16982,7 +16968,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
-      <c r="B573" s="15"/>
+      <c r="B573" s="14"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -17010,7 +16996,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
-      <c r="B574" s="15"/>
+      <c r="B574" s="14"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -17038,7 +17024,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
-      <c r="B575" s="15"/>
+      <c r="B575" s="14"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -17066,7 +17052,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
-      <c r="B576" s="15"/>
+      <c r="B576" s="14"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -17094,7 +17080,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
-      <c r="B577" s="15"/>
+      <c r="B577" s="14"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -17122,7 +17108,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
-      <c r="B578" s="15"/>
+      <c r="B578" s="14"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -17150,7 +17136,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
-      <c r="B579" s="15"/>
+      <c r="B579" s="14"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17178,7 +17164,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
-      <c r="B580" s="15"/>
+      <c r="B580" s="14"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17206,7 +17192,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
-      <c r="B581" s="15"/>
+      <c r="B581" s="14"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17234,7 +17220,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
-      <c r="B582" s="15"/>
+      <c r="B582" s="14"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17262,7 +17248,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
-      <c r="B583" s="15"/>
+      <c r="B583" s="14"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17290,7 +17276,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
-      <c r="B584" s="15"/>
+      <c r="B584" s="14"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17318,7 +17304,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
-      <c r="B585" s="15"/>
+      <c r="B585" s="14"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17346,7 +17332,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
-      <c r="B586" s="15"/>
+      <c r="B586" s="14"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17374,7 +17360,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
-      <c r="B587" s="15"/>
+      <c r="B587" s="14"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17402,7 +17388,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
-      <c r="B588" s="15"/>
+      <c r="B588" s="14"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17430,7 +17416,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
-      <c r="B589" s="15"/>
+      <c r="B589" s="14"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17458,7 +17444,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
-      <c r="B590" s="15"/>
+      <c r="B590" s="14"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17486,7 +17472,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
-      <c r="B591" s="15"/>
+      <c r="B591" s="14"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17514,7 +17500,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
-      <c r="B592" s="15"/>
+      <c r="B592" s="14"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17542,7 +17528,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
-      <c r="B593" s="15"/>
+      <c r="B593" s="14"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17570,7 +17556,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
-      <c r="B594" s="15"/>
+      <c r="B594" s="14"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17598,7 +17584,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
-      <c r="B595" s="15"/>
+      <c r="B595" s="14"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17626,7 +17612,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
-      <c r="B596" s="15"/>
+      <c r="B596" s="14"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17654,7 +17640,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
-      <c r="B597" s="15"/>
+      <c r="B597" s="14"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17682,7 +17668,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
-      <c r="B598" s="15"/>
+      <c r="B598" s="14"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17710,7 +17696,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
-      <c r="B599" s="15"/>
+      <c r="B599" s="14"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17738,7 +17724,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
-      <c r="B600" s="15"/>
+      <c r="B600" s="14"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17766,7 +17752,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
-      <c r="B601" s="15"/>
+      <c r="B601" s="14"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17794,7 +17780,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
-      <c r="B602" s="15"/>
+      <c r="B602" s="14"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17822,7 +17808,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
-      <c r="B603" s="15"/>
+      <c r="B603" s="14"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17850,7 +17836,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
-      <c r="B604" s="15"/>
+      <c r="B604" s="14"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -17878,7 +17864,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
-      <c r="B605" s="15"/>
+      <c r="B605" s="14"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -17906,7 +17892,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
-      <c r="B606" s="15"/>
+      <c r="B606" s="14"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -17934,7 +17920,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
-      <c r="B607" s="15"/>
+      <c r="B607" s="14"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -17962,7 +17948,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
-      <c r="B608" s="15"/>
+      <c r="B608" s="14"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -17990,7 +17976,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
-      <c r="B609" s="15"/>
+      <c r="B609" s="14"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -18018,7 +18004,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
-      <c r="B610" s="15"/>
+      <c r="B610" s="14"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -18046,7 +18032,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
-      <c r="B611" s="15"/>
+      <c r="B611" s="14"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -18074,7 +18060,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
-      <c r="B612" s="15"/>
+      <c r="B612" s="14"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -18102,7 +18088,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
-      <c r="B613" s="15"/>
+      <c r="B613" s="14"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -18130,7 +18116,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
-      <c r="B614" s="15"/>
+      <c r="B614" s="14"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -18158,7 +18144,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
-      <c r="B615" s="15"/>
+      <c r="B615" s="14"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18186,7 +18172,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
-      <c r="B616" s="15"/>
+      <c r="B616" s="14"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18214,7 +18200,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
-      <c r="B617" s="15"/>
+      <c r="B617" s="14"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18242,7 +18228,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
-      <c r="B618" s="15"/>
+      <c r="B618" s="14"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18270,7 +18256,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
-      <c r="B619" s="15"/>
+      <c r="B619" s="14"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18298,7 +18284,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
-      <c r="B620" s="15"/>
+      <c r="B620" s="14"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18326,7 +18312,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
-      <c r="B621" s="15"/>
+      <c r="B621" s="14"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18354,7 +18340,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
-      <c r="B622" s="15"/>
+      <c r="B622" s="14"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18382,7 +18368,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
-      <c r="B623" s="15"/>
+      <c r="B623" s="14"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18410,7 +18396,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
-      <c r="B624" s="15"/>
+      <c r="B624" s="14"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18438,7 +18424,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
-      <c r="B625" s="15"/>
+      <c r="B625" s="14"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18466,7 +18452,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
-      <c r="B626" s="15"/>
+      <c r="B626" s="14"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18494,7 +18480,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
-      <c r="B627" s="15"/>
+      <c r="B627" s="14"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18522,7 +18508,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
-      <c r="B628" s="15"/>
+      <c r="B628" s="14"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18550,7 +18536,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
-      <c r="B629" s="15"/>
+      <c r="B629" s="14"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18578,7 +18564,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
-      <c r="B630" s="15"/>
+      <c r="B630" s="14"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18606,7 +18592,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
-      <c r="B631" s="15"/>
+      <c r="B631" s="14"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18634,7 +18620,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
-      <c r="B632" s="15"/>
+      <c r="B632" s="14"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18662,7 +18648,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
-      <c r="B633" s="15"/>
+      <c r="B633" s="14"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18690,7 +18676,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
-      <c r="B634" s="15"/>
+      <c r="B634" s="14"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18718,7 +18704,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="B635" s="15"/>
+      <c r="B635" s="14"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18746,7 +18732,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
-      <c r="B636" s="15"/>
+      <c r="B636" s="14"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18774,7 +18760,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
-      <c r="B637" s="15"/>
+      <c r="B637" s="14"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18802,7 +18788,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
-      <c r="B638" s="15"/>
+      <c r="B638" s="14"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18830,7 +18816,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
-      <c r="B639" s="15"/>
+      <c r="B639" s="14"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18858,7 +18844,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
-      <c r="B640" s="15"/>
+      <c r="B640" s="14"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -18886,7 +18872,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
-      <c r="B641" s="15"/>
+      <c r="B641" s="14"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -18914,7 +18900,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
-      <c r="B642" s="15"/>
+      <c r="B642" s="14"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -18942,7 +18928,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
-      <c r="B643" s="15"/>
+      <c r="B643" s="14"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -18970,7 +18956,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
-      <c r="B644" s="15"/>
+      <c r="B644" s="14"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -18998,7 +18984,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
-      <c r="B645" s="15"/>
+      <c r="B645" s="14"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -19026,7 +19012,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-      <c r="B646" s="15"/>
+      <c r="B646" s="14"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -19054,7 +19040,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
-      <c r="B647" s="15"/>
+      <c r="B647" s="14"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -19082,7 +19068,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="B648" s="15"/>
+      <c r="B648" s="14"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -19110,7 +19096,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="B649" s="15"/>
+      <c r="B649" s="14"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -19138,7 +19124,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="B650" s="15"/>
+      <c r="B650" s="14"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19166,7 +19152,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
-      <c r="B651" s="15"/>
+      <c r="B651" s="14"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19194,7 +19180,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
-      <c r="B652" s="15"/>
+      <c r="B652" s="14"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19222,7 +19208,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
-      <c r="B653" s="15"/>
+      <c r="B653" s="14"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19250,7 +19236,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
-      <c r="B654" s="15"/>
+      <c r="B654" s="14"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19278,7 +19264,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
-      <c r="B655" s="15"/>
+      <c r="B655" s="14"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19306,7 +19292,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
-      <c r="B656" s="15"/>
+      <c r="B656" s="14"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19334,7 +19320,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
-      <c r="B657" s="15"/>
+      <c r="B657" s="14"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19362,7 +19348,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="B658" s="15"/>
+      <c r="B658" s="14"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19390,7 +19376,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
-      <c r="B659" s="15"/>
+      <c r="B659" s="14"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19418,7 +19404,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
-      <c r="B660" s="15"/>
+      <c r="B660" s="14"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19446,7 +19432,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
-      <c r="B661" s="15"/>
+      <c r="B661" s="14"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19474,7 +19460,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="B662" s="15"/>
+      <c r="B662" s="14"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19502,7 +19488,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
-      <c r="B663" s="15"/>
+      <c r="B663" s="14"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19530,7 +19516,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
-      <c r="B664" s="15"/>
+      <c r="B664" s="14"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19558,7 +19544,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="B665" s="15"/>
+      <c r="B665" s="14"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19586,7 +19572,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="B666" s="15"/>
+      <c r="B666" s="14"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19614,7 +19600,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="B667" s="15"/>
+      <c r="B667" s="14"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19642,7 +19628,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
-      <c r="B668" s="15"/>
+      <c r="B668" s="14"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19670,7 +19656,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
-      <c r="B669" s="15"/>
+      <c r="B669" s="14"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19698,7 +19684,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
-      <c r="B670" s="15"/>
+      <c r="B670" s="14"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19726,7 +19712,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
-      <c r="B671" s="15"/>
+      <c r="B671" s="14"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19754,7 +19740,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
-      <c r="B672" s="15"/>
+      <c r="B672" s="14"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19782,7 +19768,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
-      <c r="B673" s="15"/>
+      <c r="B673" s="14"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19810,7 +19796,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
-      <c r="B674" s="15"/>
+      <c r="B674" s="14"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19838,7 +19824,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
-      <c r="B675" s="15"/>
+      <c r="B675" s="14"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -19866,7 +19852,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
-      <c r="B676" s="15"/>
+      <c r="B676" s="14"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -19894,7 +19880,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="B677" s="15"/>
+      <c r="B677" s="14"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -19922,7 +19908,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="B678" s="15"/>
+      <c r="B678" s="14"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -19950,7 +19936,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="B679" s="15"/>
+      <c r="B679" s="14"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -19978,7 +19964,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
-      <c r="B680" s="15"/>
+      <c r="B680" s="14"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -20006,7 +19992,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-      <c r="B681" s="15"/>
+      <c r="B681" s="14"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -20034,7 +20020,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-      <c r="B682" s="15"/>
+      <c r="B682" s="14"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -20062,7 +20048,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="B683" s="15"/>
+      <c r="B683" s="14"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -20090,7 +20076,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="B684" s="15"/>
+      <c r="B684" s="14"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -20118,7 +20104,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
-      <c r="B685" s="15"/>
+      <c r="B685" s="14"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -20146,7 +20132,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
-      <c r="B686" s="15"/>
+      <c r="B686" s="14"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20174,7 +20160,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
-      <c r="B687" s="15"/>
+      <c r="B687" s="14"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20202,7 +20188,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
-      <c r="B688" s="15"/>
+      <c r="B688" s="14"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20230,7 +20216,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
-      <c r="B689" s="15"/>
+      <c r="B689" s="14"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20258,7 +20244,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
-      <c r="B690" s="15"/>
+      <c r="B690" s="14"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20286,7 +20272,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
-      <c r="B691" s="15"/>
+      <c r="B691" s="14"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20314,7 +20300,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
-      <c r="B692" s="15"/>
+      <c r="B692" s="14"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20342,7 +20328,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
-      <c r="B693" s="15"/>
+      <c r="B693" s="14"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20370,7 +20356,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
-      <c r="B694" s="15"/>
+      <c r="B694" s="14"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20398,7 +20384,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="B695" s="15"/>
+      <c r="B695" s="14"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20426,7 +20412,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="B696" s="15"/>
+      <c r="B696" s="14"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20454,7 +20440,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="B697" s="15"/>
+      <c r="B697" s="14"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20482,7 +20468,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="B698" s="15"/>
+      <c r="B698" s="14"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20510,7 +20496,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
-      <c r="B699" s="15"/>
+      <c r="B699" s="14"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20538,7 +20524,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
-      <c r="B700" s="15"/>
+      <c r="B700" s="14"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20566,7 +20552,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
-      <c r="B701" s="15"/>
+      <c r="B701" s="14"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20594,7 +20580,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
-      <c r="B702" s="15"/>
+      <c r="B702" s="14"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20622,7 +20608,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
-      <c r="B703" s="15"/>
+      <c r="B703" s="14"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20650,7 +20636,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
-      <c r="B704" s="15"/>
+      <c r="B704" s="14"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20678,7 +20664,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
-      <c r="B705" s="15"/>
+      <c r="B705" s="14"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20706,7 +20692,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
-      <c r="B706" s="15"/>
+      <c r="B706" s="14"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20734,7 +20720,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
-      <c r="B707" s="15"/>
+      <c r="B707" s="14"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20762,7 +20748,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
-      <c r="B708" s="15"/>
+      <c r="B708" s="14"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20790,7 +20776,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
-      <c r="B709" s="15"/>
+      <c r="B709" s="14"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20818,7 +20804,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
-      <c r="B710" s="15"/>
+      <c r="B710" s="14"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20846,7 +20832,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
-      <c r="B711" s="15"/>
+      <c r="B711" s="14"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -20874,7 +20860,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
-      <c r="B712" s="15"/>
+      <c r="B712" s="14"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -20902,7 +20888,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
-      <c r="B713" s="15"/>
+      <c r="B713" s="14"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -20930,7 +20916,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
-      <c r="B714" s="15"/>
+      <c r="B714" s="14"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -20958,7 +20944,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
-      <c r="B715" s="15"/>
+      <c r="B715" s="14"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -20986,7 +20972,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
-      <c r="B716" s="15"/>
+      <c r="B716" s="14"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -21014,7 +21000,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
-      <c r="B717" s="15"/>
+      <c r="B717" s="14"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -21042,7 +21028,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
-      <c r="B718" s="15"/>
+      <c r="B718" s="14"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -21070,7 +21056,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
-      <c r="B719" s="15"/>
+      <c r="B719" s="14"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -21098,7 +21084,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
-      <c r="B720" s="15"/>
+      <c r="B720" s="14"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -21126,7 +21112,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
-      <c r="B721" s="15"/>
+      <c r="B721" s="14"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -21154,7 +21140,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
-      <c r="B722" s="15"/>
+      <c r="B722" s="14"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21182,7 +21168,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
-      <c r="B723" s="15"/>
+      <c r="B723" s="14"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21210,7 +21196,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
-      <c r="B724" s="15"/>
+      <c r="B724" s="14"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21238,7 +21224,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
-      <c r="B725" s="15"/>
+      <c r="B725" s="14"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21266,7 +21252,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
-      <c r="B726" s="15"/>
+      <c r="B726" s="14"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21294,7 +21280,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
-      <c r="B727" s="15"/>
+      <c r="B727" s="14"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21322,7 +21308,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
-      <c r="B728" s="15"/>
+      <c r="B728" s="14"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21350,7 +21336,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
-      <c r="B729" s="15"/>
+      <c r="B729" s="14"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21378,7 +21364,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
-      <c r="B730" s="15"/>
+      <c r="B730" s="14"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21406,7 +21392,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
-      <c r="B731" s="15"/>
+      <c r="B731" s="14"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21434,7 +21420,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
-      <c r="B732" s="15"/>
+      <c r="B732" s="14"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21462,7 +21448,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
-      <c r="B733" s="15"/>
+      <c r="B733" s="14"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21490,7 +21476,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
-      <c r="B734" s="15"/>
+      <c r="B734" s="14"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21518,7 +21504,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
-      <c r="B735" s="15"/>
+      <c r="B735" s="14"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21546,7 +21532,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
-      <c r="B736" s="15"/>
+      <c r="B736" s="14"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21574,7 +21560,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
-      <c r="B737" s="15"/>
+      <c r="B737" s="14"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21602,7 +21588,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
-      <c r="B738" s="15"/>
+      <c r="B738" s="14"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21630,7 +21616,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
-      <c r="B739" s="15"/>
+      <c r="B739" s="14"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21658,7 +21644,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
-      <c r="B740" s="15"/>
+      <c r="B740" s="14"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21686,7 +21672,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
-      <c r="B741" s="15"/>
+      <c r="B741" s="14"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21714,7 +21700,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
-      <c r="B742" s="15"/>
+      <c r="B742" s="14"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21742,7 +21728,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
-      <c r="B743" s="15"/>
+      <c r="B743" s="14"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21770,7 +21756,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
-      <c r="B744" s="15"/>
+      <c r="B744" s="14"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21798,7 +21784,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
-      <c r="B745" s="15"/>
+      <c r="B745" s="14"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21826,7 +21812,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
-      <c r="B746" s="15"/>
+      <c r="B746" s="14"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21854,7 +21840,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
-      <c r="B747" s="15"/>
+      <c r="B747" s="14"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -21882,7 +21868,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
-      <c r="B748" s="15"/>
+      <c r="B748" s="14"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -21910,7 +21896,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
-      <c r="B749" s="15"/>
+      <c r="B749" s="14"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -21938,7 +21924,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
-      <c r="B750" s="15"/>
+      <c r="B750" s="14"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -21966,7 +21952,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
-      <c r="B751" s="15"/>
+      <c r="B751" s="14"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -21994,7 +21980,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
-      <c r="B752" s="15"/>
+      <c r="B752" s="14"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -22022,7 +22008,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
-      <c r="B753" s="15"/>
+      <c r="B753" s="14"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -22050,7 +22036,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
-      <c r="B754" s="15"/>
+      <c r="B754" s="14"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -22078,7 +22064,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
-      <c r="B755" s="15"/>
+      <c r="B755" s="14"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -22106,7 +22092,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
-      <c r="B756" s="15"/>
+      <c r="B756" s="14"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -22134,7 +22120,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
-      <c r="B757" s="15"/>
+      <c r="B757" s="14"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22162,7 +22148,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
-      <c r="B758" s="15"/>
+      <c r="B758" s="14"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22190,7 +22176,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
-      <c r="B759" s="15"/>
+      <c r="B759" s="14"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22218,7 +22204,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
-      <c r="B760" s="15"/>
+      <c r="B760" s="14"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22246,7 +22232,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
-      <c r="B761" s="15"/>
+      <c r="B761" s="14"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22274,7 +22260,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
-      <c r="B762" s="15"/>
+      <c r="B762" s="14"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22302,7 +22288,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
-      <c r="B763" s="15"/>
+      <c r="B763" s="14"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22330,7 +22316,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="B764" s="15"/>
+      <c r="B764" s="14"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22358,7 +22344,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="B765" s="15"/>
+      <c r="B765" s="14"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22386,7 +22372,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="B766" s="15"/>
+      <c r="B766" s="14"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22414,7 +22400,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="B767" s="15"/>
+      <c r="B767" s="14"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22442,7 +22428,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
-      <c r="B768" s="15"/>
+      <c r="B768" s="14"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22470,7 +22456,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
-      <c r="B769" s="15"/>
+      <c r="B769" s="14"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22498,7 +22484,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
-      <c r="B770" s="15"/>
+      <c r="B770" s="14"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22526,7 +22512,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
-      <c r="B771" s="15"/>
+      <c r="B771" s="14"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22554,7 +22540,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
-      <c r="B772" s="15"/>
+      <c r="B772" s="14"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22582,7 +22568,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
-      <c r="B773" s="15"/>
+      <c r="B773" s="14"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22610,7 +22596,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
-      <c r="B774" s="15"/>
+      <c r="B774" s="14"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22638,7 +22624,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
-      <c r="B775" s="15"/>
+      <c r="B775" s="14"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22666,7 +22652,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
-      <c r="B776" s="15"/>
+      <c r="B776" s="14"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22694,7 +22680,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
-      <c r="B777" s="15"/>
+      <c r="B777" s="14"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22722,7 +22708,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
-      <c r="B778" s="15"/>
+      <c r="B778" s="14"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22750,7 +22736,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
-      <c r="B779" s="15"/>
+      <c r="B779" s="14"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22778,7 +22764,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
-      <c r="B780" s="15"/>
+      <c r="B780" s="14"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22806,7 +22792,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
-      <c r="B781" s="15"/>
+      <c r="B781" s="14"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22834,7 +22820,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
-      <c r="B782" s="15"/>
+      <c r="B782" s="14"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22862,7 +22848,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
-      <c r="B783" s="15"/>
+      <c r="B783" s="14"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -22890,7 +22876,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
-      <c r="B784" s="15"/>
+      <c r="B784" s="14"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -22918,7 +22904,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
-      <c r="B785" s="15"/>
+      <c r="B785" s="14"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -22946,7 +22932,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
-      <c r="B786" s="15"/>
+      <c r="B786" s="14"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -22974,7 +22960,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
-      <c r="B787" s="15"/>
+      <c r="B787" s="14"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -23002,7 +22988,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
-      <c r="B788" s="15"/>
+      <c r="B788" s="14"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -23030,7 +23016,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
-      <c r="B789" s="15"/>
+      <c r="B789" s="14"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -23058,7 +23044,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
-      <c r="B790" s="15"/>
+      <c r="B790" s="14"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -23086,7 +23072,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
-      <c r="B791" s="15"/>
+      <c r="B791" s="14"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -23114,7 +23100,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
-      <c r="B792" s="15"/>
+      <c r="B792" s="14"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -23142,7 +23128,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
-      <c r="B793" s="15"/>
+      <c r="B793" s="14"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23170,7 +23156,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
-      <c r="B794" s="15"/>
+      <c r="B794" s="14"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23198,7 +23184,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
-      <c r="B795" s="15"/>
+      <c r="B795" s="14"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23226,7 +23212,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
-      <c r="B796" s="15"/>
+      <c r="B796" s="14"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23254,7 +23240,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
-      <c r="B797" s="15"/>
+      <c r="B797" s="14"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23282,7 +23268,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
-      <c r="B798" s="15"/>
+      <c r="B798" s="14"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23310,7 +23296,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
-      <c r="B799" s="15"/>
+      <c r="B799" s="14"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23338,7 +23324,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
-      <c r="B800" s="15"/>
+      <c r="B800" s="14"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23366,7 +23352,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
-      <c r="B801" s="15"/>
+      <c r="B801" s="14"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23394,7 +23380,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
-      <c r="B802" s="15"/>
+      <c r="B802" s="14"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23422,7 +23408,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
-      <c r="B803" s="15"/>
+      <c r="B803" s="14"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23450,7 +23436,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
-      <c r="B804" s="15"/>
+      <c r="B804" s="14"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23478,7 +23464,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
-      <c r="B805" s="15"/>
+      <c r="B805" s="14"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23506,7 +23492,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
-      <c r="B806" s="15"/>
+      <c r="B806" s="14"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23534,7 +23520,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="B807" s="15"/>
+      <c r="B807" s="14"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23562,7 +23548,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
-      <c r="B808" s="15"/>
+      <c r="B808" s="14"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23590,7 +23576,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
-      <c r="B809" s="15"/>
+      <c r="B809" s="14"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23618,7 +23604,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
-      <c r="B810" s="15"/>
+      <c r="B810" s="14"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23646,7 +23632,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
-      <c r="B811" s="15"/>
+      <c r="B811" s="14"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23674,7 +23660,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
-      <c r="B812" s="15"/>
+      <c r="B812" s="14"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23702,7 +23688,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
-      <c r="B813" s="15"/>
+      <c r="B813" s="14"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23730,7 +23716,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
-      <c r="B814" s="15"/>
+      <c r="B814" s="14"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23758,7 +23744,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
-      <c r="B815" s="15"/>
+      <c r="B815" s="14"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23786,7 +23772,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
-      <c r="B816" s="15"/>
+      <c r="B816" s="14"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23814,7 +23800,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
-      <c r="B817" s="15"/>
+      <c r="B817" s="14"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23842,7 +23828,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
-      <c r="B818" s="15"/>
+      <c r="B818" s="14"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -23870,7 +23856,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
-      <c r="B819" s="15"/>
+      <c r="B819" s="14"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -23898,7 +23884,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
-      <c r="B820" s="15"/>
+      <c r="B820" s="14"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -23926,7 +23912,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
-      <c r="B821" s="15"/>
+      <c r="B821" s="14"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -23954,7 +23940,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
-      <c r="B822" s="15"/>
+      <c r="B822" s="14"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -23982,7 +23968,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
-      <c r="B823" s="15"/>
+      <c r="B823" s="14"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -24010,7 +23996,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
-      <c r="B824" s="15"/>
+      <c r="B824" s="14"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -24038,7 +24024,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
-      <c r="B825" s="15"/>
+      <c r="B825" s="14"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -24066,7 +24052,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
-      <c r="B826" s="15"/>
+      <c r="B826" s="14"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -24094,7 +24080,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
-      <c r="B827" s="15"/>
+      <c r="B827" s="14"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -24122,7 +24108,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
-      <c r="B828" s="15"/>
+      <c r="B828" s="14"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -24150,7 +24136,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
-      <c r="B829" s="15"/>
+      <c r="B829" s="14"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24178,7 +24164,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
-      <c r="B830" s="15"/>
+      <c r="B830" s="14"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24206,7 +24192,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
-      <c r="B831" s="15"/>
+      <c r="B831" s="14"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24234,7 +24220,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
-      <c r="B832" s="15"/>
+      <c r="B832" s="14"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24262,7 +24248,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
-      <c r="B833" s="15"/>
+      <c r="B833" s="14"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24290,7 +24276,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
-      <c r="B834" s="15"/>
+      <c r="B834" s="14"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24318,7 +24304,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
-      <c r="B835" s="15"/>
+      <c r="B835" s="14"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24346,7 +24332,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
-      <c r="B836" s="15"/>
+      <c r="B836" s="14"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24374,7 +24360,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
-      <c r="B837" s="15"/>
+      <c r="B837" s="14"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24402,7 +24388,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
-      <c r="B838" s="15"/>
+      <c r="B838" s="14"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24430,7 +24416,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
-      <c r="B839" s="15"/>
+      <c r="B839" s="14"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24458,7 +24444,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
-      <c r="B840" s="15"/>
+      <c r="B840" s="14"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24486,7 +24472,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
-      <c r="B841" s="15"/>
+      <c r="B841" s="14"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24514,7 +24500,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
-      <c r="B842" s="15"/>
+      <c r="B842" s="14"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24542,7 +24528,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
-      <c r="B843" s="15"/>
+      <c r="B843" s="14"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24570,7 +24556,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
-      <c r="B844" s="15"/>
+      <c r="B844" s="14"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24598,7 +24584,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
-      <c r="B845" s="15"/>
+      <c r="B845" s="14"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24626,7 +24612,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
-      <c r="B846" s="15"/>
+      <c r="B846" s="14"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24654,7 +24640,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
-      <c r="B847" s="15"/>
+      <c r="B847" s="14"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24682,7 +24668,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
-      <c r="B848" s="15"/>
+      <c r="B848" s="14"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24710,7 +24696,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
-      <c r="B849" s="15"/>
+      <c r="B849" s="14"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24738,7 +24724,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
-      <c r="B850" s="15"/>
+      <c r="B850" s="14"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24766,7 +24752,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
-      <c r="B851" s="15"/>
+      <c r="B851" s="14"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24794,7 +24780,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
-      <c r="B852" s="15"/>
+      <c r="B852" s="14"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24822,7 +24808,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
-      <c r="B853" s="15"/>
+      <c r="B853" s="14"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24850,7 +24836,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
-      <c r="B854" s="15"/>
+      <c r="B854" s="14"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -24878,7 +24864,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
-      <c r="B855" s="15"/>
+      <c r="B855" s="14"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -24906,7 +24892,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
-      <c r="B856" s="15"/>
+      <c r="B856" s="14"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -24934,7 +24920,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
-      <c r="B857" s="15"/>
+      <c r="B857" s="14"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -24962,7 +24948,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
-      <c r="B858" s="15"/>
+      <c r="B858" s="14"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -24990,7 +24976,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
-      <c r="B859" s="15"/>
+      <c r="B859" s="14"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -25018,7 +25004,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
-      <c r="B860" s="15"/>
+      <c r="B860" s="14"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -25046,7 +25032,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
-      <c r="B861" s="15"/>
+      <c r="B861" s="14"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -25074,7 +25060,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
-      <c r="B862" s="15"/>
+      <c r="B862" s="14"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -25102,7 +25088,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
-      <c r="B863" s="15"/>
+      <c r="B863" s="14"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -25130,7 +25116,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
-      <c r="B864" s="15"/>
+      <c r="B864" s="14"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -25158,7 +25144,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
-      <c r="B865" s="15"/>
+      <c r="B865" s="14"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25186,7 +25172,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
-      <c r="B866" s="15"/>
+      <c r="B866" s="14"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25214,7 +25200,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
-      <c r="B867" s="15"/>
+      <c r="B867" s="14"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25242,7 +25228,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
-      <c r="B868" s="15"/>
+      <c r="B868" s="14"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25270,7 +25256,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
-      <c r="B869" s="15"/>
+      <c r="B869" s="14"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25298,7 +25284,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
-      <c r="B870" s="15"/>
+      <c r="B870" s="14"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25326,7 +25312,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
-      <c r="B871" s="15"/>
+      <c r="B871" s="14"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25354,7 +25340,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
-      <c r="B872" s="15"/>
+      <c r="B872" s="14"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25382,7 +25368,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
-      <c r="B873" s="15"/>
+      <c r="B873" s="14"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25410,7 +25396,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
-      <c r="B874" s="15"/>
+      <c r="B874" s="14"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25438,7 +25424,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
-      <c r="B875" s="15"/>
+      <c r="B875" s="14"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25466,7 +25452,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
-      <c r="B876" s="15"/>
+      <c r="B876" s="14"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25494,7 +25480,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
-      <c r="B877" s="15"/>
+      <c r="B877" s="14"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25522,7 +25508,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
-      <c r="B878" s="15"/>
+      <c r="B878" s="14"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25550,7 +25536,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
-      <c r="B879" s="15"/>
+      <c r="B879" s="14"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25578,7 +25564,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
-      <c r="B880" s="15"/>
+      <c r="B880" s="14"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25606,7 +25592,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
-      <c r="B881" s="15"/>
+      <c r="B881" s="14"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25634,7 +25620,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
-      <c r="B882" s="15"/>
+      <c r="B882" s="14"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25662,7 +25648,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
-      <c r="B883" s="15"/>
+      <c r="B883" s="14"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25690,7 +25676,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
-      <c r="B884" s="15"/>
+      <c r="B884" s="14"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25718,7 +25704,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
-      <c r="B885" s="15"/>
+      <c r="B885" s="14"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25746,7 +25732,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
-      <c r="B886" s="15"/>
+      <c r="B886" s="14"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25774,7 +25760,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
-      <c r="B887" s="15"/>
+      <c r="B887" s="14"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25802,7 +25788,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
-      <c r="B888" s="15"/>
+      <c r="B888" s="14"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25830,7 +25816,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
-      <c r="B889" s="15"/>
+      <c r="B889" s="14"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25858,7 +25844,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
-      <c r="B890" s="15"/>
+      <c r="B890" s="14"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -25886,7 +25872,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
-      <c r="B891" s="15"/>
+      <c r="B891" s="14"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -25914,7 +25900,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
-      <c r="B892" s="15"/>
+      <c r="B892" s="14"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -25942,7 +25928,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
-      <c r="B893" s="15"/>
+      <c r="B893" s="14"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -25970,7 +25956,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
-      <c r="B894" s="15"/>
+      <c r="B894" s="14"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -25998,7 +25984,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
-      <c r="B895" s="15"/>
+      <c r="B895" s="14"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -26026,7 +26012,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
-      <c r="B896" s="15"/>
+      <c r="B896" s="14"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -26054,7 +26040,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
-      <c r="B897" s="15"/>
+      <c r="B897" s="14"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -26082,7 +26068,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
-      <c r="B898" s="15"/>
+      <c r="B898" s="14"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -26110,7 +26096,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
-      <c r="B899" s="15"/>
+      <c r="B899" s="14"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -26138,7 +26124,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
-      <c r="B900" s="15"/>
+      <c r="B900" s="14"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26166,7 +26152,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
-      <c r="B901" s="15"/>
+      <c r="B901" s="14"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26194,7 +26180,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
-      <c r="B902" s="15"/>
+      <c r="B902" s="14"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26222,7 +26208,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
-      <c r="B903" s="15"/>
+      <c r="B903" s="14"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26250,7 +26236,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
-      <c r="B904" s="15"/>
+      <c r="B904" s="14"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26278,7 +26264,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
-      <c r="B905" s="15"/>
+      <c r="B905" s="14"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26306,7 +26292,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
-      <c r="B906" s="15"/>
+      <c r="B906" s="14"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26334,7 +26320,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
-      <c r="B907" s="15"/>
+      <c r="B907" s="14"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26362,7 +26348,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
-      <c r="B908" s="15"/>
+      <c r="B908" s="14"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26390,7 +26376,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
-      <c r="B909" s="15"/>
+      <c r="B909" s="14"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26418,7 +26404,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
-      <c r="B910" s="15"/>
+      <c r="B910" s="14"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26446,7 +26432,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
-      <c r="B911" s="15"/>
+      <c r="B911" s="14"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26474,7 +26460,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
-      <c r="B912" s="15"/>
+      <c r="B912" s="14"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26502,7 +26488,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="B913" s="15"/>
+      <c r="B913" s="14"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26530,7 +26516,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
-      <c r="B914" s="15"/>
+      <c r="B914" s="14"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26558,7 +26544,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
-      <c r="B915" s="15"/>
+      <c r="B915" s="14"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26586,7 +26572,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
-      <c r="B916" s="15"/>
+      <c r="B916" s="14"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26614,7 +26600,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
-      <c r="B917" s="15"/>
+      <c r="B917" s="14"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26642,7 +26628,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
-      <c r="B918" s="15"/>
+      <c r="B918" s="14"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26670,7 +26656,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
-      <c r="B919" s="15"/>
+      <c r="B919" s="14"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26698,7 +26684,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
-      <c r="B920" s="15"/>
+      <c r="B920" s="14"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26726,7 +26712,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
-      <c r="B921" s="15"/>
+      <c r="B921" s="14"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26754,7 +26740,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
-      <c r="B922" s="15"/>
+      <c r="B922" s="14"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26782,7 +26768,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
-      <c r="B923" s="15"/>
+      <c r="B923" s="14"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26810,7 +26796,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
-      <c r="B924" s="15"/>
+      <c r="B924" s="14"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26838,7 +26824,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
-      <c r="B925" s="15"/>
+      <c r="B925" s="14"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -26866,7 +26852,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
-      <c r="B926" s="15"/>
+      <c r="B926" s="14"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -26894,7 +26880,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
-      <c r="B927" s="15"/>
+      <c r="B927" s="14"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -26922,7 +26908,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
-      <c r="B928" s="15"/>
+      <c r="B928" s="14"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -26950,7 +26936,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
-      <c r="B929" s="15"/>
+      <c r="B929" s="14"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -26978,7 +26964,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
-      <c r="B930" s="15"/>
+      <c r="B930" s="14"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -27006,7 +26992,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
-      <c r="B931" s="15"/>
+      <c r="B931" s="14"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -27034,7 +27020,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
-      <c r="B932" s="15"/>
+      <c r="B932" s="14"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -27062,7 +27048,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
-      <c r="B933" s="15"/>
+      <c r="B933" s="14"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -27090,7 +27076,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
-      <c r="B934" s="15"/>
+      <c r="B934" s="14"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -27118,7 +27104,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
-      <c r="B935" s="15"/>
+      <c r="B935" s="14"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -27146,7 +27132,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
-      <c r="B936" s="15"/>
+      <c r="B936" s="14"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27174,7 +27160,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
-      <c r="B937" s="15"/>
+      <c r="B937" s="14"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27202,7 +27188,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
-      <c r="B938" s="15"/>
+      <c r="B938" s="14"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27230,7 +27216,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
-      <c r="B939" s="15"/>
+      <c r="B939" s="14"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27258,7 +27244,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
-      <c r="B940" s="15"/>
+      <c r="B940" s="14"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27286,7 +27272,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
-      <c r="B941" s="15"/>
+      <c r="B941" s="14"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27314,7 +27300,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
-      <c r="B942" s="15"/>
+      <c r="B942" s="14"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27342,7 +27328,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
-      <c r="B943" s="15"/>
+      <c r="B943" s="14"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27370,7 +27356,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
-      <c r="B944" s="15"/>
+      <c r="B944" s="14"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27398,7 +27384,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
-      <c r="B945" s="15"/>
+      <c r="B945" s="14"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27426,7 +27412,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
-      <c r="B946" s="15"/>
+      <c r="B946" s="14"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27454,7 +27440,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
-      <c r="B947" s="15"/>
+      <c r="B947" s="14"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27482,7 +27468,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
-      <c r="B948" s="15"/>
+      <c r="B948" s="14"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27510,7 +27496,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
-      <c r="B949" s="15"/>
+      <c r="B949" s="14"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27538,7 +27524,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
-      <c r="B950" s="15"/>
+      <c r="B950" s="14"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27566,7 +27552,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
-      <c r="B951" s="15"/>
+      <c r="B951" s="14"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27594,7 +27580,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
-      <c r="B952" s="15"/>
+      <c r="B952" s="14"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27622,7 +27608,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
-      <c r="B953" s="15"/>
+      <c r="B953" s="14"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27650,7 +27636,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
-      <c r="B954" s="15"/>
+      <c r="B954" s="14"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27678,7 +27664,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
-      <c r="B955" s="15"/>
+      <c r="B955" s="14"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27706,7 +27692,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
-      <c r="B956" s="15"/>
+      <c r="B956" s="14"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27734,7 +27720,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
-      <c r="B957" s="15"/>
+      <c r="B957" s="14"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27762,7 +27748,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
-      <c r="B958" s="15"/>
+      <c r="B958" s="14"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27790,7 +27776,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
-      <c r="B959" s="15"/>
+      <c r="B959" s="14"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27818,7 +27804,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
-      <c r="B960" s="15"/>
+      <c r="B960" s="14"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27846,7 +27832,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
-      <c r="B961" s="15"/>
+      <c r="B961" s="14"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -27874,7 +27860,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
-      <c r="B962" s="15"/>
+      <c r="B962" s="14"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -27902,7 +27888,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
-      <c r="B963" s="15"/>
+      <c r="B963" s="14"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -27930,7 +27916,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
-      <c r="B964" s="15"/>
+      <c r="B964" s="14"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -27958,7 +27944,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
-      <c r="B965" s="15"/>
+      <c r="B965" s="14"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -27986,7 +27972,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
-      <c r="B966" s="15"/>
+      <c r="B966" s="14"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -28014,7 +28000,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
-      <c r="B967" s="15"/>
+      <c r="B967" s="14"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -28042,7 +28028,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
-      <c r="B968" s="15"/>
+      <c r="B968" s="14"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -28070,7 +28056,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
-      <c r="B969" s="15"/>
+      <c r="B969" s="14"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -28098,7 +28084,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
-      <c r="B970" s="15"/>
+      <c r="B970" s="14"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -28126,7 +28112,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
-      <c r="B971" s="15"/>
+      <c r="B971" s="14"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -28154,7 +28140,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
-      <c r="B972" s="15"/>
+      <c r="B972" s="14"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28182,7 +28168,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
-      <c r="B973" s="15"/>
+      <c r="B973" s="14"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28210,7 +28196,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
-      <c r="B974" s="15"/>
+      <c r="B974" s="14"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28238,7 +28224,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
-      <c r="B975" s="15"/>
+      <c r="B975" s="14"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28266,7 +28252,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
-      <c r="B976" s="15"/>
+      <c r="B976" s="14"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28294,7 +28280,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
-      <c r="B977" s="15"/>
+      <c r="B977" s="14"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28322,7 +28308,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
-      <c r="B978" s="15"/>
+      <c r="B978" s="14"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28350,7 +28336,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
-      <c r="B979" s="15"/>
+      <c r="B979" s="14"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28378,7 +28364,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
-      <c r="B980" s="15"/>
+      <c r="B980" s="14"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28406,7 +28392,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
-      <c r="B981" s="15"/>
+      <c r="B981" s="14"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28434,7 +28420,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
-      <c r="B982" s="15"/>
+      <c r="B982" s="14"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28462,7 +28448,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
-      <c r="B983" s="15"/>
+      <c r="B983" s="14"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28490,7 +28476,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
-      <c r="B984" s="15"/>
+      <c r="B984" s="14"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28518,7 +28504,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
-      <c r="B985" s="15"/>
+      <c r="B985" s="14"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28546,7 +28532,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
-      <c r="B986" s="15"/>
+      <c r="B986" s="14"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28574,7 +28560,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
-      <c r="B987" s="15"/>
+      <c r="B987" s="14"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28601,16 +28587,6 @@
       <c r="Z987" s="4"/>
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A988" s="4"/>
-      <c r="B988" s="15"/>
-      <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
-      <c r="E988" s="4"/>
-      <c r="F988" s="4"/>
-      <c r="G988" s="4"/>
-      <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
-      <c r="J988" s="4"/>
       <c r="K988" s="4"/>
       <c r="L988" s="4"/>
       <c r="M988" s="4"/>
@@ -28629,16 +28605,6 @@
       <c r="Z988" s="4"/>
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A989" s="4"/>
-      <c r="B989" s="15"/>
-      <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
-      <c r="E989" s="4"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="4"/>
-      <c r="H989" s="4"/>
-      <c r="I989" s="4"/>
-      <c r="J989" s="4"/>
       <c r="K989" s="4"/>
       <c r="L989" s="4"/>
       <c r="M989" s="4"/>
@@ -28674,42 +28640,6 @@
       <c r="Y990" s="4"/>
       <c r="Z990" s="4"/>
     </row>
-    <row r="991" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K991" s="4"/>
-      <c r="L991" s="4"/>
-      <c r="M991" s="4"/>
-      <c r="N991" s="4"/>
-      <c r="O991" s="4"/>
-      <c r="P991" s="4"/>
-      <c r="Q991" s="4"/>
-      <c r="R991" s="4"/>
-      <c r="S991" s="4"/>
-      <c r="T991" s="4"/>
-      <c r="U991" s="4"/>
-      <c r="V991" s="4"/>
-      <c r="W991" s="4"/>
-      <c r="X991" s="4"/>
-      <c r="Y991" s="4"/>
-      <c r="Z991" s="4"/>
-    </row>
-    <row r="992" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K992" s="4"/>
-      <c r="L992" s="4"/>
-      <c r="M992" s="4"/>
-      <c r="N992" s="4"/>
-      <c r="O992" s="4"/>
-      <c r="P992" s="4"/>
-      <c r="Q992" s="4"/>
-      <c r="R992" s="4"/>
-      <c r="S992" s="4"/>
-      <c r="T992" s="4"/>
-      <c r="U992" s="4"/>
-      <c r="V992" s="4"/>
-      <c r="W992" s="4"/>
-      <c r="X992" s="4"/>
-      <c r="Y992" s="4"/>
-      <c r="Z992" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
@@ -28718,7 +28648,7 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/ke_hoach_lam_viec.xlsx
+++ b/ke_hoach_lam_viec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dater\Documents\HK7\DACN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6463B4-0CD6-4B23-8D7C-7EF42B83E1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD45C5-7352-43D1-8802-D2BE4DC63790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -561,7 +561,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1613,11 +1613,15 @@
       <c r="F25" s="9">
         <v>45647</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1655,11 +1659,15 @@
       <c r="F26" s="9">
         <v>45648</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
